--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>SY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>43400</v>
+        <v>25600</v>
       </c>
       <c r="E8" s="3">
-        <v>40900</v>
+        <v>50100</v>
       </c>
       <c r="F8" s="3">
-        <v>29600</v>
+        <v>42300</v>
       </c>
       <c r="G8" s="3">
-        <v>26300</v>
+        <v>39900</v>
       </c>
       <c r="H8" s="3">
-        <v>24200</v>
+        <v>28800</v>
       </c>
       <c r="I8" s="3">
+        <v>25600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K8" s="3">
         <v>21800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>16300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7700</v>
+        <v>6000</v>
       </c>
       <c r="E9" s="3">
-        <v>7100</v>
+        <v>8200</v>
       </c>
       <c r="F9" s="3">
-        <v>5200</v>
+        <v>7500</v>
       </c>
       <c r="G9" s="3">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="H9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>35700</v>
+        <v>19500</v>
       </c>
       <c r="E10" s="3">
-        <v>33700</v>
+        <v>41900</v>
       </c>
       <c r="F10" s="3">
-        <v>24300</v>
+        <v>34800</v>
       </c>
       <c r="G10" s="3">
-        <v>21700</v>
+        <v>32900</v>
       </c>
       <c r="H10" s="3">
-        <v>20700</v>
+        <v>23700</v>
       </c>
       <c r="I10" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K10" s="3">
         <v>18800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>14200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="E12" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="F12" s="3">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="G12" s="3">
-        <v>3700</v>
+        <v>7200</v>
       </c>
       <c r="H12" s="3">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="I12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -880,28 +919,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>40500</v>
+        <v>32000</v>
       </c>
       <c r="E17" s="3">
-        <v>39400</v>
+        <v>39900</v>
       </c>
       <c r="F17" s="3">
-        <v>24100</v>
+        <v>39500</v>
       </c>
       <c r="G17" s="3">
-        <v>21400</v>
+        <v>38400</v>
       </c>
       <c r="H17" s="3">
-        <v>27300</v>
+        <v>23500</v>
       </c>
       <c r="I17" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K17" s="3">
         <v>20700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>12100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2900</v>
+        <v>-6500</v>
       </c>
       <c r="E18" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G18" s="3">
         <v>1500</v>
       </c>
-      <c r="F18" s="3">
-        <v>5500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4800</v>
-      </c>
       <c r="H18" s="3">
-        <v>-3200</v>
+        <v>5300</v>
       </c>
       <c r="I18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1010,37 +1075,45 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1068,8 +1141,14 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5000</v>
+        <v>-5600</v>
       </c>
       <c r="E23" s="3">
-        <v>5700</v>
+        <v>13800</v>
       </c>
       <c r="F23" s="3">
-        <v>7600</v>
+        <v>4800</v>
       </c>
       <c r="G23" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="H23" s="3">
-        <v>-3800</v>
+        <v>7400</v>
       </c>
       <c r="I23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4500</v>
+        <v>-5000</v>
       </c>
       <c r="E26" s="3">
-        <v>4200</v>
+        <v>9800</v>
       </c>
       <c r="F26" s="3">
-        <v>6600</v>
+        <v>4400</v>
       </c>
       <c r="G26" s="3">
-        <v>5900</v>
+        <v>4100</v>
       </c>
       <c r="H26" s="3">
-        <v>-3600</v>
+        <v>6400</v>
       </c>
       <c r="I26" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4500</v>
+        <v>-5000</v>
       </c>
       <c r="E27" s="3">
-        <v>2400</v>
+        <v>9800</v>
       </c>
       <c r="F27" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4500</v>
+        <v>-5000</v>
       </c>
       <c r="E33" s="3">
-        <v>2400</v>
+        <v>9800</v>
       </c>
       <c r="F33" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4500</v>
+        <v>-5000</v>
       </c>
       <c r="E35" s="3">
-        <v>2400</v>
+        <v>9800</v>
       </c>
       <c r="F35" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,25 +1705,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>87600</v>
+        <v>128300</v>
       </c>
       <c r="E41" s="3">
-        <v>158900</v>
+        <v>123800</v>
       </c>
       <c r="F41" s="3">
-        <v>101900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>16</v>
+        <v>85400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>155000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>99400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>16</v>
@@ -1563,25 +1736,31 @@
       <c r="K41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>309100</v>
+        <v>255600</v>
       </c>
       <c r="E42" s="3">
-        <v>223500</v>
+        <v>271900</v>
       </c>
       <c r="F42" s="3">
-        <v>80400</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>16</v>
+        <v>301500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>218000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>78500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>16</v>
@@ -1592,26 +1771,32 @@
       <c r="K42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6500</v>
+        <v>7300</v>
       </c>
       <c r="E43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1621,8 +1806,14 @@
       <c r="K43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,25 +1841,31 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12600</v>
+        <v>11500</v>
       </c>
       <c r="E45" s="3">
-        <v>11200</v>
+        <v>11800</v>
       </c>
       <c r="F45" s="3">
-        <v>8200</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>16</v>
+        <v>12200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>16</v>
@@ -1679,25 +1876,31 @@
       <c r="K45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>415800</v>
+        <v>402700</v>
       </c>
       <c r="E46" s="3">
-        <v>397600</v>
+        <v>413900</v>
       </c>
       <c r="F46" s="3">
-        <v>194600</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>16</v>
+        <v>405600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>387800</v>
+      </c>
+      <c r="H46" s="3">
+        <v>189900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>16</v>
@@ -1708,26 +1911,32 @@
       <c r="K46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5200</v>
+        <v>6200</v>
       </c>
       <c r="E47" s="3">
-        <v>4600</v>
+        <v>6400</v>
       </c>
       <c r="F47" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H47" s="3">
         <v>2100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>16</v>
       </c>
@@ -1737,25 +1946,31 @@
       <c r="K47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26900</v>
+        <v>24300</v>
       </c>
       <c r="E48" s="3">
-        <v>27900</v>
+        <v>24700</v>
       </c>
       <c r="F48" s="3">
-        <v>25100</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>16</v>
+        <v>26200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>27200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>24500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>16</v>
@@ -1766,37 +1981,49 @@
       <c r="K48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>6100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,25 +2086,31 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6200</v>
+        <v>7200</v>
       </c>
       <c r="E52" s="3">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="F52" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>16</v>
+        <v>6000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>6900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>16</v>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,25 +2156,31 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>454100</v>
+        <v>446600</v>
       </c>
       <c r="E54" s="3">
-        <v>434700</v>
+        <v>452100</v>
       </c>
       <c r="F54" s="3">
-        <v>228900</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>16</v>
+        <v>442900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>424000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>223300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>16</v>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,25 +2225,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12900</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>16</v>
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>16</v>
@@ -1995,8 +2256,14 @@
       <c r="K57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,25 +2291,31 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>51600</v>
+        <v>56900</v>
       </c>
       <c r="E59" s="3">
-        <v>47800</v>
+        <v>64900</v>
       </c>
       <c r="F59" s="3">
-        <v>44200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>16</v>
+        <v>62400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>56700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>52800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>16</v>
@@ -2053,25 +2326,31 @@
       <c r="K59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64500</v>
+        <v>57200</v>
       </c>
       <c r="E60" s="3">
-        <v>58800</v>
+        <v>65300</v>
       </c>
       <c r="F60" s="3">
-        <v>54100</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>16</v>
+        <v>62900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>57400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>52800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>16</v>
@@ -2082,8 +2361,14 @@
       <c r="K60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,25 +2396,31 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="E62" s="3">
-        <v>19700</v>
+        <v>16900</v>
       </c>
       <c r="F62" s="3">
-        <v>20600</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
+        <v>18100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>19200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>20100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,25 +2536,31 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>83100</v>
+        <v>74900</v>
       </c>
       <c r="E66" s="3">
-        <v>78500</v>
+        <v>82200</v>
       </c>
       <c r="F66" s="3">
-        <v>74800</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>16</v>
+        <v>81100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>76600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>72900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2339,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>205600</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>200600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,25 +2726,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-45700</v>
+        <v>-39900</v>
       </c>
       <c r="E72" s="3">
-        <v>-50300</v>
+        <v>-34800</v>
       </c>
       <c r="F72" s="3">
-        <v>-54500</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
+        <v>-44600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-53100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,25 +2866,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>371000</v>
+        <v>371600</v>
       </c>
       <c r="E76" s="3">
-        <v>356200</v>
+        <v>369900</v>
       </c>
       <c r="F76" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>16</v>
+        <v>361900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>347500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-50300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>16</v>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4500</v>
+        <v>-5000</v>
       </c>
       <c r="E81" s="3">
-        <v>2400</v>
+        <v>9800</v>
       </c>
       <c r="F81" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3236,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2838,8 +3271,14 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3426,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3581,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3125,8 +3616,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3651,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3181,6 +3684,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>SY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25600</v>
+        <v>47700</v>
       </c>
       <c r="E8" s="3">
-        <v>50100</v>
+        <v>26500</v>
       </c>
       <c r="F8" s="3">
-        <v>42300</v>
+        <v>52000</v>
       </c>
       <c r="G8" s="3">
-        <v>39900</v>
+        <v>43900</v>
       </c>
       <c r="H8" s="3">
-        <v>28800</v>
+        <v>41400</v>
       </c>
       <c r="I8" s="3">
-        <v>25600</v>
+        <v>29900</v>
       </c>
       <c r="J8" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K8" s="3">
         <v>23600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6000</v>
+        <v>7400</v>
       </c>
       <c r="E9" s="3">
-        <v>8200</v>
+        <v>6300</v>
       </c>
       <c r="F9" s="3">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="G9" s="3">
-        <v>7000</v>
+        <v>7800</v>
       </c>
       <c r="H9" s="3">
-        <v>5100</v>
+        <v>7200</v>
       </c>
       <c r="I9" s="3">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="J9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K9" s="3">
         <v>3400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19500</v>
+        <v>40300</v>
       </c>
       <c r="E10" s="3">
-        <v>41900</v>
+        <v>20300</v>
       </c>
       <c r="F10" s="3">
-        <v>34800</v>
+        <v>43500</v>
       </c>
       <c r="G10" s="3">
-        <v>32900</v>
+        <v>36100</v>
       </c>
       <c r="H10" s="3">
-        <v>23700</v>
+        <v>34200</v>
       </c>
       <c r="I10" s="3">
-        <v>21200</v>
+        <v>24600</v>
       </c>
       <c r="J10" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K10" s="3">
         <v>20200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6000</v>
+        <v>7600</v>
       </c>
       <c r="E12" s="3">
-        <v>7700</v>
+        <v>6200</v>
       </c>
       <c r="F12" s="3">
-        <v>5500</v>
+        <v>7900</v>
       </c>
       <c r="G12" s="3">
-        <v>7200</v>
+        <v>5700</v>
       </c>
       <c r="H12" s="3">
-        <v>4400</v>
+        <v>7500</v>
       </c>
       <c r="I12" s="3">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="J12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,20 +927,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
@@ -936,8 +956,8 @@
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>32000</v>
+        <v>49100</v>
       </c>
       <c r="E17" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>41000</v>
+      </c>
+      <c r="H17" s="3">
         <v>39900</v>
       </c>
-      <c r="F17" s="3">
-        <v>39500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>38400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>23500</v>
-      </c>
       <c r="I17" s="3">
-        <v>20900</v>
+        <v>24400</v>
       </c>
       <c r="J17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K17" s="3">
         <v>26700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-6500</v>
+        <v>-1400</v>
       </c>
       <c r="E18" s="3">
-        <v>10200</v>
+        <v>-6700</v>
       </c>
       <c r="F18" s="3">
-        <v>2800</v>
+        <v>10600</v>
       </c>
       <c r="G18" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H18" s="3">
         <v>1500</v>
       </c>
-      <c r="H18" s="3">
-        <v>5300</v>
-      </c>
       <c r="I18" s="3">
-        <v>4700</v>
+        <v>5500</v>
       </c>
       <c r="J18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,43 +1110,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
-        <v>3700</v>
-      </c>
       <c r="F20" s="3">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="G20" s="3">
-        <v>4100</v>
+        <v>2100</v>
       </c>
       <c r="H20" s="3">
-        <v>2100</v>
+        <v>4300</v>
       </c>
       <c r="I20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5600</v>
+        <v>700</v>
       </c>
       <c r="E23" s="3">
-        <v>13800</v>
+        <v>-5800</v>
       </c>
       <c r="F23" s="3">
-        <v>4800</v>
+        <v>14400</v>
       </c>
       <c r="G23" s="3">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="H23" s="3">
-        <v>7400</v>
+        <v>5800</v>
       </c>
       <c r="I23" s="3">
-        <v>5800</v>
+        <v>7700</v>
       </c>
       <c r="J23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
-        <v>4100</v>
-      </c>
       <c r="F24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>1500</v>
-      </c>
       <c r="H24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5000</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>9800</v>
+        <v>-5200</v>
       </c>
       <c r="F26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M26" s="3">
         <v>4400</v>
       </c>
-      <c r="G26" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>5700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>4400</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5000</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
-        <v>9800</v>
+        <v>-5200</v>
       </c>
       <c r="F27" s="3">
-        <v>4400</v>
+        <v>10200</v>
       </c>
       <c r="G27" s="3">
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="H27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
-        <v>-3700</v>
-      </c>
       <c r="F32" s="3">
-        <v>-2000</v>
+        <v>-3800</v>
       </c>
       <c r="G32" s="3">
-        <v>-4100</v>
+        <v>-2100</v>
       </c>
       <c r="H32" s="3">
-        <v>-2100</v>
+        <v>-4300</v>
       </c>
       <c r="I32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5000</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
-        <v>9800</v>
+        <v>-5200</v>
       </c>
       <c r="F33" s="3">
-        <v>4400</v>
+        <v>10200</v>
       </c>
       <c r="G33" s="3">
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="H33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5000</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
-        <v>9800</v>
+        <v>-5200</v>
       </c>
       <c r="F35" s="3">
-        <v>4400</v>
+        <v>10200</v>
       </c>
       <c r="G35" s="3">
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="H35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,28 +1793,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>128300</v>
+        <v>228600</v>
       </c>
       <c r="E41" s="3">
-        <v>123800</v>
+        <v>133100</v>
       </c>
       <c r="F41" s="3">
-        <v>85400</v>
+        <v>128500</v>
       </c>
       <c r="G41" s="3">
-        <v>155000</v>
+        <v>88600</v>
       </c>
       <c r="H41" s="3">
-        <v>99400</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>16</v>
+        <v>160800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>103100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>16</v>
@@ -1742,28 +1829,31 @@
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>255600</v>
+        <v>187800</v>
       </c>
       <c r="E42" s="3">
-        <v>271900</v>
+        <v>265300</v>
       </c>
       <c r="F42" s="3">
-        <v>301500</v>
+        <v>282200</v>
       </c>
       <c r="G42" s="3">
-        <v>218000</v>
+        <v>312900</v>
       </c>
       <c r="H42" s="3">
-        <v>78500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>16</v>
+        <v>226200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>81400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>16</v>
@@ -1777,28 +1867,31 @@
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7300</v>
+        <v>9600</v>
       </c>
       <c r="E43" s="3">
-        <v>6300</v>
+        <v>7500</v>
       </c>
       <c r="F43" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="G43" s="3">
-        <v>3900</v>
+        <v>6600</v>
       </c>
       <c r="H43" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>16</v>
+        <v>4100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>16</v>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,28 +1943,31 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="E45" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="F45" s="3">
         <v>12200</v>
       </c>
       <c r="G45" s="3">
-        <v>10900</v>
+        <v>12700</v>
       </c>
       <c r="H45" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>16</v>
+        <v>11300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>8300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>16</v>
@@ -1882,28 +1981,31 @@
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>402700</v>
+        <v>435500</v>
       </c>
       <c r="E46" s="3">
-        <v>413900</v>
+        <v>417900</v>
       </c>
       <c r="F46" s="3">
-        <v>405600</v>
+        <v>429400</v>
       </c>
       <c r="G46" s="3">
-        <v>387800</v>
+        <v>420900</v>
       </c>
       <c r="H46" s="3">
-        <v>189900</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>16</v>
+        <v>402400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>197000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>16</v>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1929,16 +2034,16 @@
         <v>6400</v>
       </c>
       <c r="F47" s="3">
-        <v>5100</v>
+        <v>6700</v>
       </c>
       <c r="G47" s="3">
-        <v>4500</v>
+        <v>5300</v>
       </c>
       <c r="H47" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>16</v>
+        <v>4700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>16</v>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1961,19 +2069,19 @@
         <v>24300</v>
       </c>
       <c r="E48" s="3">
-        <v>24700</v>
+        <v>25300</v>
       </c>
       <c r="F48" s="3">
-        <v>26200</v>
+        <v>25700</v>
       </c>
       <c r="G48" s="3">
         <v>27200</v>
       </c>
       <c r="H48" s="3">
-        <v>24500</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>16</v>
+        <v>28300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>25400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>16</v>
@@ -1987,16 +2095,19 @@
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>6100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>16</v>
+      <c r="E49" s="3">
+        <v>6300</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>16</v>
@@ -2013,8 +2124,8 @@
       <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,28 +2209,31 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7200</v>
+        <v>7600</v>
       </c>
       <c r="E52" s="3">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="F52" s="3">
-        <v>6000</v>
+        <v>7300</v>
       </c>
       <c r="G52" s="3">
-        <v>4500</v>
+        <v>6200</v>
       </c>
       <c r="H52" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
+        <v>4600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>7100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>16</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,28 +2285,31 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>446600</v>
+        <v>479800</v>
       </c>
       <c r="E54" s="3">
-        <v>452100</v>
+        <v>463400</v>
       </c>
       <c r="F54" s="3">
-        <v>442900</v>
+        <v>469100</v>
       </c>
       <c r="G54" s="3">
-        <v>424000</v>
+        <v>459600</v>
       </c>
       <c r="H54" s="3">
-        <v>223300</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
+        <v>440000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>231700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>16</v>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2239,16 +2370,16 @@
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>16</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>16</v>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,28 +2431,31 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56900</v>
+        <v>72200</v>
       </c>
       <c r="E59" s="3">
-        <v>64900</v>
+        <v>59000</v>
       </c>
       <c r="F59" s="3">
-        <v>62400</v>
+        <v>67400</v>
       </c>
       <c r="G59" s="3">
-        <v>56700</v>
+        <v>64800</v>
       </c>
       <c r="H59" s="3">
-        <v>52800</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>16</v>
+        <v>58800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>54800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>16</v>
@@ -2332,28 +2469,31 @@
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>57200</v>
+        <v>72500</v>
       </c>
       <c r="E60" s="3">
+        <v>59400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>67800</v>
+      </c>
+      <c r="G60" s="3">
         <v>65300</v>
       </c>
-      <c r="F60" s="3">
-        <v>62900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>57400</v>
-      </c>
       <c r="H60" s="3">
-        <v>52800</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>16</v>
+        <v>59500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>54800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>16</v>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,28 +2545,31 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="E62" s="3">
-        <v>16900</v>
+        <v>18400</v>
       </c>
       <c r="F62" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="G62" s="3">
-        <v>19200</v>
+        <v>18800</v>
       </c>
       <c r="H62" s="3">
-        <v>20100</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
+        <v>19900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>20900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>16</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,28 +2697,31 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>74900</v>
+        <v>90000</v>
       </c>
       <c r="E66" s="3">
-        <v>82200</v>
+        <v>77800</v>
       </c>
       <c r="F66" s="3">
-        <v>81100</v>
+        <v>85300</v>
       </c>
       <c r="G66" s="3">
-        <v>76600</v>
+        <v>84100</v>
       </c>
       <c r="H66" s="3">
-        <v>72900</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>16</v>
+        <v>79500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>75700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>16</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2680,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>200600</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>208200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,28 +2903,31 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39900</v>
+        <v>-41100</v>
       </c>
       <c r="E72" s="3">
-        <v>-34800</v>
+        <v>-41400</v>
       </c>
       <c r="F72" s="3">
-        <v>-44600</v>
+        <v>-36100</v>
       </c>
       <c r="G72" s="3">
-        <v>-49000</v>
+        <v>-46300</v>
       </c>
       <c r="H72" s="3">
-        <v>-53100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
+        <v>-50900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-55100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,28 +3055,31 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>371600</v>
+        <v>389800</v>
       </c>
       <c r="E76" s="3">
-        <v>369900</v>
+        <v>385600</v>
       </c>
       <c r="F76" s="3">
-        <v>361900</v>
+        <v>383800</v>
       </c>
       <c r="G76" s="3">
-        <v>347500</v>
+        <v>375500</v>
       </c>
       <c r="H76" s="3">
-        <v>-50300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>16</v>
+        <v>360500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-52200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>16</v>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5000</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
-        <v>9800</v>
+        <v>-5200</v>
       </c>
       <c r="F81" s="3">
-        <v>4400</v>
+        <v>10200</v>
       </c>
       <c r="G81" s="3">
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="H81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3456,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +3906,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>SY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47700</v>
+        <v>54700</v>
       </c>
       <c r="E8" s="3">
-        <v>26500</v>
+        <v>49900</v>
       </c>
       <c r="F8" s="3">
-        <v>52000</v>
+        <v>27800</v>
       </c>
       <c r="G8" s="3">
-        <v>43900</v>
+        <v>54500</v>
       </c>
       <c r="H8" s="3">
-        <v>41400</v>
+        <v>46000</v>
       </c>
       <c r="I8" s="3">
-        <v>29900</v>
+        <v>43400</v>
       </c>
       <c r="J8" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K8" s="3">
         <v>26600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7400</v>
+        <v>8300</v>
       </c>
       <c r="E9" s="3">
-        <v>6300</v>
+        <v>7700</v>
       </c>
       <c r="F9" s="3">
-        <v>8500</v>
+        <v>6600</v>
       </c>
       <c r="G9" s="3">
-        <v>7800</v>
+        <v>8900</v>
       </c>
       <c r="H9" s="3">
-        <v>7200</v>
+        <v>8200</v>
       </c>
       <c r="I9" s="3">
-        <v>5300</v>
+        <v>7600</v>
       </c>
       <c r="J9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K9" s="3">
         <v>4600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>40300</v>
+        <v>46400</v>
       </c>
       <c r="E10" s="3">
-        <v>20300</v>
+        <v>42200</v>
       </c>
       <c r="F10" s="3">
-        <v>43500</v>
+        <v>21200</v>
       </c>
       <c r="G10" s="3">
-        <v>36100</v>
+        <v>45600</v>
       </c>
       <c r="H10" s="3">
-        <v>34200</v>
+        <v>37800</v>
       </c>
       <c r="I10" s="3">
-        <v>24600</v>
+        <v>35800</v>
       </c>
       <c r="J10" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K10" s="3">
         <v>22000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7600</v>
+        <v>9600</v>
       </c>
       <c r="E12" s="3">
-        <v>6200</v>
+        <v>8000</v>
       </c>
       <c r="F12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I12" s="3">
         <v>7900</v>
       </c>
-      <c r="G12" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4600</v>
-      </c>
       <c r="J12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K12" s="3">
         <v>3800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,23 +947,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
       </c>
@@ -959,8 +979,8 @@
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>49100</v>
+        <v>59300</v>
       </c>
       <c r="E17" s="3">
-        <v>33300</v>
+        <v>51400</v>
       </c>
       <c r="F17" s="3">
-        <v>41500</v>
+        <v>34800</v>
       </c>
       <c r="G17" s="3">
-        <v>41000</v>
+        <v>43400</v>
       </c>
       <c r="H17" s="3">
-        <v>39900</v>
+        <v>43000</v>
       </c>
       <c r="I17" s="3">
-        <v>24400</v>
+        <v>41800</v>
       </c>
       <c r="J17" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K17" s="3">
         <v>21700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1400</v>
+        <v>-4600</v>
       </c>
       <c r="E18" s="3">
-        <v>-6700</v>
+        <v>-1500</v>
       </c>
       <c r="F18" s="3">
-        <v>10600</v>
+        <v>-7100</v>
       </c>
       <c r="G18" s="3">
-        <v>2900</v>
+        <v>11100</v>
       </c>
       <c r="H18" s="3">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I18" s="3">
-        <v>5500</v>
+        <v>1600</v>
       </c>
       <c r="J18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,46 +1144,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
-        <v>900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4300</v>
-      </c>
       <c r="I20" s="3">
-        <v>2200</v>
+        <v>4500</v>
       </c>
       <c r="J20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1265,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-5800</v>
-      </c>
       <c r="F23" s="3">
-        <v>14400</v>
+        <v>-6100</v>
       </c>
       <c r="G23" s="3">
-        <v>5000</v>
+        <v>15100</v>
       </c>
       <c r="H23" s="3">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="I23" s="3">
-        <v>7700</v>
+        <v>6100</v>
       </c>
       <c r="J23" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K23" s="3">
         <v>6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
-        <v>-600</v>
-      </c>
       <c r="F24" s="3">
-        <v>4200</v>
+        <v>-700</v>
       </c>
       <c r="G24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
-        <v>1000</v>
-      </c>
       <c r="J24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F26" s="3">
-        <v>10200</v>
+        <v>-5500</v>
       </c>
       <c r="G26" s="3">
-        <v>4600</v>
+        <v>10600</v>
       </c>
       <c r="H26" s="3">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="I26" s="3">
-        <v>6700</v>
+        <v>4500</v>
       </c>
       <c r="J26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K26" s="3">
         <v>5900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F27" s="3">
-        <v>10200</v>
+        <v>-5500</v>
       </c>
       <c r="G27" s="3">
-        <v>4600</v>
+        <v>10600</v>
       </c>
       <c r="H27" s="3">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="I27" s="3">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="J27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-4300</v>
-      </c>
       <c r="I32" s="3">
-        <v>-2200</v>
+        <v>-4500</v>
       </c>
       <c r="J32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F33" s="3">
-        <v>10200</v>
+        <v>-5500</v>
       </c>
       <c r="G33" s="3">
-        <v>4600</v>
+        <v>10600</v>
       </c>
       <c r="H33" s="3">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="I33" s="3">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="J33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F35" s="3">
-        <v>10200</v>
+        <v>-5500</v>
       </c>
       <c r="G35" s="3">
-        <v>4600</v>
+        <v>10600</v>
       </c>
       <c r="H35" s="3">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="I35" s="3">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="J35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,31 +1880,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>228600</v>
+        <v>84000</v>
       </c>
       <c r="E41" s="3">
-        <v>133100</v>
+        <v>239500</v>
       </c>
       <c r="F41" s="3">
-        <v>128500</v>
+        <v>139400</v>
       </c>
       <c r="G41" s="3">
-        <v>88600</v>
+        <v>134600</v>
       </c>
       <c r="H41" s="3">
-        <v>160800</v>
+        <v>92900</v>
       </c>
       <c r="I41" s="3">
-        <v>103100</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>16</v>
+        <v>168500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>108000</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>16</v>
@@ -1832,31 +1919,34 @@
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>187800</v>
+        <v>339600</v>
       </c>
       <c r="E42" s="3">
-        <v>265300</v>
+        <v>196700</v>
       </c>
       <c r="F42" s="3">
-        <v>282200</v>
+        <v>277900</v>
       </c>
       <c r="G42" s="3">
-        <v>312900</v>
+        <v>295500</v>
       </c>
       <c r="H42" s="3">
-        <v>226200</v>
+        <v>327700</v>
       </c>
       <c r="I42" s="3">
-        <v>81400</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>16</v>
+        <v>236900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>85300</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>16</v>
@@ -1870,31 +1960,34 @@
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9600</v>
+        <v>10600</v>
       </c>
       <c r="E43" s="3">
-        <v>7500</v>
+        <v>10100</v>
       </c>
       <c r="F43" s="3">
-        <v>6600</v>
+        <v>7900</v>
       </c>
       <c r="G43" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="H43" s="3">
-        <v>4100</v>
+        <v>6900</v>
       </c>
       <c r="I43" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>16</v>
+        <v>4300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>16</v>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,31 +2042,34 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9500</v>
+        <v>11700</v>
       </c>
       <c r="E45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I45" s="3">
         <v>11900</v>
       </c>
-      <c r="F45" s="3">
-        <v>12200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>11300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>8300</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
+      <c r="J45" s="3">
+        <v>8700</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>16</v>
@@ -1984,31 +2083,34 @@
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>435500</v>
+        <v>445800</v>
       </c>
       <c r="E46" s="3">
-        <v>417900</v>
+        <v>456200</v>
       </c>
       <c r="F46" s="3">
-        <v>429400</v>
+        <v>437700</v>
       </c>
       <c r="G46" s="3">
-        <v>420900</v>
+        <v>449800</v>
       </c>
       <c r="H46" s="3">
-        <v>402400</v>
+        <v>440800</v>
       </c>
       <c r="I46" s="3">
-        <v>197000</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>16</v>
+        <v>421500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>206300</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>16</v>
@@ -2022,31 +2124,34 @@
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="E47" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="F47" s="3">
         <v>6700</v>
       </c>
       <c r="G47" s="3">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="H47" s="3">
-        <v>4700</v>
+        <v>5600</v>
       </c>
       <c r="I47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>16</v>
+        <v>4900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2300</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>16</v>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2069,22 +2177,22 @@
         <v>24300</v>
       </c>
       <c r="E48" s="3">
-        <v>25300</v>
+        <v>25400</v>
       </c>
       <c r="F48" s="3">
-        <v>25700</v>
+        <v>26500</v>
       </c>
       <c r="G48" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="H48" s="3">
-        <v>28300</v>
+        <v>28500</v>
       </c>
       <c r="I48" s="3">
-        <v>25400</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>16</v>
+        <v>29600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>26600</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>16</v>
@@ -2098,19 +2206,22 @@
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E49" s="3">
-        <v>6300</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>16</v>
+        <v>6400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>16</v>
@@ -2127,8 +2238,8 @@
       <c r="K49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,32 +2329,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G52" s="3">
         <v>7600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J52" s="3">
         <v>7500</v>
       </c>
-      <c r="F52" s="3">
-        <v>7300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,31 +2411,34 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>479800</v>
+        <v>492900</v>
       </c>
       <c r="E54" s="3">
-        <v>463400</v>
+        <v>502500</v>
       </c>
       <c r="F54" s="3">
-        <v>469100</v>
+        <v>485400</v>
       </c>
       <c r="G54" s="3">
-        <v>459600</v>
+        <v>491300</v>
       </c>
       <c r="H54" s="3">
-        <v>440000</v>
+        <v>481400</v>
       </c>
       <c r="I54" s="3">
-        <v>231700</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>16</v>
+        <v>460900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>242700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>16</v>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,31 +2488,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>16</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>16</v>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,31 +2568,34 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72200</v>
+        <v>76400</v>
       </c>
       <c r="E59" s="3">
-        <v>59000</v>
+        <v>75600</v>
       </c>
       <c r="F59" s="3">
-        <v>67400</v>
+        <v>61800</v>
       </c>
       <c r="G59" s="3">
-        <v>64800</v>
+        <v>70600</v>
       </c>
       <c r="H59" s="3">
-        <v>58800</v>
+        <v>67800</v>
       </c>
       <c r="I59" s="3">
-        <v>54800</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>16</v>
+        <v>61600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>57400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>16</v>
@@ -2472,31 +2609,34 @@
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>72500</v>
+        <v>76800</v>
       </c>
       <c r="E60" s="3">
-        <v>59400</v>
+        <v>75900</v>
       </c>
       <c r="F60" s="3">
-        <v>67800</v>
+        <v>62200</v>
       </c>
       <c r="G60" s="3">
-        <v>65300</v>
+        <v>71000</v>
       </c>
       <c r="H60" s="3">
-        <v>59500</v>
+        <v>68400</v>
       </c>
       <c r="I60" s="3">
-        <v>54800</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>16</v>
+        <v>62300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>57400</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>16</v>
@@ -2510,8 +2650,11 @@
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,31 +2691,34 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17500</v>
+        <v>16900</v>
       </c>
       <c r="E62" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>19300</v>
+      </c>
+      <c r="G62" s="3">
         <v>18400</v>
       </c>
-      <c r="F62" s="3">
-        <v>17500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>18800</v>
-      </c>
       <c r="H62" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="I62" s="3">
         <v>20900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
+      <c r="J62" s="3">
+        <v>21900</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>16</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,31 +2855,34 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>90000</v>
+        <v>93700</v>
       </c>
       <c r="E66" s="3">
-        <v>77800</v>
+        <v>94300</v>
       </c>
       <c r="F66" s="3">
-        <v>85300</v>
+        <v>81500</v>
       </c>
       <c r="G66" s="3">
-        <v>84100</v>
+        <v>89300</v>
       </c>
       <c r="H66" s="3">
-        <v>79500</v>
+        <v>88100</v>
       </c>
       <c r="I66" s="3">
-        <v>75700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>16</v>
+        <v>83200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>79300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>16</v>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2851,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>208200</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>218000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,31 +3077,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-41100</v>
+        <v>-42900</v>
       </c>
       <c r="E72" s="3">
-        <v>-41400</v>
+        <v>-43100</v>
       </c>
       <c r="F72" s="3">
-        <v>-36100</v>
+        <v>-43400</v>
       </c>
       <c r="G72" s="3">
-        <v>-46300</v>
+        <v>-37800</v>
       </c>
       <c r="H72" s="3">
-        <v>-50900</v>
+        <v>-48500</v>
       </c>
       <c r="I72" s="3">
-        <v>-55100</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
+        <v>-53300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-57700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,31 +3241,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>389800</v>
+        <v>399200</v>
       </c>
       <c r="E76" s="3">
-        <v>385600</v>
+        <v>408300</v>
       </c>
       <c r="F76" s="3">
-        <v>383800</v>
+        <v>403900</v>
       </c>
       <c r="G76" s="3">
-        <v>375500</v>
+        <v>402000</v>
       </c>
       <c r="H76" s="3">
-        <v>360500</v>
+        <v>393300</v>
       </c>
       <c r="I76" s="3">
-        <v>-52200</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>16</v>
+        <v>377700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-54600</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>16</v>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F81" s="3">
-        <v>10200</v>
+        <v>-5500</v>
       </c>
       <c r="G81" s="3">
-        <v>4600</v>
+        <v>10600</v>
       </c>
       <c r="H81" s="3">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="I81" s="3">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="J81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3673,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3497,8 +3714,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4076,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3871,8 +4117,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4158,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3945,6 +4197,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>SY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>54900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>27900</v>
+      </c>
+      <c r="H8" s="3">
         <v>54700</v>
       </c>
-      <c r="E8" s="3">
-        <v>49900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>27800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>54500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>46000</v>
-      </c>
       <c r="I8" s="3">
-        <v>43400</v>
+        <v>46200</v>
       </c>
       <c r="J8" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K8" s="3">
         <v>31400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8300</v>
+        <v>9700</v>
       </c>
       <c r="E9" s="3">
-        <v>7700</v>
+        <v>8400</v>
       </c>
       <c r="F9" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G9" s="3">
         <v>6600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>46400</v>
+        <v>55200</v>
       </c>
       <c r="E10" s="3">
-        <v>42200</v>
+        <v>46600</v>
       </c>
       <c r="F10" s="3">
-        <v>21200</v>
+        <v>42400</v>
       </c>
       <c r="G10" s="3">
-        <v>45600</v>
+        <v>21300</v>
       </c>
       <c r="H10" s="3">
-        <v>37800</v>
+        <v>45800</v>
       </c>
       <c r="I10" s="3">
-        <v>35800</v>
+        <v>38000</v>
       </c>
       <c r="J10" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K10" s="3">
         <v>25800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E12" s="3">
         <v>9600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6500</v>
       </c>
-      <c r="G12" s="3">
-        <v>8300</v>
-      </c>
       <c r="H12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,26 +966,29 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
@@ -982,8 +1001,8 @@
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>59300</v>
+        <v>60300</v>
       </c>
       <c r="E17" s="3">
-        <v>51400</v>
+        <v>59600</v>
       </c>
       <c r="F17" s="3">
-        <v>34800</v>
+        <v>51700</v>
       </c>
       <c r="G17" s="3">
-        <v>43400</v>
+        <v>35000</v>
       </c>
       <c r="H17" s="3">
-        <v>43000</v>
+        <v>43600</v>
       </c>
       <c r="I17" s="3">
-        <v>41800</v>
+        <v>43100</v>
       </c>
       <c r="J17" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K17" s="3">
         <v>25600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11100</v>
       </c>
-      <c r="H18" s="3">
-        <v>3000</v>
-      </c>
       <c r="I18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1145,49 +1177,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="E20" s="3">
         <v>2300</v>
       </c>
       <c r="F20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
-        <v>700</v>
-      </c>
       <c r="F23" s="3">
+        <v>800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-6100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5500</v>
       </c>
-      <c r="G26" s="3">
-        <v>10600</v>
-      </c>
       <c r="H26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I26" s="3">
         <v>4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5500</v>
       </c>
-      <c r="G27" s="3">
-        <v>10600</v>
-      </c>
       <c r="H27" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I27" s="3">
         <v>4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2300</v>
+        <v>-3200</v>
       </c>
       <c r="E32" s="3">
         <v>-2300</v>
       </c>
       <c r="F32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5500</v>
       </c>
-      <c r="G33" s="3">
-        <v>10600</v>
-      </c>
       <c r="H33" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I33" s="3">
         <v>4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5500</v>
       </c>
-      <c r="G35" s="3">
-        <v>10600</v>
-      </c>
       <c r="H35" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I35" s="3">
         <v>4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,35 +1966,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>84000</v>
+        <v>172200</v>
       </c>
       <c r="E41" s="3">
-        <v>239500</v>
+        <v>84400</v>
       </c>
       <c r="F41" s="3">
-        <v>139400</v>
+        <v>240500</v>
       </c>
       <c r="G41" s="3">
-        <v>134600</v>
+        <v>140000</v>
       </c>
       <c r="H41" s="3">
-        <v>92900</v>
+        <v>135200</v>
       </c>
       <c r="I41" s="3">
-        <v>168500</v>
+        <v>93300</v>
       </c>
       <c r="J41" s="3">
+        <v>169200</v>
+      </c>
+      <c r="K41" s="3">
         <v>108000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1922,35 +2008,38 @@
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>339600</v>
+        <v>233300</v>
       </c>
       <c r="E42" s="3">
-        <v>196700</v>
+        <v>341100</v>
       </c>
       <c r="F42" s="3">
-        <v>277900</v>
+        <v>197600</v>
       </c>
       <c r="G42" s="3">
-        <v>295500</v>
+        <v>279100</v>
       </c>
       <c r="H42" s="3">
-        <v>327700</v>
+        <v>296800</v>
       </c>
       <c r="I42" s="3">
-        <v>236900</v>
+        <v>329200</v>
       </c>
       <c r="J42" s="3">
+        <v>238000</v>
+      </c>
+      <c r="K42" s="3">
         <v>85300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>16</v>
       </c>
@@ -1963,35 +2052,38 @@
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10600</v>
+        <v>11700</v>
       </c>
       <c r="E43" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F43" s="3">
         <v>10100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>6900</v>
       </c>
       <c r="H43" s="3">
         <v>6900</v>
       </c>
       <c r="I43" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J43" s="3">
         <v>4300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,35 +2140,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E45" s="3">
         <v>11700</v>
       </c>
-      <c r="E45" s="3">
-        <v>9900</v>
-      </c>
       <c r="F45" s="3">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G45" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="H45" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="I45" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J45" s="3">
         <v>11900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2086,35 +2184,38 @@
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>445800</v>
+        <v>427200</v>
       </c>
       <c r="E46" s="3">
-        <v>456200</v>
+        <v>447800</v>
       </c>
       <c r="F46" s="3">
-        <v>437700</v>
+        <v>458200</v>
       </c>
       <c r="G46" s="3">
-        <v>449800</v>
+        <v>439600</v>
       </c>
       <c r="H46" s="3">
-        <v>440800</v>
+        <v>451800</v>
       </c>
       <c r="I46" s="3">
-        <v>421500</v>
+        <v>442700</v>
       </c>
       <c r="J46" s="3">
+        <v>423400</v>
+      </c>
+      <c r="K46" s="3">
         <v>206300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2127,35 +2228,38 @@
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E47" s="3">
         <v>6300</v>
       </c>
-      <c r="E47" s="3">
-        <v>6500</v>
-      </c>
       <c r="F47" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="G47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H47" s="3">
         <v>7000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2168,35 +2272,38 @@
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24300</v>
+        <v>22900</v>
       </c>
       <c r="E48" s="3">
-        <v>25400</v>
+        <v>24500</v>
       </c>
       <c r="F48" s="3">
-        <v>26500</v>
+        <v>25600</v>
       </c>
       <c r="G48" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="H48" s="3">
-        <v>28500</v>
+        <v>27000</v>
       </c>
       <c r="I48" s="3">
-        <v>29600</v>
+        <v>28600</v>
       </c>
       <c r="J48" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K48" s="3">
         <v>26600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2209,23 +2316,26 @@
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E49" s="3">
         <v>6300</v>
       </c>
-      <c r="E49" s="3">
-        <v>6400</v>
-      </c>
       <c r="F49" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G49" s="3">
         <v>6600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2241,8 +2351,8 @@
       <c r="L49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,35 +2448,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E52" s="3">
         <v>10200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7900</v>
       </c>
-      <c r="G52" s="3">
-        <v>7600</v>
-      </c>
       <c r="H52" s="3">
-        <v>6500</v>
+        <v>7700</v>
       </c>
       <c r="I52" s="3">
-        <v>4800</v>
+        <v>6600</v>
       </c>
       <c r="J52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K52" s="3">
         <v>7500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,35 +2536,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>492900</v>
+        <v>503000</v>
       </c>
       <c r="E54" s="3">
-        <v>502500</v>
+        <v>495000</v>
       </c>
       <c r="F54" s="3">
-        <v>485400</v>
+        <v>504700</v>
       </c>
       <c r="G54" s="3">
-        <v>491300</v>
+        <v>487500</v>
       </c>
       <c r="H54" s="3">
-        <v>481400</v>
+        <v>493500</v>
       </c>
       <c r="I54" s="3">
-        <v>460900</v>
+        <v>483500</v>
       </c>
       <c r="J54" s="3">
+        <v>462900</v>
+      </c>
+      <c r="K54" s="3">
         <v>242700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2498,7 +2628,7 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
@@ -2507,16 +2637,16 @@
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>600</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>16</v>
@@ -2530,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,35 +2704,38 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>76400</v>
+        <v>86900</v>
       </c>
       <c r="E59" s="3">
-        <v>75600</v>
+        <v>76800</v>
       </c>
       <c r="F59" s="3">
-        <v>61800</v>
+        <v>75900</v>
       </c>
       <c r="G59" s="3">
-        <v>70600</v>
+        <v>62100</v>
       </c>
       <c r="H59" s="3">
-        <v>67800</v>
+        <v>70900</v>
       </c>
       <c r="I59" s="3">
-        <v>61600</v>
+        <v>68100</v>
       </c>
       <c r="J59" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K59" s="3">
         <v>57400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2612,35 +2748,38 @@
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>76800</v>
+        <v>87200</v>
       </c>
       <c r="E60" s="3">
-        <v>75900</v>
+        <v>77100</v>
       </c>
       <c r="F60" s="3">
-        <v>62200</v>
+        <v>76300</v>
       </c>
       <c r="G60" s="3">
-        <v>71000</v>
+        <v>62400</v>
       </c>
       <c r="H60" s="3">
-        <v>68400</v>
+        <v>71300</v>
       </c>
       <c r="I60" s="3">
-        <v>62300</v>
+        <v>68700</v>
       </c>
       <c r="J60" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K60" s="3">
         <v>57400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2653,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,35 +2836,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E62" s="3">
         <v>16900</v>
       </c>
-      <c r="E62" s="3">
-        <v>18300</v>
-      </c>
       <c r="F62" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="G62" s="3">
-        <v>18400</v>
+        <v>19400</v>
       </c>
       <c r="H62" s="3">
-        <v>19700</v>
+        <v>18500</v>
       </c>
       <c r="I62" s="3">
-        <v>20900</v>
+        <v>19800</v>
       </c>
       <c r="J62" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K62" s="3">
         <v>21900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,35 +3012,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>93700</v>
+        <v>106300</v>
       </c>
       <c r="E66" s="3">
-        <v>94300</v>
+        <v>94100</v>
       </c>
       <c r="F66" s="3">
-        <v>81500</v>
+        <v>94700</v>
       </c>
       <c r="G66" s="3">
-        <v>89300</v>
+        <v>81800</v>
       </c>
       <c r="H66" s="3">
-        <v>88100</v>
+        <v>89700</v>
       </c>
       <c r="I66" s="3">
-        <v>83200</v>
+        <v>88500</v>
       </c>
       <c r="J66" s="3">
+        <v>83600</v>
+      </c>
+      <c r="K66" s="3">
         <v>79300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3022,11 +3189,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>218000</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,35 +3250,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-42900</v>
+        <v>-37200</v>
       </c>
       <c r="E72" s="3">
         <v>-43100</v>
       </c>
       <c r="F72" s="3">
-        <v>-43400</v>
+        <v>-43300</v>
       </c>
       <c r="G72" s="3">
-        <v>-37800</v>
+        <v>-43600</v>
       </c>
       <c r="H72" s="3">
-        <v>-48500</v>
+        <v>-38000</v>
       </c>
       <c r="I72" s="3">
-        <v>-53300</v>
+        <v>-48700</v>
       </c>
       <c r="J72" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-57700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,35 +3426,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>399200</v>
+        <v>396700</v>
       </c>
       <c r="E76" s="3">
-        <v>408300</v>
+        <v>401000</v>
       </c>
       <c r="F76" s="3">
-        <v>403900</v>
+        <v>410000</v>
       </c>
       <c r="G76" s="3">
-        <v>402000</v>
+        <v>405700</v>
       </c>
       <c r="H76" s="3">
-        <v>393300</v>
+        <v>403700</v>
       </c>
       <c r="I76" s="3">
-        <v>377700</v>
+        <v>395000</v>
       </c>
       <c r="J76" s="3">
+        <v>379300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-54600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5500</v>
       </c>
-      <c r="G81" s="3">
-        <v>10600</v>
-      </c>
       <c r="H81" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I81" s="3">
         <v>4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4120,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>SY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>64900</v>
+        <v>56100</v>
       </c>
       <c r="E8" s="3">
-        <v>54900</v>
+        <v>66200</v>
       </c>
       <c r="F8" s="3">
-        <v>50100</v>
+        <v>56100</v>
       </c>
       <c r="G8" s="3">
-        <v>27900</v>
+        <v>51200</v>
       </c>
       <c r="H8" s="3">
-        <v>54700</v>
+        <v>28500</v>
       </c>
       <c r="I8" s="3">
-        <v>46200</v>
+        <v>55900</v>
       </c>
       <c r="J8" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K8" s="3">
         <v>43500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>31400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9700</v>
+        <v>8200</v>
       </c>
       <c r="E9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J9" s="3">
         <v>8400</v>
       </c>
-      <c r="F9" s="3">
-        <v>7800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>8900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>55200</v>
+        <v>47900</v>
       </c>
       <c r="E10" s="3">
-        <v>46600</v>
+        <v>56300</v>
       </c>
       <c r="F10" s="3">
-        <v>42400</v>
+        <v>47600</v>
       </c>
       <c r="G10" s="3">
-        <v>21300</v>
+        <v>43300</v>
       </c>
       <c r="H10" s="3">
-        <v>45800</v>
+        <v>21800</v>
       </c>
       <c r="I10" s="3">
-        <v>38000</v>
+        <v>46800</v>
       </c>
       <c r="J10" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K10" s="3">
         <v>35900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="E12" s="3">
-        <v>9600</v>
+        <v>11100</v>
       </c>
       <c r="F12" s="3">
-        <v>8000</v>
+        <v>9900</v>
       </c>
       <c r="G12" s="3">
-        <v>6500</v>
+        <v>8200</v>
       </c>
       <c r="H12" s="3">
-        <v>8400</v>
+        <v>6700</v>
       </c>
       <c r="I12" s="3">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="J12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,29 +986,32 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1004,8 +1024,8 @@
       <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>60300</v>
+        <v>65500</v>
       </c>
       <c r="E17" s="3">
-        <v>59600</v>
+        <v>61600</v>
       </c>
       <c r="F17" s="3">
-        <v>51700</v>
+        <v>60800</v>
       </c>
       <c r="G17" s="3">
-        <v>35000</v>
+        <v>52700</v>
       </c>
       <c r="H17" s="3">
-        <v>43600</v>
+        <v>35700</v>
       </c>
       <c r="I17" s="3">
-        <v>43100</v>
+        <v>44500</v>
       </c>
       <c r="J17" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K17" s="3">
         <v>41900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E18" s="3">
         <v>4600</v>
       </c>
-      <c r="E18" s="3">
-        <v>-4600</v>
-      </c>
       <c r="F18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-7100</v>
-      </c>
       <c r="H18" s="3">
-        <v>11100</v>
+        <v>-7200</v>
       </c>
       <c r="I18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J18" s="3">
         <v>3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,52 +1211,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3200</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="F20" s="3">
         <v>2300</v>
       </c>
       <c r="G20" s="3">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="H20" s="3">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="3">
-        <v>2200</v>
+        <v>4100</v>
       </c>
       <c r="J20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K20" s="3">
         <v>4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7700</v>
+        <v>-7900</v>
       </c>
       <c r="E23" s="3">
-        <v>-2300</v>
+        <v>7900</v>
       </c>
       <c r="F23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-6100</v>
-      </c>
       <c r="H23" s="3">
-        <v>15100</v>
+        <v>-6300</v>
       </c>
       <c r="I23" s="3">
-        <v>5300</v>
+        <v>15400</v>
       </c>
       <c r="J23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K23" s="3">
         <v>6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
-        <v>4400</v>
-      </c>
       <c r="I24" s="3">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="J24" s="3">
+        <v>500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5800</v>
+        <v>-7200</v>
       </c>
       <c r="E26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-5500</v>
-      </c>
       <c r="H26" s="3">
-        <v>10700</v>
+        <v>-5600</v>
       </c>
       <c r="I26" s="3">
-        <v>4800</v>
+        <v>10900</v>
       </c>
       <c r="J26" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K26" s="3">
         <v>4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5900</v>
+        <v>-7000</v>
       </c>
       <c r="E27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-5500</v>
-      </c>
       <c r="H27" s="3">
-        <v>10700</v>
+        <v>-5600</v>
       </c>
       <c r="I27" s="3">
-        <v>4800</v>
+        <v>10900</v>
       </c>
       <c r="J27" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3200</v>
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
-        <v>-2300</v>
+        <v>-3300</v>
       </c>
       <c r="F32" s="3">
         <v>-2300</v>
       </c>
       <c r="G32" s="3">
-        <v>-900</v>
+        <v>-2300</v>
       </c>
       <c r="H32" s="3">
-        <v>-4000</v>
+        <v>-1000</v>
       </c>
       <c r="I32" s="3">
-        <v>-2200</v>
+        <v>-4100</v>
       </c>
       <c r="J32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5900</v>
+        <v>-7000</v>
       </c>
       <c r="E33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-5500</v>
-      </c>
       <c r="H33" s="3">
-        <v>10700</v>
+        <v>-5600</v>
       </c>
       <c r="I33" s="3">
-        <v>4800</v>
+        <v>10900</v>
       </c>
       <c r="J33" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5900</v>
+        <v>-7000</v>
       </c>
       <c r="E35" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-5500</v>
-      </c>
       <c r="H35" s="3">
-        <v>10700</v>
+        <v>-5600</v>
       </c>
       <c r="I35" s="3">
-        <v>4800</v>
+        <v>10900</v>
       </c>
       <c r="J35" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2053,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>172200</v>
+        <v>151900</v>
       </c>
       <c r="E41" s="3">
-        <v>84400</v>
+        <v>175800</v>
       </c>
       <c r="F41" s="3">
-        <v>240500</v>
+        <v>86100</v>
       </c>
       <c r="G41" s="3">
-        <v>140000</v>
+        <v>245600</v>
       </c>
       <c r="H41" s="3">
-        <v>135200</v>
+        <v>143000</v>
       </c>
       <c r="I41" s="3">
-        <v>93300</v>
+        <v>138000</v>
       </c>
       <c r="J41" s="3">
+        <v>95200</v>
+      </c>
+      <c r="K41" s="3">
         <v>169200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>108000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2011,38 +2098,41 @@
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>233300</v>
+        <v>249800</v>
       </c>
       <c r="E42" s="3">
-        <v>341100</v>
+        <v>238200</v>
       </c>
       <c r="F42" s="3">
-        <v>197600</v>
+        <v>348300</v>
       </c>
       <c r="G42" s="3">
-        <v>279100</v>
+        <v>201700</v>
       </c>
       <c r="H42" s="3">
-        <v>296800</v>
+        <v>285000</v>
       </c>
       <c r="I42" s="3">
-        <v>329200</v>
+        <v>303100</v>
       </c>
       <c r="J42" s="3">
+        <v>336100</v>
+      </c>
+      <c r="K42" s="3">
         <v>238000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>85300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2055,38 +2145,41 @@
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11700</v>
+        <v>13400</v>
       </c>
       <c r="E43" s="3">
-        <v>10700</v>
+        <v>12000</v>
       </c>
       <c r="F43" s="3">
-        <v>10100</v>
+        <v>10900</v>
       </c>
       <c r="G43" s="3">
-        <v>7900</v>
+        <v>10300</v>
       </c>
       <c r="H43" s="3">
-        <v>6900</v>
+        <v>8100</v>
       </c>
       <c r="I43" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="J43" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K43" s="3">
         <v>4300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,38 +2239,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9900</v>
+        <v>13700</v>
       </c>
       <c r="E45" s="3">
-        <v>11700</v>
+        <v>10100</v>
       </c>
       <c r="F45" s="3">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G45" s="3">
-        <v>12600</v>
+        <v>10200</v>
       </c>
       <c r="H45" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="I45" s="3">
-        <v>13400</v>
+        <v>13100</v>
       </c>
       <c r="J45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K45" s="3">
         <v>11900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2187,38 +2286,41 @@
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>427200</v>
+        <v>428800</v>
       </c>
       <c r="E46" s="3">
-        <v>447800</v>
+        <v>436200</v>
       </c>
       <c r="F46" s="3">
-        <v>458200</v>
+        <v>457200</v>
       </c>
       <c r="G46" s="3">
-        <v>439600</v>
+        <v>467800</v>
       </c>
       <c r="H46" s="3">
-        <v>451800</v>
+        <v>448900</v>
       </c>
       <c r="I46" s="3">
-        <v>442700</v>
+        <v>461300</v>
       </c>
       <c r="J46" s="3">
+        <v>452100</v>
+      </c>
+      <c r="K46" s="3">
         <v>423400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>206300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2231,38 +2333,41 @@
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25400</v>
+        <v>27100</v>
       </c>
       <c r="E47" s="3">
-        <v>6300</v>
+        <v>25900</v>
       </c>
       <c r="F47" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="G47" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="H47" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="I47" s="3">
-        <v>5600</v>
+        <v>7200</v>
       </c>
       <c r="J47" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K47" s="3">
         <v>4900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2275,38 +2380,41 @@
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22900</v>
+        <v>22000</v>
       </c>
       <c r="E48" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="F48" s="3">
-        <v>25600</v>
+        <v>25000</v>
       </c>
       <c r="G48" s="3">
+        <v>26100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>27100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>29700</v>
+      </c>
+      <c r="L48" s="3">
         <v>26600</v>
       </c>
-      <c r="H48" s="3">
-        <v>27000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>28600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>29700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>26600</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2319,25 +2427,28 @@
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="E49" s="3">
-        <v>6300</v>
+        <v>16900</v>
       </c>
       <c r="F49" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="G49" s="3">
         <v>6600</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>16</v>
+      <c r="H49" s="3">
+        <v>6800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>16</v>
@@ -2354,8 +2465,8 @@
       <c r="M49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2568,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10900</v>
+        <v>17300</v>
       </c>
       <c r="E52" s="3">
-        <v>10200</v>
+        <v>11100</v>
       </c>
       <c r="F52" s="3">
-        <v>8000</v>
+        <v>10400</v>
       </c>
       <c r="G52" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="H52" s="3">
-        <v>7700</v>
+        <v>8100</v>
       </c>
       <c r="I52" s="3">
-        <v>6600</v>
+        <v>7800</v>
       </c>
       <c r="J52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K52" s="3">
         <v>4900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>503000</v>
+        <v>511900</v>
       </c>
       <c r="E54" s="3">
-        <v>495000</v>
+        <v>513600</v>
       </c>
       <c r="F54" s="3">
-        <v>504700</v>
+        <v>505500</v>
       </c>
       <c r="G54" s="3">
-        <v>487500</v>
+        <v>515400</v>
       </c>
       <c r="H54" s="3">
-        <v>493500</v>
+        <v>497800</v>
       </c>
       <c r="I54" s="3">
-        <v>483500</v>
+        <v>503900</v>
       </c>
       <c r="J54" s="3">
+        <v>493700</v>
+      </c>
+      <c r="K54" s="3">
         <v>462900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>242700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2749,14 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -2640,16 +2771,16 @@
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>16</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>16</v>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,38 +2841,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86900</v>
+        <v>89900</v>
       </c>
       <c r="E59" s="3">
-        <v>76800</v>
+        <v>88700</v>
       </c>
       <c r="F59" s="3">
-        <v>75900</v>
+        <v>78400</v>
       </c>
       <c r="G59" s="3">
-        <v>62100</v>
+        <v>77500</v>
       </c>
       <c r="H59" s="3">
-        <v>70900</v>
+        <v>63400</v>
       </c>
       <c r="I59" s="3">
-        <v>68100</v>
+        <v>72400</v>
       </c>
       <c r="J59" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K59" s="3">
         <v>61900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>57400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2751,38 +2888,41 @@
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>87200</v>
+        <v>90300</v>
       </c>
       <c r="E60" s="3">
-        <v>77100</v>
+        <v>89100</v>
       </c>
       <c r="F60" s="3">
-        <v>76300</v>
+        <v>78800</v>
       </c>
       <c r="G60" s="3">
-        <v>62400</v>
+        <v>77900</v>
       </c>
       <c r="H60" s="3">
-        <v>71300</v>
+        <v>63800</v>
       </c>
       <c r="I60" s="3">
-        <v>68700</v>
+        <v>72800</v>
       </c>
       <c r="J60" s="3">
+        <v>70100</v>
+      </c>
+      <c r="K60" s="3">
         <v>62600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,38 +2982,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15500</v>
+        <v>14900</v>
       </c>
       <c r="E62" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="F62" s="3">
-        <v>18400</v>
+        <v>17300</v>
       </c>
       <c r="G62" s="3">
-        <v>19400</v>
+        <v>18800</v>
       </c>
       <c r="H62" s="3">
-        <v>18500</v>
+        <v>19800</v>
       </c>
       <c r="I62" s="3">
-        <v>19800</v>
+        <v>18800</v>
       </c>
       <c r="J62" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K62" s="3">
         <v>21000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3170,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>106300</v>
+        <v>108500</v>
       </c>
       <c r="E66" s="3">
-        <v>94100</v>
+        <v>108500</v>
       </c>
       <c r="F66" s="3">
-        <v>94700</v>
+        <v>96100</v>
       </c>
       <c r="G66" s="3">
-        <v>81800</v>
+        <v>96700</v>
       </c>
       <c r="H66" s="3">
-        <v>89700</v>
+        <v>83500</v>
       </c>
       <c r="I66" s="3">
-        <v>88500</v>
+        <v>91600</v>
       </c>
       <c r="J66" s="3">
+        <v>90400</v>
+      </c>
+      <c r="K66" s="3">
         <v>83600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>79300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3192,11 +3360,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>218000</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3424,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-37200</v>
+        <v>-45000</v>
       </c>
       <c r="E72" s="3">
-        <v>-43100</v>
+        <v>-38000</v>
       </c>
       <c r="F72" s="3">
-        <v>-43300</v>
+        <v>-44000</v>
       </c>
       <c r="G72" s="3">
-        <v>-43600</v>
+        <v>-44200</v>
       </c>
       <c r="H72" s="3">
-        <v>-38000</v>
+        <v>-44500</v>
       </c>
       <c r="I72" s="3">
-        <v>-48700</v>
+        <v>-38800</v>
       </c>
       <c r="J72" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-53500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3612,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>396700</v>
+        <v>403300</v>
       </c>
       <c r="E76" s="3">
-        <v>401000</v>
+        <v>405100</v>
       </c>
       <c r="F76" s="3">
-        <v>410000</v>
+        <v>409400</v>
       </c>
       <c r="G76" s="3">
-        <v>405700</v>
+        <v>418700</v>
       </c>
       <c r="H76" s="3">
-        <v>403700</v>
+        <v>414200</v>
       </c>
       <c r="I76" s="3">
-        <v>395000</v>
+        <v>412300</v>
       </c>
       <c r="J76" s="3">
+        <v>403400</v>
+      </c>
+      <c r="K76" s="3">
         <v>379300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-54600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5900</v>
+        <v>-7000</v>
       </c>
       <c r="E81" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-5500</v>
-      </c>
       <c r="H81" s="3">
-        <v>10700</v>
+        <v>-5600</v>
       </c>
       <c r="I81" s="3">
-        <v>4800</v>
+        <v>10900</v>
       </c>
       <c r="J81" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -741,25 +741,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>56100</v>
+        <v>55400</v>
       </c>
       <c r="E8" s="3">
-        <v>66200</v>
+        <v>65400</v>
       </c>
       <c r="F8" s="3">
-        <v>56100</v>
+        <v>55400</v>
       </c>
       <c r="G8" s="3">
-        <v>51200</v>
+        <v>50500</v>
       </c>
       <c r="H8" s="3">
-        <v>28500</v>
+        <v>28100</v>
       </c>
       <c r="I8" s="3">
-        <v>55900</v>
+        <v>55200</v>
       </c>
       <c r="J8" s="3">
-        <v>47200</v>
+        <v>46600</v>
       </c>
       <c r="K8" s="3">
         <v>43500</v>
@@ -788,25 +788,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="E9" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="F9" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="G9" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="H9" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="I9" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="J9" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="K9" s="3">
         <v>7600</v>
@@ -835,25 +835,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>47900</v>
+        <v>47300</v>
       </c>
       <c r="E10" s="3">
-        <v>56300</v>
+        <v>55600</v>
       </c>
       <c r="F10" s="3">
-        <v>47600</v>
+        <v>46900</v>
       </c>
       <c r="G10" s="3">
-        <v>43300</v>
+        <v>42700</v>
       </c>
       <c r="H10" s="3">
-        <v>21800</v>
+        <v>21500</v>
       </c>
       <c r="I10" s="3">
-        <v>46800</v>
+        <v>46100</v>
       </c>
       <c r="J10" s="3">
-        <v>38800</v>
+        <v>38300</v>
       </c>
       <c r="K10" s="3">
         <v>35900</v>
@@ -901,25 +901,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E12" s="3">
         <v>10900</v>
       </c>
-      <c r="E12" s="3">
-        <v>11100</v>
-      </c>
       <c r="F12" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="G12" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H12" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="I12" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="J12" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="K12" s="3">
         <v>7900</v>
@@ -1105,25 +1105,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>65500</v>
+        <v>64600</v>
       </c>
       <c r="E17" s="3">
-        <v>61600</v>
+        <v>60800</v>
       </c>
       <c r="F17" s="3">
-        <v>60800</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="3">
-        <v>52700</v>
+        <v>52100</v>
       </c>
       <c r="H17" s="3">
-        <v>35700</v>
+        <v>35300</v>
       </c>
       <c r="I17" s="3">
-        <v>44500</v>
+        <v>43900</v>
       </c>
       <c r="J17" s="3">
-        <v>44100</v>
+        <v>43500</v>
       </c>
       <c r="K17" s="3">
         <v>41900</v>
@@ -1152,7 +1152,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="E18" s="3">
         <v>4600</v>
@@ -1164,10 +1164,10 @@
         <v>-1500</v>
       </c>
       <c r="H18" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="I18" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="J18" s="3">
         <v>3100</v>
@@ -1221,7 +1221,7 @@
         <v>1500</v>
       </c>
       <c r="E20" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F20" s="3">
         <v>2300</v>
@@ -1233,10 +1233,10 @@
         <v>1000</v>
       </c>
       <c r="I20" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J20" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K20" s="3">
         <v>4500</v>
@@ -1359,10 +1359,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="E23" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="F23" s="3">
         <v>-2400</v>
@@ -1371,13 +1371,13 @@
         <v>800</v>
       </c>
       <c r="H23" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="I23" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="J23" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K23" s="3">
         <v>6100</v>
@@ -1500,10 +1500,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="E26" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
@@ -1512,10 +1512,10 @@
         <v>300</v>
       </c>
       <c r="H26" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="I26" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="J26" s="3">
         <v>4900</v>
@@ -1547,7 +1547,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="E27" s="3">
         <v>6000</v>
@@ -1559,10 +1559,10 @@
         <v>300</v>
       </c>
       <c r="H27" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="I27" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="J27" s="3">
         <v>4900</v>
@@ -1785,7 +1785,7 @@
         <v>-1500</v>
       </c>
       <c r="E32" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="F32" s="3">
         <v>-2300</v>
@@ -1797,10 +1797,10 @@
         <v>-1000</v>
       </c>
       <c r="I32" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="J32" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K32" s="3">
         <v>-4500</v>
@@ -1829,7 +1829,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="E33" s="3">
         <v>6000</v>
@@ -1841,10 +1841,10 @@
         <v>300</v>
       </c>
       <c r="H33" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="I33" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="J33" s="3">
         <v>4900</v>
@@ -1923,7 +1923,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="E35" s="3">
         <v>6000</v>
@@ -1935,10 +1935,10 @@
         <v>300</v>
       </c>
       <c r="H35" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="I35" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="J35" s="3">
         <v>4900</v>
@@ -2060,25 +2060,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>151900</v>
+        <v>149900</v>
       </c>
       <c r="E41" s="3">
-        <v>175800</v>
+        <v>173500</v>
       </c>
       <c r="F41" s="3">
-        <v>86100</v>
+        <v>85000</v>
       </c>
       <c r="G41" s="3">
-        <v>245600</v>
+        <v>242400</v>
       </c>
       <c r="H41" s="3">
-        <v>143000</v>
+        <v>141100</v>
       </c>
       <c r="I41" s="3">
-        <v>138000</v>
+        <v>136200</v>
       </c>
       <c r="J41" s="3">
-        <v>95200</v>
+        <v>94000</v>
       </c>
       <c r="K41" s="3">
         <v>169200</v>
@@ -2107,25 +2107,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>249800</v>
+        <v>246500</v>
       </c>
       <c r="E42" s="3">
-        <v>238200</v>
+        <v>235100</v>
       </c>
       <c r="F42" s="3">
-        <v>348300</v>
+        <v>343700</v>
       </c>
       <c r="G42" s="3">
-        <v>201700</v>
+        <v>199100</v>
       </c>
       <c r="H42" s="3">
-        <v>285000</v>
+        <v>281300</v>
       </c>
       <c r="I42" s="3">
-        <v>303100</v>
+        <v>299200</v>
       </c>
       <c r="J42" s="3">
-        <v>336100</v>
+        <v>331800</v>
       </c>
       <c r="K42" s="3">
         <v>238000</v>
@@ -2154,25 +2154,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="E43" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="F43" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="G43" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="H43" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="I43" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J43" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="K43" s="3">
         <v>4300</v>
@@ -2248,25 +2248,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="E45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G45" s="3">
         <v>10100</v>
       </c>
-      <c r="F45" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>10200</v>
-      </c>
       <c r="H45" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="I45" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="J45" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="K45" s="3">
         <v>11900</v>
@@ -2295,25 +2295,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>428800</v>
+        <v>423200</v>
       </c>
       <c r="E46" s="3">
-        <v>436200</v>
+        <v>430500</v>
       </c>
       <c r="F46" s="3">
-        <v>457200</v>
+        <v>451300</v>
       </c>
       <c r="G46" s="3">
-        <v>467800</v>
+        <v>461700</v>
       </c>
       <c r="H46" s="3">
-        <v>448900</v>
+        <v>443000</v>
       </c>
       <c r="I46" s="3">
-        <v>461300</v>
+        <v>455300</v>
       </c>
       <c r="J46" s="3">
-        <v>452100</v>
+        <v>446200</v>
       </c>
       <c r="K46" s="3">
         <v>423400</v>
@@ -2342,25 +2342,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="E47" s="3">
-        <v>25900</v>
+        <v>25600</v>
       </c>
       <c r="F47" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G47" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="H47" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="I47" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="J47" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="K47" s="3">
         <v>4900</v>
@@ -2389,25 +2389,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22000</v>
+        <v>21700</v>
       </c>
       <c r="E48" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="F48" s="3">
-        <v>25000</v>
+        <v>24600</v>
       </c>
       <c r="G48" s="3">
-        <v>26100</v>
+        <v>25800</v>
       </c>
       <c r="H48" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="I48" s="3">
-        <v>27600</v>
+        <v>27200</v>
       </c>
       <c r="J48" s="3">
-        <v>29200</v>
+        <v>28800</v>
       </c>
       <c r="K48" s="3">
         <v>29700</v>
@@ -2436,19 +2436,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E49" s="3">
         <v>16700</v>
       </c>
-      <c r="E49" s="3">
-        <v>16900</v>
-      </c>
       <c r="F49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G49" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="H49" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>16</v>
@@ -2577,25 +2577,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="E52" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="F52" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="G52" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H52" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="I52" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="J52" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="K52" s="3">
         <v>4900</v>
@@ -2671,25 +2671,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>511900</v>
+        <v>505200</v>
       </c>
       <c r="E54" s="3">
-        <v>513600</v>
+        <v>506900</v>
       </c>
       <c r="F54" s="3">
-        <v>505500</v>
+        <v>498900</v>
       </c>
       <c r="G54" s="3">
-        <v>515400</v>
+        <v>508700</v>
       </c>
       <c r="H54" s="3">
-        <v>497800</v>
+        <v>491300</v>
       </c>
       <c r="I54" s="3">
-        <v>503900</v>
+        <v>497300</v>
       </c>
       <c r="J54" s="3">
-        <v>493700</v>
+        <v>487300</v>
       </c>
       <c r="K54" s="3">
         <v>462900</v>
@@ -2850,25 +2850,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>89900</v>
+        <v>88700</v>
       </c>
       <c r="E59" s="3">
-        <v>88700</v>
+        <v>87500</v>
       </c>
       <c r="F59" s="3">
-        <v>78400</v>
+        <v>77400</v>
       </c>
       <c r="G59" s="3">
-        <v>77500</v>
+        <v>76500</v>
       </c>
       <c r="H59" s="3">
-        <v>63400</v>
+        <v>62600</v>
       </c>
       <c r="I59" s="3">
-        <v>72400</v>
+        <v>71400</v>
       </c>
       <c r="J59" s="3">
-        <v>69600</v>
+        <v>68700</v>
       </c>
       <c r="K59" s="3">
         <v>61900</v>
@@ -2897,25 +2897,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>90300</v>
+        <v>89100</v>
       </c>
       <c r="E60" s="3">
-        <v>89100</v>
+        <v>87900</v>
       </c>
       <c r="F60" s="3">
-        <v>78800</v>
+        <v>77700</v>
       </c>
       <c r="G60" s="3">
-        <v>77900</v>
+        <v>76900</v>
       </c>
       <c r="H60" s="3">
-        <v>63800</v>
+        <v>62900</v>
       </c>
       <c r="I60" s="3">
-        <v>72800</v>
+        <v>71800</v>
       </c>
       <c r="J60" s="3">
-        <v>70100</v>
+        <v>69200</v>
       </c>
       <c r="K60" s="3">
         <v>62600</v>
@@ -2991,25 +2991,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="E62" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="F62" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="G62" s="3">
-        <v>18800</v>
+        <v>18500</v>
       </c>
       <c r="H62" s="3">
-        <v>19800</v>
+        <v>19500</v>
       </c>
       <c r="I62" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="J62" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="K62" s="3">
         <v>21000</v>
@@ -3179,25 +3179,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>108500</v>
+        <v>107100</v>
       </c>
       <c r="E66" s="3">
-        <v>108500</v>
+        <v>107100</v>
       </c>
       <c r="F66" s="3">
-        <v>96100</v>
+        <v>94800</v>
       </c>
       <c r="G66" s="3">
-        <v>96700</v>
+        <v>95400</v>
       </c>
       <c r="H66" s="3">
-        <v>83500</v>
+        <v>82500</v>
       </c>
       <c r="I66" s="3">
-        <v>91600</v>
+        <v>90400</v>
       </c>
       <c r="J66" s="3">
-        <v>90400</v>
+        <v>89200</v>
       </c>
       <c r="K66" s="3">
         <v>83600</v>
@@ -3433,25 +3433,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-45000</v>
+        <v>-44400</v>
       </c>
       <c r="E72" s="3">
-        <v>-38000</v>
+        <v>-37500</v>
       </c>
       <c r="F72" s="3">
-        <v>-44000</v>
+        <v>-43500</v>
       </c>
       <c r="G72" s="3">
-        <v>-44200</v>
+        <v>-43600</v>
       </c>
       <c r="H72" s="3">
-        <v>-44500</v>
+        <v>-43900</v>
       </c>
       <c r="I72" s="3">
-        <v>-38800</v>
+        <v>-38300</v>
       </c>
       <c r="J72" s="3">
-        <v>-49700</v>
+        <v>-49100</v>
       </c>
       <c r="K72" s="3">
         <v>-53500</v>
@@ -3621,25 +3621,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>403300</v>
+        <v>398100</v>
       </c>
       <c r="E76" s="3">
-        <v>405100</v>
+        <v>399800</v>
       </c>
       <c r="F76" s="3">
-        <v>409400</v>
+        <v>404100</v>
       </c>
       <c r="G76" s="3">
-        <v>418700</v>
+        <v>413300</v>
       </c>
       <c r="H76" s="3">
-        <v>414200</v>
+        <v>408900</v>
       </c>
       <c r="I76" s="3">
-        <v>412300</v>
+        <v>406900</v>
       </c>
       <c r="J76" s="3">
-        <v>403400</v>
+        <v>398100</v>
       </c>
       <c r="K76" s="3">
         <v>379300</v>
@@ -3767,7 +3767,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="E81" s="3">
         <v>6000</v>
@@ -3779,10 +3779,10 @@
         <v>300</v>
       </c>
       <c r="H81" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="I81" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="J81" s="3">
         <v>4900</v>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>SY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>55400</v>
+        <v>67600</v>
       </c>
       <c r="E8" s="3">
-        <v>65400</v>
+        <v>70700</v>
       </c>
       <c r="F8" s="3">
-        <v>55400</v>
+        <v>56300</v>
       </c>
       <c r="G8" s="3">
-        <v>50500</v>
+        <v>66500</v>
       </c>
       <c r="H8" s="3">
-        <v>28100</v>
+        <v>56300</v>
       </c>
       <c r="I8" s="3">
+        <v>51400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K8" s="3">
         <v>55200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>46600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>43500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>31400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>26600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>23600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>21800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>16300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8100</v>
+        <v>14000</v>
       </c>
       <c r="E9" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="F9" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="G9" s="3">
-        <v>7800</v>
+        <v>10000</v>
       </c>
       <c r="H9" s="3">
-        <v>6600</v>
+        <v>8600</v>
       </c>
       <c r="I9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K9" s="3">
         <v>9000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>47300</v>
+        <v>53500</v>
       </c>
       <c r="E10" s="3">
-        <v>55600</v>
+        <v>61500</v>
       </c>
       <c r="F10" s="3">
-        <v>46900</v>
+        <v>48100</v>
       </c>
       <c r="G10" s="3">
-        <v>42700</v>
+        <v>56500</v>
       </c>
       <c r="H10" s="3">
-        <v>21500</v>
+        <v>47700</v>
       </c>
       <c r="I10" s="3">
+        <v>43400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K10" s="3">
         <v>46100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>38300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>35900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>25800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>22000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>20200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>18800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>14200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +921,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10700</v>
+        <v>12100</v>
       </c>
       <c r="E12" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F12" s="3">
         <v>10900</v>
       </c>
-      <c r="F12" s="3">
-        <v>9700</v>
-      </c>
       <c r="G12" s="3">
-        <v>8100</v>
+        <v>11100</v>
       </c>
       <c r="H12" s="3">
-        <v>6600</v>
+        <v>9900</v>
       </c>
       <c r="I12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K12" s="3">
         <v>8400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>4800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>3800</v>
       </c>
       <c r="N12" s="3">
         <v>4800</v>
       </c>
       <c r="O12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q12" s="3">
         <v>3000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,35 +1023,41 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1027,17 +1067,23 @@
       <c r="N14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>64600</v>
+        <v>67300</v>
       </c>
       <c r="E17" s="3">
-        <v>60800</v>
+        <v>61700</v>
       </c>
       <c r="F17" s="3">
-        <v>60000</v>
+        <v>65700</v>
       </c>
       <c r="G17" s="3">
-        <v>52100</v>
+        <v>61800</v>
       </c>
       <c r="H17" s="3">
-        <v>35300</v>
+        <v>61000</v>
       </c>
       <c r="I17" s="3">
+        <v>52900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K17" s="3">
         <v>43900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>43500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>41900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>25600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>21700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>26700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>20700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>12100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-9300</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
-        <v>4600</v>
+        <v>9000</v>
       </c>
       <c r="F18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K18" s="3">
         <v>11200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,55 +1278,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
-        <v>3200</v>
-      </c>
       <c r="F20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1306,8 +1380,14 @@
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1433,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7800</v>
+        <v>1600</v>
       </c>
       <c r="E23" s="3">
-        <v>7800</v>
+        <v>10600</v>
       </c>
       <c r="F23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K23" s="3">
         <v>15200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>8100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7100</v>
+        <v>900</v>
       </c>
       <c r="E26" s="3">
-        <v>5800</v>
+        <v>8800</v>
       </c>
       <c r="F26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K26" s="3">
         <v>10800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>5900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6900</v>
+        <v>1100</v>
       </c>
       <c r="E27" s="3">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K27" s="3">
         <v>10800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6900</v>
+        <v>1100</v>
       </c>
       <c r="E33" s="3">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K33" s="3">
         <v>10800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6900</v>
+        <v>1100</v>
       </c>
       <c r="E35" s="3">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K35" s="3">
         <v>10800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,44 +2226,46 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>149900</v>
+        <v>246800</v>
       </c>
       <c r="E41" s="3">
-        <v>173500</v>
+        <v>179900</v>
       </c>
       <c r="F41" s="3">
-        <v>85000</v>
+        <v>152400</v>
       </c>
       <c r="G41" s="3">
-        <v>242400</v>
+        <v>176500</v>
       </c>
       <c r="H41" s="3">
-        <v>141100</v>
+        <v>86400</v>
       </c>
       <c r="I41" s="3">
+        <v>246400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>143500</v>
+      </c>
+      <c r="K41" s="3">
         <v>136200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>94000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>169200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>108000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2101,44 +2275,50 @@
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>246500</v>
+        <v>36700</v>
       </c>
       <c r="E42" s="3">
-        <v>235100</v>
+        <v>169800</v>
       </c>
       <c r="F42" s="3">
-        <v>343700</v>
+        <v>250700</v>
       </c>
       <c r="G42" s="3">
-        <v>199100</v>
+        <v>239100</v>
       </c>
       <c r="H42" s="3">
-        <v>281300</v>
+        <v>349500</v>
       </c>
       <c r="I42" s="3">
+        <v>202400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>286000</v>
+      </c>
+      <c r="K42" s="3">
         <v>299200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>331800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>238000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>85300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2148,44 +2328,50 @@
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13300</v>
+        <v>17000</v>
       </c>
       <c r="E43" s="3">
-        <v>11800</v>
+        <v>15400</v>
       </c>
       <c r="F43" s="3">
-        <v>10700</v>
+        <v>13500</v>
       </c>
       <c r="G43" s="3">
-        <v>10200</v>
+        <v>12000</v>
       </c>
       <c r="H43" s="3">
-        <v>8000</v>
+        <v>10900</v>
       </c>
       <c r="I43" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K43" s="3">
         <v>7000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2195,31 +2381,37 @@
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>14300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2242,44 +2434,50 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="L45" s="3">
         <v>13500</v>
       </c>
-      <c r="E45" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>11800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>12700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>13500</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2289,44 +2487,50 @@
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>423200</v>
+        <v>333600</v>
       </c>
       <c r="E46" s="3">
-        <v>430500</v>
+        <v>384300</v>
       </c>
       <c r="F46" s="3">
-        <v>451300</v>
+        <v>430300</v>
       </c>
       <c r="G46" s="3">
-        <v>461700</v>
+        <v>437700</v>
       </c>
       <c r="H46" s="3">
-        <v>443000</v>
+        <v>458900</v>
       </c>
       <c r="I46" s="3">
+        <v>469500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>450400</v>
+      </c>
+      <c r="K46" s="3">
         <v>455300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>446200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>423400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>206300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2336,44 +2540,50 @@
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26800</v>
+        <v>39700</v>
       </c>
       <c r="E47" s="3">
-        <v>25600</v>
+        <v>35000</v>
       </c>
       <c r="F47" s="3">
-        <v>6300</v>
+        <v>27200</v>
       </c>
       <c r="G47" s="3">
-        <v>6600</v>
+        <v>26000</v>
       </c>
       <c r="H47" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="I47" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K47" s="3">
         <v>7100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>5600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2383,44 +2593,50 @@
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21700</v>
+        <v>35700</v>
       </c>
       <c r="E48" s="3">
-        <v>23100</v>
+        <v>20400</v>
       </c>
       <c r="F48" s="3">
-        <v>24600</v>
+        <v>22000</v>
       </c>
       <c r="G48" s="3">
-        <v>25800</v>
+        <v>23500</v>
       </c>
       <c r="H48" s="3">
-        <v>26800</v>
+        <v>25100</v>
       </c>
       <c r="I48" s="3">
+        <v>26200</v>
+      </c>
+      <c r="J48" s="3">
         <v>27200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
+        <v>27200</v>
+      </c>
+      <c r="L48" s="3">
         <v>28800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>29700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>26600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2430,31 +2646,37 @@
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16500</v>
+        <v>118300</v>
       </c>
       <c r="E49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F49" s="3">
         <v>16700</v>
       </c>
-      <c r="F49" s="3">
-        <v>6300</v>
-      </c>
       <c r="G49" s="3">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="H49" s="3">
-        <v>6700</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>16</v>
+        <v>6400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6800</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>16</v>
@@ -2468,17 +2690,23 @@
       <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,44 +2805,50 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17100</v>
+        <v>35700</v>
       </c>
       <c r="E52" s="3">
-        <v>11000</v>
+        <v>30900</v>
       </c>
       <c r="F52" s="3">
-        <v>10300</v>
+        <v>17400</v>
       </c>
       <c r="G52" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J52" s="3">
         <v>8100</v>
       </c>
-      <c r="H52" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,44 +2911,50 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>505200</v>
+        <v>563100</v>
       </c>
       <c r="E54" s="3">
-        <v>506900</v>
+        <v>487300</v>
       </c>
       <c r="F54" s="3">
-        <v>498900</v>
+        <v>513700</v>
       </c>
       <c r="G54" s="3">
-        <v>508700</v>
+        <v>515400</v>
       </c>
       <c r="H54" s="3">
-        <v>491300</v>
+        <v>507300</v>
       </c>
       <c r="I54" s="3">
+        <v>517200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>499500</v>
+      </c>
+      <c r="K54" s="3">
         <v>497300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>487300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>462900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>242700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2712,8 +2964,14 @@
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,16 +3010,18 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
@@ -2774,19 +3036,19 @@
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>16</v>
@@ -2797,8 +3059,14 @@
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,44 +3112,50 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>88700</v>
+        <v>149500</v>
       </c>
       <c r="E59" s="3">
-        <v>87500</v>
+        <v>93000</v>
       </c>
       <c r="F59" s="3">
-        <v>77400</v>
+        <v>90200</v>
       </c>
       <c r="G59" s="3">
-        <v>76500</v>
+        <v>89000</v>
       </c>
       <c r="H59" s="3">
-        <v>62600</v>
+        <v>78700</v>
       </c>
       <c r="I59" s="3">
+        <v>77800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K59" s="3">
         <v>71400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>68700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>61900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>57400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2891,44 +3165,50 @@
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>89100</v>
+        <v>149600</v>
       </c>
       <c r="E60" s="3">
-        <v>87900</v>
+        <v>93300</v>
       </c>
       <c r="F60" s="3">
-        <v>77700</v>
+        <v>90600</v>
       </c>
       <c r="G60" s="3">
-        <v>76900</v>
+        <v>89400</v>
       </c>
       <c r="H60" s="3">
-        <v>62900</v>
+        <v>79000</v>
       </c>
       <c r="I60" s="3">
+        <v>78100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K60" s="3">
         <v>71800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>69200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>62600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>57400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2938,8 +3218,14 @@
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,44 +3271,50 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14700</v>
+        <v>16000</v>
       </c>
       <c r="E62" s="3">
-        <v>15600</v>
+        <v>13800</v>
       </c>
       <c r="F62" s="3">
-        <v>17100</v>
+        <v>14900</v>
       </c>
       <c r="G62" s="3">
-        <v>18500</v>
+        <v>15900</v>
       </c>
       <c r="H62" s="3">
-        <v>19500</v>
+        <v>17400</v>
       </c>
       <c r="I62" s="3">
+        <v>18900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K62" s="3">
         <v>18600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>20000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>21000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>21900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,44 +3483,50 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>107100</v>
+        <v>180800</v>
       </c>
       <c r="E66" s="3">
-        <v>107100</v>
+        <v>110300</v>
       </c>
       <c r="F66" s="3">
-        <v>94800</v>
+        <v>108900</v>
       </c>
       <c r="G66" s="3">
-        <v>95400</v>
+        <v>108900</v>
       </c>
       <c r="H66" s="3">
-        <v>82500</v>
+        <v>96400</v>
       </c>
       <c r="I66" s="3">
+        <v>97000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>83800</v>
+      </c>
+      <c r="K66" s="3">
         <v>90400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>89200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>83600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>79300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3220,8 +3536,14 @@
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3363,14 +3699,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>218000</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,44 +3769,50 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-44400</v>
+        <v>-35100</v>
       </c>
       <c r="E72" s="3">
-        <v>-37500</v>
+        <v>-36200</v>
       </c>
       <c r="F72" s="3">
-        <v>-43500</v>
+        <v>-45200</v>
       </c>
       <c r="G72" s="3">
-        <v>-43600</v>
+        <v>-38100</v>
       </c>
       <c r="H72" s="3">
-        <v>-43900</v>
+        <v>-44200</v>
       </c>
       <c r="I72" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-38300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-49100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-53500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-57700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3474,8 +3822,14 @@
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,44 +3981,50 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>382200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>376900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>404700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>406500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>410900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>420200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>415700</v>
+      </c>
+      <c r="K76" s="3">
+        <v>406900</v>
+      </c>
+      <c r="L76" s="3">
         <v>398100</v>
       </c>
-      <c r="E76" s="3">
-        <v>399800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>404100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>413300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>408900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>406900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>398100</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>379300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-54600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3662,8 +4034,14 @@
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6900</v>
+        <v>1100</v>
       </c>
       <c r="E81" s="3">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K81" s="3">
         <v>10800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4537,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4590,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4615,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4770,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5056,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +5109,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5162,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +5213,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -749,25 +749,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>67600</v>
+        <v>68100</v>
       </c>
       <c r="E8" s="3">
-        <v>70700</v>
+        <v>71300</v>
       </c>
       <c r="F8" s="3">
-        <v>56300</v>
+        <v>56700</v>
       </c>
       <c r="G8" s="3">
-        <v>66500</v>
+        <v>67000</v>
       </c>
       <c r="H8" s="3">
-        <v>56300</v>
+        <v>56700</v>
       </c>
       <c r="I8" s="3">
-        <v>51400</v>
+        <v>51800</v>
       </c>
       <c r="J8" s="3">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="K8" s="3">
         <v>55200</v>
@@ -802,13 +802,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="E9" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="F9" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="G9" s="3">
         <v>10000</v>
@@ -817,10 +817,10 @@
         <v>8600</v>
       </c>
       <c r="I9" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="J9" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="K9" s="3">
         <v>9000</v>
@@ -855,25 +855,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>53500</v>
+        <v>53900</v>
       </c>
       <c r="E10" s="3">
-        <v>61500</v>
+        <v>62000</v>
       </c>
       <c r="F10" s="3">
+        <v>48500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>56900</v>
+      </c>
+      <c r="H10" s="3">
         <v>48100</v>
       </c>
-      <c r="G10" s="3">
-        <v>56500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>47700</v>
-      </c>
       <c r="I10" s="3">
-        <v>43400</v>
+        <v>43800</v>
       </c>
       <c r="J10" s="3">
-        <v>21800</v>
+        <v>22000</v>
       </c>
       <c r="K10" s="3">
         <v>46100</v>
@@ -929,25 +929,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="E12" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="F12" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="G12" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="H12" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="I12" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="J12" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="K12" s="3">
         <v>8400</v>
@@ -1159,25 +1159,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>67300</v>
+        <v>67800</v>
       </c>
       <c r="E17" s="3">
-        <v>61700</v>
+        <v>62200</v>
       </c>
       <c r="F17" s="3">
-        <v>65700</v>
+        <v>66200</v>
       </c>
       <c r="G17" s="3">
-        <v>61800</v>
+        <v>62300</v>
       </c>
       <c r="H17" s="3">
-        <v>61000</v>
+        <v>61500</v>
       </c>
       <c r="I17" s="3">
-        <v>52900</v>
+        <v>53300</v>
       </c>
       <c r="J17" s="3">
-        <v>35800</v>
+        <v>36100</v>
       </c>
       <c r="K17" s="3">
         <v>43900</v>
@@ -1215,19 +1215,19 @@
         <v>200</v>
       </c>
       <c r="E18" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F18" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="G18" s="3">
         <v>4700</v>
       </c>
       <c r="H18" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="I18" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J18" s="3">
         <v>-7300</v>
@@ -1451,10 +1451,10 @@
         <v>10600</v>
       </c>
       <c r="F23" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="G23" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="H23" s="3">
         <v>-2400</v>
@@ -1501,16 +1501,16 @@
         <v>700</v>
       </c>
       <c r="E24" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F24" s="3">
         <v>-700</v>
       </c>
       <c r="G24" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H24" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
@@ -1607,13 +1607,13 @@
         <v>900</v>
       </c>
       <c r="E26" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F26" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="G26" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
@@ -1622,7 +1622,7 @@
         <v>300</v>
       </c>
       <c r="J26" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="K26" s="3">
         <v>10800</v>
@@ -1660,10 +1660,10 @@
         <v>1100</v>
       </c>
       <c r="E27" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F27" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="G27" s="3">
         <v>6100</v>
@@ -1675,7 +1675,7 @@
         <v>300</v>
       </c>
       <c r="J27" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="K27" s="3">
         <v>10800</v>
@@ -1978,10 +1978,10 @@
         <v>1100</v>
       </c>
       <c r="E33" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F33" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="G33" s="3">
         <v>6100</v>
@@ -1993,7 +1993,7 @@
         <v>300</v>
       </c>
       <c r="J33" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="K33" s="3">
         <v>10800</v>
@@ -2084,10 +2084,10 @@
         <v>1100</v>
       </c>
       <c r="E35" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F35" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="G35" s="3">
         <v>6100</v>
@@ -2099,7 +2099,7 @@
         <v>300</v>
       </c>
       <c r="J35" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="K35" s="3">
         <v>10800</v>
@@ -2234,25 +2234,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>246800</v>
+        <v>248700</v>
       </c>
       <c r="E41" s="3">
-        <v>179900</v>
+        <v>181200</v>
       </c>
       <c r="F41" s="3">
-        <v>152400</v>
+        <v>153600</v>
       </c>
       <c r="G41" s="3">
-        <v>176500</v>
+        <v>177800</v>
       </c>
       <c r="H41" s="3">
-        <v>86400</v>
+        <v>87100</v>
       </c>
       <c r="I41" s="3">
-        <v>246400</v>
+        <v>248300</v>
       </c>
       <c r="J41" s="3">
-        <v>143500</v>
+        <v>144600</v>
       </c>
       <c r="K41" s="3">
         <v>136200</v>
@@ -2287,25 +2287,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36700</v>
+        <v>37000</v>
       </c>
       <c r="E42" s="3">
-        <v>169800</v>
+        <v>171100</v>
       </c>
       <c r="F42" s="3">
-        <v>250700</v>
+        <v>252600</v>
       </c>
       <c r="G42" s="3">
-        <v>239100</v>
+        <v>240900</v>
       </c>
       <c r="H42" s="3">
-        <v>349500</v>
+        <v>352200</v>
       </c>
       <c r="I42" s="3">
-        <v>202400</v>
+        <v>204000</v>
       </c>
       <c r="J42" s="3">
-        <v>286000</v>
+        <v>288200</v>
       </c>
       <c r="K42" s="3">
         <v>299200</v>
@@ -2340,25 +2340,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17000</v>
+        <v>17200</v>
       </c>
       <c r="E43" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="F43" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="G43" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="H43" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="I43" s="3">
         <v>10400</v>
       </c>
       <c r="J43" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="K43" s="3">
         <v>7000</v>
@@ -2393,7 +2393,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>16</v>
@@ -2446,25 +2446,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18800</v>
+        <v>19000</v>
       </c>
       <c r="E45" s="3">
-        <v>19200</v>
+        <v>19400</v>
       </c>
       <c r="F45" s="3">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="G45" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="H45" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="I45" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="J45" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="K45" s="3">
         <v>13000</v>
@@ -2499,25 +2499,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>333600</v>
+        <v>336200</v>
       </c>
       <c r="E46" s="3">
-        <v>384300</v>
+        <v>387200</v>
       </c>
       <c r="F46" s="3">
-        <v>430300</v>
+        <v>433600</v>
       </c>
       <c r="G46" s="3">
-        <v>437700</v>
+        <v>441100</v>
       </c>
       <c r="H46" s="3">
-        <v>458900</v>
+        <v>462400</v>
       </c>
       <c r="I46" s="3">
-        <v>469500</v>
+        <v>473100</v>
       </c>
       <c r="J46" s="3">
-        <v>450400</v>
+        <v>453900</v>
       </c>
       <c r="K46" s="3">
         <v>455300</v>
@@ -2552,25 +2552,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>39700</v>
+        <v>40000</v>
       </c>
       <c r="E47" s="3">
-        <v>35000</v>
+        <v>35300</v>
       </c>
       <c r="F47" s="3">
-        <v>27200</v>
+        <v>27400</v>
       </c>
       <c r="G47" s="3">
-        <v>26000</v>
+        <v>26200</v>
       </c>
       <c r="H47" s="3">
         <v>6500</v>
       </c>
       <c r="I47" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="J47" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="K47" s="3">
         <v>7100</v>
@@ -2605,25 +2605,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35700</v>
+        <v>36000</v>
       </c>
       <c r="E48" s="3">
-        <v>20400</v>
+        <v>20600</v>
       </c>
       <c r="F48" s="3">
-        <v>22000</v>
+        <v>22200</v>
       </c>
       <c r="G48" s="3">
-        <v>23500</v>
+        <v>23700</v>
       </c>
       <c r="H48" s="3">
-        <v>25100</v>
+        <v>25300</v>
       </c>
       <c r="I48" s="3">
-        <v>26200</v>
+        <v>26400</v>
       </c>
       <c r="J48" s="3">
-        <v>27200</v>
+        <v>27400</v>
       </c>
       <c r="K48" s="3">
         <v>27200</v>
@@ -2658,25 +2658,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>118300</v>
+        <v>119300</v>
       </c>
       <c r="E49" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="F49" s="3">
-        <v>16700</v>
+        <v>16900</v>
       </c>
       <c r="G49" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="H49" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="I49" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="J49" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>16</v>
@@ -2817,25 +2817,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35700</v>
+        <v>36000</v>
       </c>
       <c r="E52" s="3">
-        <v>30900</v>
+        <v>31100</v>
       </c>
       <c r="F52" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="G52" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="H52" s="3">
         <v>10500</v>
       </c>
       <c r="I52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J52" s="3">
         <v>8200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>8100</v>
       </c>
       <c r="K52" s="3">
         <v>7700</v>
@@ -2923,25 +2923,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>563100</v>
+        <v>567400</v>
       </c>
       <c r="E54" s="3">
-        <v>487300</v>
+        <v>491000</v>
       </c>
       <c r="F54" s="3">
-        <v>513700</v>
+        <v>517600</v>
       </c>
       <c r="G54" s="3">
-        <v>515400</v>
+        <v>519300</v>
       </c>
       <c r="H54" s="3">
-        <v>507300</v>
+        <v>511200</v>
       </c>
       <c r="I54" s="3">
-        <v>517200</v>
+        <v>521200</v>
       </c>
       <c r="J54" s="3">
-        <v>499500</v>
+        <v>503400</v>
       </c>
       <c r="K54" s="3">
         <v>497300</v>
@@ -3124,25 +3124,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>149500</v>
+        <v>150700</v>
       </c>
       <c r="E59" s="3">
-        <v>93000</v>
+        <v>93700</v>
       </c>
       <c r="F59" s="3">
-        <v>90200</v>
+        <v>90900</v>
       </c>
       <c r="G59" s="3">
-        <v>89000</v>
+        <v>89700</v>
       </c>
       <c r="H59" s="3">
-        <v>78700</v>
+        <v>79300</v>
       </c>
       <c r="I59" s="3">
-        <v>77800</v>
+        <v>78400</v>
       </c>
       <c r="J59" s="3">
-        <v>63600</v>
+        <v>64100</v>
       </c>
       <c r="K59" s="3">
         <v>71400</v>
@@ -3177,25 +3177,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>149600</v>
+        <v>150800</v>
       </c>
       <c r="E60" s="3">
-        <v>93300</v>
+        <v>94000</v>
       </c>
       <c r="F60" s="3">
-        <v>90600</v>
+        <v>91300</v>
       </c>
       <c r="G60" s="3">
-        <v>89400</v>
+        <v>90100</v>
       </c>
       <c r="H60" s="3">
-        <v>79000</v>
+        <v>79600</v>
       </c>
       <c r="I60" s="3">
-        <v>78100</v>
+        <v>78700</v>
       </c>
       <c r="J60" s="3">
-        <v>64000</v>
+        <v>64500</v>
       </c>
       <c r="K60" s="3">
         <v>71800</v>
@@ -3283,25 +3283,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G62" s="3">
         <v>16000</v>
       </c>
-      <c r="E62" s="3">
-        <v>13800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>14900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>15900</v>
-      </c>
       <c r="H62" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="I62" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="J62" s="3">
-        <v>19800</v>
+        <v>20000</v>
       </c>
       <c r="K62" s="3">
         <v>18600</v>
@@ -3495,25 +3495,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>180800</v>
+        <v>182200</v>
       </c>
       <c r="E66" s="3">
-        <v>110300</v>
+        <v>111200</v>
       </c>
       <c r="F66" s="3">
-        <v>108900</v>
+        <v>109800</v>
       </c>
       <c r="G66" s="3">
-        <v>108900</v>
+        <v>109700</v>
       </c>
       <c r="H66" s="3">
-        <v>96400</v>
+        <v>97100</v>
       </c>
       <c r="I66" s="3">
-        <v>97000</v>
+        <v>97800</v>
       </c>
       <c r="J66" s="3">
-        <v>83800</v>
+        <v>84500</v>
       </c>
       <c r="K66" s="3">
         <v>90400</v>
@@ -3781,25 +3781,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-35100</v>
+        <v>-35400</v>
       </c>
       <c r="E72" s="3">
-        <v>-36200</v>
+        <v>-36500</v>
       </c>
       <c r="F72" s="3">
-        <v>-45200</v>
+        <v>-45500</v>
       </c>
       <c r="G72" s="3">
-        <v>-38100</v>
+        <v>-38400</v>
       </c>
       <c r="H72" s="3">
-        <v>-44200</v>
+        <v>-44500</v>
       </c>
       <c r="I72" s="3">
-        <v>-44300</v>
+        <v>-44700</v>
       </c>
       <c r="J72" s="3">
-        <v>-44700</v>
+        <v>-45000</v>
       </c>
       <c r="K72" s="3">
         <v>-38300</v>
@@ -3993,25 +3993,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>382200</v>
+        <v>385200</v>
       </c>
       <c r="E76" s="3">
-        <v>376900</v>
+        <v>379800</v>
       </c>
       <c r="F76" s="3">
-        <v>404700</v>
+        <v>407800</v>
       </c>
       <c r="G76" s="3">
-        <v>406500</v>
+        <v>409600</v>
       </c>
       <c r="H76" s="3">
-        <v>410900</v>
+        <v>414000</v>
       </c>
       <c r="I76" s="3">
-        <v>420200</v>
+        <v>423400</v>
       </c>
       <c r="J76" s="3">
-        <v>415700</v>
+        <v>418900</v>
       </c>
       <c r="K76" s="3">
         <v>406900</v>
@@ -4160,10 +4160,10 @@
         <v>1100</v>
       </c>
       <c r="E81" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F81" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="G81" s="3">
         <v>6100</v>
@@ -4175,7 +4175,7 @@
         <v>300</v>
       </c>
       <c r="J81" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="K81" s="3">
         <v>10800</v>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>SY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>68100</v>
+        <v>66200</v>
       </c>
       <c r="E8" s="3">
-        <v>71300</v>
+        <v>63600</v>
       </c>
       <c r="F8" s="3">
-        <v>56700</v>
+        <v>66600</v>
       </c>
       <c r="G8" s="3">
-        <v>67000</v>
+        <v>53000</v>
       </c>
       <c r="H8" s="3">
-        <v>56700</v>
+        <v>62600</v>
       </c>
       <c r="I8" s="3">
-        <v>51800</v>
+        <v>53000</v>
       </c>
       <c r="J8" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K8" s="3">
         <v>28800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>43500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14100</v>
+        <v>18700</v>
       </c>
       <c r="E9" s="3">
-        <v>9300</v>
+        <v>13200</v>
       </c>
       <c r="F9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M9" s="3">
         <v>8300</v>
       </c>
-      <c r="G9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>6800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>9000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>8300</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>53900</v>
+        <v>47500</v>
       </c>
       <c r="E10" s="3">
-        <v>62000</v>
+        <v>50400</v>
       </c>
       <c r="F10" s="3">
-        <v>48500</v>
+        <v>57900</v>
       </c>
       <c r="G10" s="3">
-        <v>56900</v>
+        <v>45300</v>
       </c>
       <c r="H10" s="3">
-        <v>48100</v>
+        <v>53200</v>
       </c>
       <c r="I10" s="3">
-        <v>43800</v>
+        <v>44900</v>
       </c>
       <c r="J10" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K10" s="3">
         <v>22000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>46100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>12200</v>
+        <v>9900</v>
       </c>
       <c r="E12" s="3">
         <v>11400</v>
       </c>
       <c r="F12" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="G12" s="3">
-        <v>11200</v>
+        <v>10300</v>
       </c>
       <c r="H12" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="I12" s="3">
-        <v>8300</v>
+        <v>9300</v>
       </c>
       <c r="J12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K12" s="3">
         <v>6800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,38 +1045,41 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
+        <v>9700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1073,8 +1092,8 @@
       <c r="P14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>67800</v>
+        <v>73500</v>
       </c>
       <c r="E17" s="3">
-        <v>62200</v>
+        <v>63400</v>
       </c>
       <c r="F17" s="3">
-        <v>66200</v>
+        <v>58100</v>
       </c>
       <c r="G17" s="3">
-        <v>62300</v>
+        <v>61800</v>
       </c>
       <c r="H17" s="3">
-        <v>61500</v>
+        <v>58200</v>
       </c>
       <c r="I17" s="3">
-        <v>53300</v>
+        <v>57400</v>
       </c>
       <c r="J17" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K17" s="3">
         <v>36100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>9100</v>
-      </c>
       <c r="F18" s="3">
-        <v>-9500</v>
+        <v>8500</v>
       </c>
       <c r="G18" s="3">
-        <v>4700</v>
+        <v>-8900</v>
       </c>
       <c r="H18" s="3">
-        <v>-4800</v>
+        <v>4400</v>
       </c>
       <c r="I18" s="3">
-        <v>-1600</v>
+        <v>-4500</v>
       </c>
       <c r="J18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1500</v>
-      </c>
       <c r="G20" s="3">
-        <v>3300</v>
+        <v>1400</v>
       </c>
       <c r="H20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>4000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>4500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1600</v>
+        <v>-6400</v>
       </c>
       <c r="E23" s="3">
-        <v>10600</v>
+        <v>1500</v>
       </c>
       <c r="F23" s="3">
-        <v>-8000</v>
+        <v>9900</v>
       </c>
       <c r="G23" s="3">
-        <v>8000</v>
+        <v>-7500</v>
       </c>
       <c r="H23" s="3">
-        <v>-2400</v>
+        <v>7500</v>
       </c>
       <c r="I23" s="3">
-        <v>800</v>
+        <v>-2300</v>
       </c>
       <c r="J23" s="3">
+        <v>700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="3">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="F24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
-        <v>8900</v>
-      </c>
       <c r="F26" s="3">
-        <v>-7300</v>
+        <v>8300</v>
       </c>
       <c r="G26" s="3">
-        <v>6000</v>
+        <v>-6800</v>
       </c>
       <c r="H26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1100</v>
+        <v>-4100</v>
       </c>
       <c r="E27" s="3">
-        <v>9100</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="3">
-        <v>-7100</v>
+        <v>8500</v>
       </c>
       <c r="G27" s="3">
-        <v>6100</v>
+        <v>-6600</v>
       </c>
       <c r="H27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1500</v>
-      </c>
       <c r="G32" s="3">
-        <v>-3300</v>
+        <v>-1400</v>
       </c>
       <c r="H32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1100</v>
+        <v>-4100</v>
       </c>
       <c r="E33" s="3">
-        <v>9100</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="3">
-        <v>-7100</v>
+        <v>8500</v>
       </c>
       <c r="G33" s="3">
-        <v>6100</v>
+        <v>-6600</v>
       </c>
       <c r="H33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1100</v>
+        <v>-4100</v>
       </c>
       <c r="E35" s="3">
-        <v>9100</v>
+        <v>1000</v>
       </c>
       <c r="F35" s="3">
-        <v>-7100</v>
+        <v>8500</v>
       </c>
       <c r="G35" s="3">
-        <v>6100</v>
+        <v>-6600</v>
       </c>
       <c r="H35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>248700</v>
+        <v>196300</v>
       </c>
       <c r="E41" s="3">
-        <v>181200</v>
+        <v>232300</v>
       </c>
       <c r="F41" s="3">
-        <v>153600</v>
+        <v>169300</v>
       </c>
       <c r="G41" s="3">
-        <v>177800</v>
+        <v>143500</v>
       </c>
       <c r="H41" s="3">
-        <v>87100</v>
+        <v>166100</v>
       </c>
       <c r="I41" s="3">
-        <v>248300</v>
+        <v>81400</v>
       </c>
       <c r="J41" s="3">
+        <v>232000</v>
+      </c>
+      <c r="K41" s="3">
         <v>144600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>136200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>94000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>169200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>108000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2281,47 +2367,50 @@
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>37000</v>
+        <v>60300</v>
       </c>
       <c r="E42" s="3">
-        <v>171100</v>
+        <v>34500</v>
       </c>
       <c r="F42" s="3">
-        <v>252600</v>
+        <v>159800</v>
       </c>
       <c r="G42" s="3">
-        <v>240900</v>
+        <v>235900</v>
       </c>
       <c r="H42" s="3">
-        <v>352200</v>
+        <v>225000</v>
       </c>
       <c r="I42" s="3">
-        <v>204000</v>
+        <v>329000</v>
       </c>
       <c r="J42" s="3">
+        <v>190600</v>
+      </c>
+      <c r="K42" s="3">
         <v>288200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>299200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>331800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>238000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>85300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2334,47 +2423,50 @@
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17200</v>
+        <v>12900</v>
       </c>
       <c r="E43" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="F43" s="3">
-        <v>13600</v>
+        <v>14500</v>
       </c>
       <c r="G43" s="3">
-        <v>12100</v>
+        <v>12700</v>
       </c>
       <c r="H43" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="I43" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="J43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K43" s="3">
         <v>8200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>7000</v>
       </c>
       <c r="L43" s="3">
         <v>7000</v>
       </c>
       <c r="M43" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N43" s="3">
         <v>4300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2387,16 +2479,19 @@
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14400</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>16</v>
+        <v>13500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13400</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>16</v>
@@ -2413,8 +2508,8 @@
       <c r="J44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2440,47 +2535,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19000</v>
+        <v>15800</v>
       </c>
       <c r="E45" s="3">
-        <v>19400</v>
+        <v>17700</v>
       </c>
       <c r="F45" s="3">
-        <v>13900</v>
+        <v>18100</v>
       </c>
       <c r="G45" s="3">
-        <v>10300</v>
+        <v>12900</v>
       </c>
       <c r="H45" s="3">
-        <v>12100</v>
+        <v>9600</v>
       </c>
       <c r="I45" s="3">
-        <v>10300</v>
+        <v>11300</v>
       </c>
       <c r="J45" s="3">
-        <v>13000</v>
+        <v>9600</v>
       </c>
       <c r="K45" s="3">
         <v>13000</v>
       </c>
       <c r="L45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="M45" s="3">
         <v>13500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2493,47 +2591,50 @@
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>336200</v>
+        <v>298800</v>
       </c>
       <c r="E46" s="3">
-        <v>387200</v>
+        <v>314000</v>
       </c>
       <c r="F46" s="3">
-        <v>433600</v>
+        <v>361700</v>
       </c>
       <c r="G46" s="3">
-        <v>441100</v>
+        <v>405000</v>
       </c>
       <c r="H46" s="3">
-        <v>462400</v>
+        <v>412000</v>
       </c>
       <c r="I46" s="3">
-        <v>473100</v>
+        <v>431900</v>
       </c>
       <c r="J46" s="3">
+        <v>441900</v>
+      </c>
+      <c r="K46" s="3">
         <v>453900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>455300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>446200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>423400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>206300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2546,47 +2647,50 @@
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40000</v>
+        <v>37200</v>
       </c>
       <c r="E47" s="3">
-        <v>35300</v>
+        <v>37300</v>
       </c>
       <c r="F47" s="3">
-        <v>27400</v>
+        <v>33000</v>
       </c>
       <c r="G47" s="3">
-        <v>26200</v>
+        <v>25600</v>
       </c>
       <c r="H47" s="3">
-        <v>6500</v>
+        <v>24500</v>
       </c>
       <c r="I47" s="3">
-        <v>6800</v>
+        <v>6100</v>
       </c>
       <c r="J47" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K47" s="3">
         <v>7000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2599,47 +2703,50 @@
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="E48" s="3">
-        <v>20600</v>
+        <v>33600</v>
       </c>
       <c r="F48" s="3">
-        <v>22200</v>
+        <v>19200</v>
       </c>
       <c r="G48" s="3">
-        <v>23700</v>
+        <v>20700</v>
       </c>
       <c r="H48" s="3">
-        <v>25300</v>
+        <v>22100</v>
       </c>
       <c r="I48" s="3">
-        <v>26400</v>
+        <v>23600</v>
       </c>
       <c r="J48" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K48" s="3">
         <v>27400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>26600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2652,35 +2759,38 @@
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>119300</v>
+        <v>108300</v>
       </c>
       <c r="E49" s="3">
-        <v>16700</v>
+        <v>111400</v>
       </c>
       <c r="F49" s="3">
-        <v>16900</v>
+        <v>15600</v>
       </c>
       <c r="G49" s="3">
-        <v>17100</v>
+        <v>15700</v>
       </c>
       <c r="H49" s="3">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="I49" s="3">
-        <v>6700</v>
+        <v>6100</v>
       </c>
       <c r="J49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K49" s="3">
         <v>6900</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2696,8 +2806,8 @@
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,47 +2927,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36000</v>
+        <v>14100</v>
       </c>
       <c r="E52" s="3">
-        <v>31100</v>
+        <v>33600</v>
       </c>
       <c r="F52" s="3">
-        <v>17500</v>
+        <v>29100</v>
       </c>
       <c r="G52" s="3">
-        <v>11300</v>
+        <v>16300</v>
       </c>
       <c r="H52" s="3">
         <v>10500</v>
       </c>
       <c r="I52" s="3">
-        <v>8300</v>
+        <v>9800</v>
       </c>
       <c r="J52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K52" s="3">
         <v>8200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>567400</v>
+        <v>490800</v>
       </c>
       <c r="E54" s="3">
-        <v>491000</v>
+        <v>530000</v>
       </c>
       <c r="F54" s="3">
-        <v>517600</v>
+        <v>458600</v>
       </c>
       <c r="G54" s="3">
-        <v>519300</v>
+        <v>483500</v>
       </c>
       <c r="H54" s="3">
-        <v>511200</v>
+        <v>485100</v>
       </c>
       <c r="I54" s="3">
-        <v>521200</v>
+        <v>477500</v>
       </c>
       <c r="J54" s="3">
+        <v>486800</v>
+      </c>
+      <c r="K54" s="3">
         <v>503400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>497300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>487300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>462900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>242700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3021,13 +3151,13 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
-        <v>400</v>
-      </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
@@ -3036,22 +3166,22 @@
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>16</v>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>16</v>
@@ -3065,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,47 +3251,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>150700</v>
+        <v>104900</v>
       </c>
       <c r="E59" s="3">
-        <v>93700</v>
+        <v>140700</v>
       </c>
       <c r="F59" s="3">
-        <v>90900</v>
+        <v>87500</v>
       </c>
       <c r="G59" s="3">
-        <v>89700</v>
+        <v>84900</v>
       </c>
       <c r="H59" s="3">
-        <v>79300</v>
+        <v>83800</v>
       </c>
       <c r="I59" s="3">
-        <v>78400</v>
+        <v>74000</v>
       </c>
       <c r="J59" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K59" s="3">
         <v>64100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>68700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>61900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>57400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3171,47 +3307,50 @@
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>150800</v>
+        <v>105000</v>
       </c>
       <c r="E60" s="3">
-        <v>94000</v>
+        <v>140800</v>
       </c>
       <c r="F60" s="3">
-        <v>91300</v>
+        <v>87800</v>
       </c>
       <c r="G60" s="3">
-        <v>90100</v>
+        <v>85300</v>
       </c>
       <c r="H60" s="3">
-        <v>79600</v>
+        <v>84100</v>
       </c>
       <c r="I60" s="3">
-        <v>78700</v>
+        <v>74400</v>
       </c>
       <c r="J60" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K60" s="3">
         <v>64500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>69200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>62600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>57400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,47 +3419,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16200</v>
+        <v>14900</v>
       </c>
       <c r="E62" s="3">
-        <v>13900</v>
+        <v>15100</v>
       </c>
       <c r="F62" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H62" s="3">
         <v>15000</v>
       </c>
-      <c r="G62" s="3">
-        <v>16000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>17500</v>
-      </c>
       <c r="I62" s="3">
-        <v>19000</v>
+        <v>16300</v>
       </c>
       <c r="J62" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K62" s="3">
         <v>20000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>182200</v>
+        <v>130300</v>
       </c>
       <c r="E66" s="3">
-        <v>111200</v>
+        <v>170200</v>
       </c>
       <c r="F66" s="3">
-        <v>109800</v>
+        <v>103800</v>
       </c>
       <c r="G66" s="3">
-        <v>109700</v>
+        <v>102500</v>
       </c>
       <c r="H66" s="3">
-        <v>97100</v>
+        <v>102500</v>
       </c>
       <c r="I66" s="3">
-        <v>97800</v>
+        <v>90700</v>
       </c>
       <c r="J66" s="3">
+        <v>91300</v>
+      </c>
+      <c r="K66" s="3">
         <v>84500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>89200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>83600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>79300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3705,11 +3872,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>218000</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-35400</v>
+        <v>-37100</v>
       </c>
       <c r="E72" s="3">
-        <v>-36500</v>
+        <v>-33100</v>
       </c>
       <c r="F72" s="3">
-        <v>-45500</v>
+        <v>-34100</v>
       </c>
       <c r="G72" s="3">
-        <v>-38400</v>
+        <v>-42500</v>
       </c>
       <c r="H72" s="3">
-        <v>-44500</v>
+        <v>-35900</v>
       </c>
       <c r="I72" s="3">
-        <v>-44700</v>
+        <v>-41600</v>
       </c>
       <c r="J72" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-45000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-49100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-57700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>385200</v>
+        <v>360500</v>
       </c>
       <c r="E76" s="3">
-        <v>379800</v>
+        <v>359800</v>
       </c>
       <c r="F76" s="3">
-        <v>407800</v>
+        <v>354800</v>
       </c>
       <c r="G76" s="3">
-        <v>409600</v>
+        <v>381000</v>
       </c>
       <c r="H76" s="3">
-        <v>414000</v>
+        <v>382600</v>
       </c>
       <c r="I76" s="3">
-        <v>423400</v>
+        <v>386700</v>
       </c>
       <c r="J76" s="3">
+        <v>395500</v>
+      </c>
+      <c r="K76" s="3">
         <v>418900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>406900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>398100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>379300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-54600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1100</v>
+        <v>-4100</v>
       </c>
       <c r="E81" s="3">
-        <v>9100</v>
+        <v>1000</v>
       </c>
       <c r="F81" s="3">
-        <v>-7100</v>
+        <v>8500</v>
       </c>
       <c r="G81" s="3">
-        <v>6100</v>
+        <v>-6600</v>
       </c>
       <c r="H81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4596,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5115,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5219,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>SY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>66200</v>
+        <v>45100</v>
       </c>
       <c r="E8" s="3">
-        <v>63600</v>
+        <v>43900</v>
       </c>
       <c r="F8" s="3">
-        <v>66600</v>
+        <v>65600</v>
       </c>
       <c r="G8" s="3">
+        <v>63000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>66000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>52500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K8" s="3">
         <v>53000</v>
       </c>
-      <c r="H8" s="3">
-        <v>62600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>53000</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>48400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>28800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>55200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>46600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>43500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>31400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>26600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>23600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>21800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>16300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18700</v>
+        <v>15300</v>
       </c>
       <c r="E9" s="3">
-        <v>13200</v>
+        <v>15600</v>
       </c>
       <c r="F9" s="3">
-        <v>8700</v>
+        <v>18600</v>
       </c>
       <c r="G9" s="3">
-        <v>7700</v>
+        <v>13100</v>
       </c>
       <c r="H9" s="3">
-        <v>9400</v>
+        <v>8600</v>
       </c>
       <c r="I9" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K9" s="3">
         <v>8100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>6800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>9000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>8300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>47500</v>
+        <v>29900</v>
       </c>
       <c r="E10" s="3">
-        <v>50400</v>
+        <v>28300</v>
       </c>
       <c r="F10" s="3">
-        <v>57900</v>
+        <v>47100</v>
       </c>
       <c r="G10" s="3">
-        <v>45300</v>
+        <v>49900</v>
       </c>
       <c r="H10" s="3">
-        <v>53200</v>
+        <v>57400</v>
       </c>
       <c r="I10" s="3">
         <v>44900</v>
       </c>
       <c r="J10" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K10" s="3">
+        <v>44900</v>
+      </c>
+      <c r="L10" s="3">
         <v>40900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>22000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>46100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>38300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>35900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>25800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>22000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>20200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>18800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>14200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +962,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F12" s="3">
         <v>9900</v>
       </c>
-      <c r="E12" s="3">
-        <v>11400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>10600</v>
-      </c>
       <c r="G12" s="3">
-        <v>10300</v>
+        <v>11300</v>
       </c>
       <c r="H12" s="3">
         <v>10500</v>
       </c>
       <c r="I12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K12" s="3">
         <v>9300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>6800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7900</v>
-      </c>
-      <c r="O12" s="3">
-        <v>4800</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3800</v>
       </c>
       <c r="Q12" s="3">
         <v>4800</v>
       </c>
       <c r="R12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="T12" s="3">
         <v>3000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,44 +1082,50 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>9700</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G14" s="3">
         <v>2600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1095,17 +1135,23 @@
       <c r="Q14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>73500</v>
+        <v>51300</v>
       </c>
       <c r="E17" s="3">
-        <v>63400</v>
+        <v>55200</v>
       </c>
       <c r="F17" s="3">
-        <v>58100</v>
+        <v>72900</v>
       </c>
       <c r="G17" s="3">
-        <v>61800</v>
+        <v>62800</v>
       </c>
       <c r="H17" s="3">
-        <v>58200</v>
+        <v>57600</v>
       </c>
       <c r="I17" s="3">
+        <v>61300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>57700</v>
+      </c>
+      <c r="K17" s="3">
         <v>57400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>49800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>36100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>43900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>43500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>41900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>25600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>21700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>26700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>20700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>12100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-7300</v>
       </c>
-      <c r="E18" s="3">
-        <v>200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>8500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>11200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>5800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>4300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,64 +1379,72 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="E20" s="3">
         <v>1300</v>
       </c>
       <c r="F20" s="3">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1425,8 +1499,14 @@
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1561,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6400</v>
+        <v>-4800</v>
       </c>
       <c r="E23" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-7500</v>
-      </c>
       <c r="H23" s="3">
-        <v>7500</v>
+        <v>9800</v>
       </c>
       <c r="I23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>15200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>6100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>8100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>6000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>4700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7900</v>
+        <v>-4800</v>
       </c>
       <c r="E26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-6800</v>
       </c>
-      <c r="H26" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>10800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>4400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
-        <v>8500</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-6600</v>
       </c>
-      <c r="H27" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>10800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-900</v>
+        <v>-1400</v>
       </c>
       <c r="E32" s="3">
         <v>-1300</v>
       </c>
       <c r="F32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
-        <v>8500</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>10800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
-        <v>8500</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>10800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2486,55 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>196300</v>
+        <v>214900</v>
       </c>
       <c r="E41" s="3">
-        <v>232300</v>
+        <v>228400</v>
       </c>
       <c r="F41" s="3">
-        <v>169300</v>
+        <v>194500</v>
       </c>
       <c r="G41" s="3">
-        <v>143500</v>
+        <v>230200</v>
       </c>
       <c r="H41" s="3">
-        <v>166100</v>
+        <v>167800</v>
       </c>
       <c r="I41" s="3">
+        <v>142200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>164600</v>
+      </c>
+      <c r="K41" s="3">
         <v>81400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>232000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>144600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>136200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>94000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>169200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>108000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2370,53 +2544,59 @@
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>60300</v>
+        <v>16100</v>
       </c>
       <c r="E42" s="3">
-        <v>34500</v>
+        <v>16200</v>
       </c>
       <c r="F42" s="3">
-        <v>159800</v>
+        <v>59700</v>
       </c>
       <c r="G42" s="3">
-        <v>235900</v>
+        <v>34200</v>
       </c>
       <c r="H42" s="3">
-        <v>225000</v>
+        <v>158400</v>
       </c>
       <c r="I42" s="3">
+        <v>233800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>223000</v>
+      </c>
+      <c r="K42" s="3">
         <v>329000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>190600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>288200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>299200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>331800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>238000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>85300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2426,53 +2606,59 @@
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="E43" s="3">
-        <v>16000</v>
+        <v>12800</v>
       </c>
       <c r="F43" s="3">
-        <v>14500</v>
+        <v>12800</v>
       </c>
       <c r="G43" s="3">
-        <v>12700</v>
+        <v>15900</v>
       </c>
       <c r="H43" s="3">
-        <v>11300</v>
+        <v>14400</v>
       </c>
       <c r="I43" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K43" s="3">
         <v>10300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>9800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>8200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>7000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>7000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2482,22 +2668,28 @@
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="E44" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F44" s="3">
         <v>13400</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>16</v>
+      <c r="G44" s="3">
+        <v>13300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>16</v>
@@ -2511,11 +2703,11 @@
       <c r="K44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2538,53 +2730,59 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15800</v>
+        <v>21000</v>
       </c>
       <c r="E45" s="3">
-        <v>17700</v>
+        <v>14900</v>
       </c>
       <c r="F45" s="3">
-        <v>18100</v>
+        <v>15600</v>
       </c>
       <c r="G45" s="3">
-        <v>12900</v>
+        <v>17600</v>
       </c>
       <c r="H45" s="3">
+        <v>17900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="L45" s="3">
         <v>9600</v>
       </c>
-      <c r="I45" s="3">
-        <v>11300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>9600</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>13000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>13000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>13500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>11900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>8700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2594,53 +2792,59 @@
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>298800</v>
+        <v>278300</v>
       </c>
       <c r="E46" s="3">
-        <v>314000</v>
+        <v>285300</v>
       </c>
       <c r="F46" s="3">
-        <v>361700</v>
+        <v>296100</v>
       </c>
       <c r="G46" s="3">
-        <v>405000</v>
+        <v>311200</v>
       </c>
       <c r="H46" s="3">
-        <v>412000</v>
+        <v>358400</v>
       </c>
       <c r="I46" s="3">
+        <v>401400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>408300</v>
+      </c>
+      <c r="K46" s="3">
         <v>431900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>441900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>453900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>455300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>446200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>423400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>206300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2650,53 +2854,59 @@
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37200</v>
+        <v>36700</v>
       </c>
       <c r="E47" s="3">
-        <v>37300</v>
+        <v>36700</v>
       </c>
       <c r="F47" s="3">
-        <v>33000</v>
+        <v>36900</v>
       </c>
       <c r="G47" s="3">
-        <v>25600</v>
+        <v>37000</v>
       </c>
       <c r="H47" s="3">
-        <v>24500</v>
+        <v>32700</v>
       </c>
       <c r="I47" s="3">
+        <v>25400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K47" s="3">
         <v>6100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>6300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2706,53 +2916,59 @@
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32400</v>
+        <v>29700</v>
       </c>
       <c r="E48" s="3">
-        <v>33600</v>
+        <v>30900</v>
       </c>
       <c r="F48" s="3">
-        <v>19200</v>
+        <v>32200</v>
       </c>
       <c r="G48" s="3">
-        <v>20700</v>
+        <v>33300</v>
       </c>
       <c r="H48" s="3">
-        <v>22100</v>
+        <v>19100</v>
       </c>
       <c r="I48" s="3">
+        <v>20600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K48" s="3">
         <v>23600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>24600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>27400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>27200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>28800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>29700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>26600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2762,41 +2978,47 @@
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>108300</v>
+        <v>105500</v>
       </c>
       <c r="E49" s="3">
-        <v>111400</v>
+        <v>106400</v>
       </c>
       <c r="F49" s="3">
+        <v>107300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>110400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I49" s="3">
         <v>15600</v>
       </c>
-      <c r="G49" s="3">
-        <v>15700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>16000</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K49" s="3">
         <v>6100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>6900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2809,17 +3031,23 @@
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3164,59 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14100</v>
+        <v>22400</v>
       </c>
       <c r="E52" s="3">
-        <v>33600</v>
+        <v>15400</v>
       </c>
       <c r="F52" s="3">
-        <v>29100</v>
+        <v>14000</v>
       </c>
       <c r="G52" s="3">
-        <v>16300</v>
+        <v>33300</v>
       </c>
       <c r="H52" s="3">
-        <v>10500</v>
+        <v>28800</v>
       </c>
       <c r="I52" s="3">
+        <v>16200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K52" s="3">
         <v>9800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>8200</v>
       </c>
       <c r="L52" s="3">
         <v>7700</v>
       </c>
       <c r="M52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="N52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="O52" s="3">
         <v>6600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3288,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>490800</v>
+        <v>472500</v>
       </c>
       <c r="E54" s="3">
-        <v>530000</v>
+        <v>474600</v>
       </c>
       <c r="F54" s="3">
-        <v>458600</v>
+        <v>486300</v>
       </c>
       <c r="G54" s="3">
-        <v>483500</v>
+        <v>525200</v>
       </c>
       <c r="H54" s="3">
-        <v>485100</v>
+        <v>454500</v>
       </c>
       <c r="I54" s="3">
+        <v>479100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>480700</v>
+      </c>
+      <c r="K54" s="3">
         <v>477500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>486800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>503400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>497300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>487300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>462900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>242700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,52 +3402,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>16</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>16</v>
@@ -3198,8 +3460,14 @@
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,53 +3522,59 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>104900</v>
+        <v>96600</v>
       </c>
       <c r="E59" s="3">
-        <v>140700</v>
+        <v>101700</v>
       </c>
       <c r="F59" s="3">
-        <v>87500</v>
+        <v>103900</v>
       </c>
       <c r="G59" s="3">
-        <v>84900</v>
+        <v>139500</v>
       </c>
       <c r="H59" s="3">
-        <v>83800</v>
+        <v>86700</v>
       </c>
       <c r="I59" s="3">
+        <v>84200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>83000</v>
+      </c>
+      <c r="K59" s="3">
         <v>74000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>73200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>64100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>71400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>68700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>61900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>57400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3310,53 +3584,59 @@
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>105000</v>
+        <v>96600</v>
       </c>
       <c r="E60" s="3">
-        <v>140800</v>
+        <v>101700</v>
       </c>
       <c r="F60" s="3">
-        <v>87800</v>
+        <v>104000</v>
       </c>
       <c r="G60" s="3">
-        <v>85300</v>
+        <v>139600</v>
       </c>
       <c r="H60" s="3">
-        <v>84100</v>
+        <v>87000</v>
       </c>
       <c r="I60" s="3">
+        <v>84500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K60" s="3">
         <v>74400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>73600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>64500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>71800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>69200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>62600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>57400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3366,8 +3646,14 @@
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,53 +3708,59 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14900</v>
+        <v>11400</v>
       </c>
       <c r="E62" s="3">
-        <v>15100</v>
+        <v>13000</v>
       </c>
       <c r="F62" s="3">
-        <v>13000</v>
+        <v>14700</v>
       </c>
       <c r="G62" s="3">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="H62" s="3">
-        <v>15000</v>
+        <v>12900</v>
       </c>
       <c r="I62" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K62" s="3">
         <v>16300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>17800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>20000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>18600</v>
       </c>
       <c r="M62" s="3">
         <v>20000</v>
       </c>
       <c r="N62" s="3">
+        <v>18600</v>
+      </c>
+      <c r="O62" s="3">
+        <v>20000</v>
+      </c>
+      <c r="P62" s="3">
         <v>21000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>21900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3956,59 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>130300</v>
+        <v>118300</v>
       </c>
       <c r="E66" s="3">
-        <v>170200</v>
+        <v>125100</v>
       </c>
       <c r="F66" s="3">
-        <v>103800</v>
+        <v>129100</v>
       </c>
       <c r="G66" s="3">
-        <v>102500</v>
+        <v>168600</v>
       </c>
       <c r="H66" s="3">
-        <v>102500</v>
+        <v>102900</v>
       </c>
       <c r="I66" s="3">
+        <v>101600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>101600</v>
+      </c>
+      <c r="K66" s="3">
         <v>90700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>91300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>84500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>90400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>89200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>83600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>79300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3875,14 +4211,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>218000</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4290,59 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-37100</v>
+        <v>-51300</v>
       </c>
       <c r="E72" s="3">
-        <v>-33100</v>
+        <v>-46600</v>
       </c>
       <c r="F72" s="3">
-        <v>-34100</v>
+        <v>-36800</v>
       </c>
       <c r="G72" s="3">
-        <v>-42500</v>
+        <v>-32800</v>
       </c>
       <c r="H72" s="3">
-        <v>-35900</v>
+        <v>-33700</v>
       </c>
       <c r="I72" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-41600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-41700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-45000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-38300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-49100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-53500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-57700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4538,59 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>360500</v>
+        <v>354300</v>
       </c>
       <c r="E76" s="3">
-        <v>359800</v>
+        <v>349600</v>
       </c>
       <c r="F76" s="3">
-        <v>354800</v>
+        <v>357200</v>
       </c>
       <c r="G76" s="3">
-        <v>381000</v>
+        <v>356500</v>
       </c>
       <c r="H76" s="3">
-        <v>382600</v>
+        <v>351600</v>
       </c>
       <c r="I76" s="3">
+        <v>377500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>379100</v>
+      </c>
+      <c r="K76" s="3">
         <v>386700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>395500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>418900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>406900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>398100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>379300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-54600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
-        <v>8500</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>10800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5249,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5855,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5917,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>45100</v>
+        <v>43000</v>
       </c>
       <c r="E8" s="3">
-        <v>43900</v>
+        <v>41800</v>
       </c>
       <c r="F8" s="3">
-        <v>65600</v>
+        <v>62600</v>
       </c>
       <c r="G8" s="3">
-        <v>63000</v>
+        <v>60100</v>
       </c>
       <c r="H8" s="3">
-        <v>66000</v>
+        <v>62900</v>
       </c>
       <c r="I8" s="3">
-        <v>52500</v>
+        <v>50100</v>
       </c>
       <c r="J8" s="3">
-        <v>62000</v>
+        <v>59100</v>
       </c>
       <c r="K8" s="3">
         <v>53000</v>
@@ -822,25 +822,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15300</v>
+        <v>14500</v>
       </c>
       <c r="E9" s="3">
-        <v>15600</v>
+        <v>14800</v>
       </c>
       <c r="F9" s="3">
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="G9" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="H9" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="I9" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="J9" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="K9" s="3">
         <v>8100</v>
@@ -884,25 +884,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="E10" s="3">
-        <v>28300</v>
+        <v>27000</v>
       </c>
       <c r="F10" s="3">
-        <v>47100</v>
+        <v>44900</v>
       </c>
       <c r="G10" s="3">
-        <v>49900</v>
+        <v>47600</v>
       </c>
       <c r="H10" s="3">
-        <v>57400</v>
+        <v>54700</v>
       </c>
       <c r="I10" s="3">
-        <v>44900</v>
+        <v>42800</v>
       </c>
       <c r="J10" s="3">
-        <v>52700</v>
+        <v>50200</v>
       </c>
       <c r="K10" s="3">
         <v>44900</v>
@@ -970,25 +970,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="E12" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="F12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J12" s="3">
         <v>9900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>11300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>10500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>10200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>10400</v>
       </c>
       <c r="K12" s="3">
         <v>9300</v>
@@ -1100,10 +1100,10 @@
         <v>16</v>
       </c>
       <c r="F14" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="G14" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
@@ -1239,25 +1239,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>51300</v>
+        <v>48900</v>
       </c>
       <c r="E17" s="3">
-        <v>55200</v>
+        <v>52600</v>
       </c>
       <c r="F17" s="3">
-        <v>72900</v>
+        <v>69500</v>
       </c>
       <c r="G17" s="3">
-        <v>62800</v>
+        <v>59900</v>
       </c>
       <c r="H17" s="3">
-        <v>57600</v>
+        <v>54900</v>
       </c>
       <c r="I17" s="3">
-        <v>61300</v>
+        <v>58400</v>
       </c>
       <c r="J17" s="3">
-        <v>57700</v>
+        <v>55000</v>
       </c>
       <c r="K17" s="3">
         <v>57400</v>
@@ -1301,25 +1301,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-6100</v>
+        <v>-5800</v>
       </c>
       <c r="E18" s="3">
-        <v>-11400</v>
+        <v>-10800</v>
       </c>
       <c r="F18" s="3">
-        <v>-7200</v>
+        <v>-6900</v>
       </c>
       <c r="G18" s="3">
         <v>200</v>
       </c>
       <c r="H18" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="I18" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="J18" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="K18" s="3">
         <v>-4500</v>
@@ -1387,25 +1387,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E20" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G20" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="3">
         <v>1400</v>
       </c>
       <c r="I20" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J20" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="K20" s="3">
         <v>2200</v>
@@ -1573,25 +1573,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="E23" s="3">
-        <v>-10100</v>
+        <v>-9600</v>
       </c>
       <c r="F23" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="G23" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H23" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="I23" s="3">
-        <v>-7400</v>
+        <v>-7000</v>
       </c>
       <c r="J23" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="K23" s="3">
         <v>-2300</v>
@@ -1641,19 +1641,19 @@
         <v>-300</v>
       </c>
       <c r="F24" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
       </c>
       <c r="H24" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I24" s="3">
         <v>-600</v>
       </c>
       <c r="J24" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K24" s="3">
         <v>-2400</v>
@@ -1759,25 +1759,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="E26" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="F26" s="3">
-        <v>-7800</v>
+        <v>-7500</v>
       </c>
       <c r="G26" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H26" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="I26" s="3">
-        <v>-6800</v>
+        <v>-6400</v>
       </c>
       <c r="J26" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="K26" s="3">
         <v>100</v>
@@ -1821,25 +1821,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="E27" s="3">
-        <v>-9800</v>
+        <v>-9300</v>
       </c>
       <c r="F27" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="G27" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H27" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="I27" s="3">
-        <v>-6600</v>
+        <v>-6300</v>
       </c>
       <c r="J27" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
@@ -2131,25 +2131,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="F32" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H32" s="3">
         <v>-1400</v>
       </c>
       <c r="I32" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J32" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="K32" s="3">
         <v>-2200</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="E33" s="3">
-        <v>-9800</v>
+        <v>-9300</v>
       </c>
       <c r="F33" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="G33" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H33" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="I33" s="3">
-        <v>-6600</v>
+        <v>-6300</v>
       </c>
       <c r="J33" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="E35" s="3">
-        <v>-9800</v>
+        <v>-9300</v>
       </c>
       <c r="F35" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="G35" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H35" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="I35" s="3">
-        <v>-6600</v>
+        <v>-6300</v>
       </c>
       <c r="J35" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>214900</v>
+        <v>204900</v>
       </c>
       <c r="E41" s="3">
-        <v>228400</v>
+        <v>217800</v>
       </c>
       <c r="F41" s="3">
-        <v>194500</v>
+        <v>185400</v>
       </c>
       <c r="G41" s="3">
-        <v>230200</v>
+        <v>219400</v>
       </c>
       <c r="H41" s="3">
-        <v>167800</v>
+        <v>159900</v>
       </c>
       <c r="I41" s="3">
-        <v>142200</v>
+        <v>135500</v>
       </c>
       <c r="J41" s="3">
-        <v>164600</v>
+        <v>156900</v>
       </c>
       <c r="K41" s="3">
         <v>81400</v>
@@ -2556,25 +2556,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="E42" s="3">
-        <v>16200</v>
+        <v>15400</v>
       </c>
       <c r="F42" s="3">
-        <v>59700</v>
+        <v>56900</v>
       </c>
       <c r="G42" s="3">
-        <v>34200</v>
+        <v>32600</v>
       </c>
       <c r="H42" s="3">
-        <v>158400</v>
+        <v>151000</v>
       </c>
       <c r="I42" s="3">
-        <v>233800</v>
+        <v>222900</v>
       </c>
       <c r="J42" s="3">
-        <v>223000</v>
+        <v>212600</v>
       </c>
       <c r="K42" s="3">
         <v>329000</v>
@@ -2618,25 +2618,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12400</v>
+        <v>11800</v>
       </c>
       <c r="E43" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="F43" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="G43" s="3">
-        <v>15900</v>
+        <v>15100</v>
       </c>
       <c r="H43" s="3">
-        <v>14400</v>
+        <v>13700</v>
       </c>
       <c r="I43" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="J43" s="3">
-        <v>11200</v>
+        <v>10700</v>
       </c>
       <c r="K43" s="3">
         <v>10300</v>
@@ -2680,16 +2680,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="E44" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="F44" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="G44" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>16</v>
@@ -2742,25 +2742,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="E45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F45" s="3">
         <v>14900</v>
       </c>
-      <c r="F45" s="3">
-        <v>15600</v>
-      </c>
       <c r="G45" s="3">
-        <v>17600</v>
+        <v>16800</v>
       </c>
       <c r="H45" s="3">
-        <v>17900</v>
+        <v>17100</v>
       </c>
       <c r="I45" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="J45" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="K45" s="3">
         <v>11300</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>278300</v>
+        <v>265200</v>
       </c>
       <c r="E46" s="3">
-        <v>285300</v>
+        <v>271900</v>
       </c>
       <c r="F46" s="3">
-        <v>296100</v>
+        <v>282200</v>
       </c>
       <c r="G46" s="3">
-        <v>311200</v>
+        <v>296600</v>
       </c>
       <c r="H46" s="3">
-        <v>358400</v>
+        <v>341700</v>
       </c>
       <c r="I46" s="3">
-        <v>401400</v>
+        <v>382600</v>
       </c>
       <c r="J46" s="3">
-        <v>408300</v>
+        <v>389200</v>
       </c>
       <c r="K46" s="3">
         <v>431900</v>
@@ -2866,25 +2866,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36700</v>
+        <v>34900</v>
       </c>
       <c r="E47" s="3">
-        <v>36700</v>
+        <v>35000</v>
       </c>
       <c r="F47" s="3">
-        <v>36900</v>
+        <v>35100</v>
       </c>
       <c r="G47" s="3">
-        <v>37000</v>
+        <v>35300</v>
       </c>
       <c r="H47" s="3">
-        <v>32700</v>
+        <v>31100</v>
       </c>
       <c r="I47" s="3">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="J47" s="3">
-        <v>24300</v>
+        <v>23100</v>
       </c>
       <c r="K47" s="3">
         <v>6100</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29700</v>
+        <v>28300</v>
       </c>
       <c r="E48" s="3">
-        <v>30900</v>
+        <v>29500</v>
       </c>
       <c r="F48" s="3">
-        <v>32200</v>
+        <v>30600</v>
       </c>
       <c r="G48" s="3">
-        <v>33300</v>
+        <v>31700</v>
       </c>
       <c r="H48" s="3">
-        <v>19100</v>
+        <v>18200</v>
       </c>
       <c r="I48" s="3">
-        <v>20600</v>
+        <v>19600</v>
       </c>
       <c r="J48" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="K48" s="3">
         <v>23600</v>
@@ -2990,25 +2990,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>105500</v>
+        <v>100600</v>
       </c>
       <c r="E49" s="3">
-        <v>106400</v>
+        <v>101400</v>
       </c>
       <c r="F49" s="3">
-        <v>107300</v>
+        <v>102300</v>
       </c>
       <c r="G49" s="3">
-        <v>110400</v>
+        <v>105200</v>
       </c>
       <c r="H49" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
       <c r="I49" s="3">
-        <v>15600</v>
+        <v>14900</v>
       </c>
       <c r="J49" s="3">
-        <v>15800</v>
+        <v>15100</v>
       </c>
       <c r="K49" s="3">
         <v>6100</v>
@@ -3176,25 +3176,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22400</v>
+        <v>21400</v>
       </c>
       <c r="E52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>13300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>31800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>27500</v>
+      </c>
+      <c r="I52" s="3">
         <v>15400</v>
       </c>
-      <c r="F52" s="3">
-        <v>14000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>33300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>28800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>16200</v>
-      </c>
       <c r="J52" s="3">
-        <v>10400</v>
+        <v>9900</v>
       </c>
       <c r="K52" s="3">
         <v>9800</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>472500</v>
+        <v>450400</v>
       </c>
       <c r="E54" s="3">
-        <v>474600</v>
+        <v>452400</v>
       </c>
       <c r="F54" s="3">
-        <v>486300</v>
+        <v>463600</v>
       </c>
       <c r="G54" s="3">
-        <v>525200</v>
+        <v>500600</v>
       </c>
       <c r="H54" s="3">
-        <v>454500</v>
+        <v>433200</v>
       </c>
       <c r="I54" s="3">
-        <v>479100</v>
+        <v>456700</v>
       </c>
       <c r="J54" s="3">
-        <v>480700</v>
+        <v>458200</v>
       </c>
       <c r="K54" s="3">
         <v>477500</v>
@@ -3428,7 +3428,7 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>96600</v>
+        <v>92000</v>
       </c>
       <c r="E59" s="3">
-        <v>101700</v>
+        <v>97000</v>
       </c>
       <c r="F59" s="3">
-        <v>103900</v>
+        <v>99100</v>
       </c>
       <c r="G59" s="3">
-        <v>139500</v>
+        <v>132900</v>
       </c>
       <c r="H59" s="3">
-        <v>86700</v>
+        <v>82700</v>
       </c>
       <c r="I59" s="3">
-        <v>84200</v>
+        <v>80200</v>
       </c>
       <c r="J59" s="3">
-        <v>83000</v>
+        <v>79100</v>
       </c>
       <c r="K59" s="3">
         <v>74000</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>96600</v>
+        <v>92100</v>
       </c>
       <c r="E60" s="3">
-        <v>101700</v>
+        <v>97000</v>
       </c>
       <c r="F60" s="3">
-        <v>104000</v>
+        <v>99200</v>
       </c>
       <c r="G60" s="3">
-        <v>139600</v>
+        <v>133000</v>
       </c>
       <c r="H60" s="3">
-        <v>87000</v>
+        <v>82900</v>
       </c>
       <c r="I60" s="3">
-        <v>84500</v>
+        <v>80500</v>
       </c>
       <c r="J60" s="3">
-        <v>83400</v>
+        <v>79500</v>
       </c>
       <c r="K60" s="3">
         <v>74400</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="E62" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="F62" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="G62" s="3">
-        <v>15000</v>
+        <v>14300</v>
       </c>
       <c r="H62" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="I62" s="3">
-        <v>13900</v>
+        <v>13300</v>
       </c>
       <c r="J62" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="K62" s="3">
         <v>16300</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>118300</v>
+        <v>112700</v>
       </c>
       <c r="E66" s="3">
-        <v>125100</v>
+        <v>119200</v>
       </c>
       <c r="F66" s="3">
-        <v>129100</v>
+        <v>123100</v>
       </c>
       <c r="G66" s="3">
-        <v>168600</v>
+        <v>160800</v>
       </c>
       <c r="H66" s="3">
-        <v>102900</v>
+        <v>98100</v>
       </c>
       <c r="I66" s="3">
-        <v>101600</v>
+        <v>96800</v>
       </c>
       <c r="J66" s="3">
-        <v>101600</v>
+        <v>96800</v>
       </c>
       <c r="K66" s="3">
         <v>90700</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51300</v>
+        <v>-48900</v>
       </c>
       <c r="E72" s="3">
-        <v>-46600</v>
+        <v>-44400</v>
       </c>
       <c r="F72" s="3">
-        <v>-36800</v>
+        <v>-35100</v>
       </c>
       <c r="G72" s="3">
-        <v>-32800</v>
+        <v>-31200</v>
       </c>
       <c r="H72" s="3">
-        <v>-33700</v>
+        <v>-32200</v>
       </c>
       <c r="I72" s="3">
-        <v>-42200</v>
+        <v>-40200</v>
       </c>
       <c r="J72" s="3">
-        <v>-35600</v>
+        <v>-33900</v>
       </c>
       <c r="K72" s="3">
         <v>-41600</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>354300</v>
+        <v>337700</v>
       </c>
       <c r="E76" s="3">
-        <v>349600</v>
+        <v>333200</v>
       </c>
       <c r="F76" s="3">
-        <v>357200</v>
+        <v>340500</v>
       </c>
       <c r="G76" s="3">
-        <v>356500</v>
+        <v>339900</v>
       </c>
       <c r="H76" s="3">
-        <v>351600</v>
+        <v>335100</v>
       </c>
       <c r="I76" s="3">
-        <v>377500</v>
+        <v>359900</v>
       </c>
       <c r="J76" s="3">
-        <v>379100</v>
+        <v>361400</v>
       </c>
       <c r="K76" s="3">
         <v>386700</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="E81" s="3">
-        <v>-9800</v>
+        <v>-9300</v>
       </c>
       <c r="F81" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="G81" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H81" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="I81" s="3">
-        <v>-6600</v>
+        <v>-6300</v>
       </c>
       <c r="J81" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>SY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>43000</v>
+        <v>46400</v>
       </c>
       <c r="E8" s="3">
-        <v>41800</v>
+        <v>44400</v>
       </c>
       <c r="F8" s="3">
-        <v>62600</v>
+        <v>43100</v>
       </c>
       <c r="G8" s="3">
-        <v>60100</v>
+        <v>64600</v>
       </c>
       <c r="H8" s="3">
-        <v>62900</v>
+        <v>62000</v>
       </c>
       <c r="I8" s="3">
-        <v>50100</v>
+        <v>64900</v>
       </c>
       <c r="J8" s="3">
+        <v>51600</v>
+      </c>
+      <c r="K8" s="3">
         <v>59100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>53000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>28800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>55200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>43500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="E9" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="F9" s="3">
-        <v>17700</v>
+        <v>15300</v>
       </c>
       <c r="G9" s="3">
-        <v>12500</v>
+        <v>18300</v>
       </c>
       <c r="H9" s="3">
-        <v>8200</v>
+        <v>12900</v>
       </c>
       <c r="I9" s="3">
-        <v>7300</v>
+        <v>8400</v>
       </c>
       <c r="J9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K9" s="3">
         <v>8900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>28500</v>
+        <v>32900</v>
       </c>
       <c r="E10" s="3">
-        <v>27000</v>
+        <v>29400</v>
       </c>
       <c r="F10" s="3">
+        <v>27800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>46300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>49100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>56400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>50200</v>
+      </c>
+      <c r="L10" s="3">
         <v>44900</v>
       </c>
-      <c r="G10" s="3">
-        <v>47600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>54700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>42800</v>
-      </c>
-      <c r="J10" s="3">
-        <v>50200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>44900</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>40900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>46100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>20200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>14200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8800</v>
+        <v>7500</v>
       </c>
       <c r="E12" s="3">
-        <v>11000</v>
+        <v>9100</v>
       </c>
       <c r="F12" s="3">
-        <v>9400</v>
+        <v>11300</v>
       </c>
       <c r="G12" s="3">
-        <v>10700</v>
+        <v>9700</v>
       </c>
       <c r="H12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J12" s="3">
         <v>10000</v>
       </c>
-      <c r="I12" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,47 +1105,50 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
+      <c r="D14" s="3">
+        <v>1100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="3">
-        <v>9200</v>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
+        <v>9500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>16</v>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1141,8 +1161,8 @@
       <c r="S14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>48900</v>
+        <v>48600</v>
       </c>
       <c r="E17" s="3">
-        <v>52600</v>
+        <v>50400</v>
       </c>
       <c r="F17" s="3">
-        <v>69500</v>
+        <v>54300</v>
       </c>
       <c r="G17" s="3">
-        <v>59900</v>
+        <v>71700</v>
       </c>
       <c r="H17" s="3">
-        <v>54900</v>
+        <v>61800</v>
       </c>
       <c r="I17" s="3">
-        <v>58400</v>
+        <v>56600</v>
       </c>
       <c r="J17" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K17" s="3">
         <v>55000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>49800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>26700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>20700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-5800</v>
+        <v>-2200</v>
       </c>
       <c r="E18" s="3">
-        <v>-10800</v>
+        <v>-6000</v>
       </c>
       <c r="F18" s="3">
-        <v>-6900</v>
+        <v>-11200</v>
       </c>
       <c r="G18" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>8000</v>
-      </c>
       <c r="I18" s="3">
-        <v>-8400</v>
+        <v>8300</v>
       </c>
       <c r="J18" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K18" s="3">
         <v>4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,70 +1414,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
-        <v>800</v>
-      </c>
       <c r="G20" s="3">
+        <v>900</v>
+      </c>
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
-        <v>1300</v>
-      </c>
       <c r="J20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K20" s="3">
         <v>2900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>2200</v>
       </c>
       <c r="L20" s="3">
         <v>2200</v>
       </c>
       <c r="M20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,132 +1607,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4500</v>
+        <v>-2100</v>
       </c>
       <c r="E23" s="3">
-        <v>-9600</v>
+        <v>-4700</v>
       </c>
       <c r="F23" s="3">
-        <v>-6000</v>
+        <v>-9900</v>
       </c>
       <c r="G23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>7100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>700</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="O23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>6100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>8100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="U23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
-        <v>9400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>7100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>15200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>5300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>6100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>8100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>6000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1400</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
-        <v>1400</v>
-      </c>
       <c r="G24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
-        <v>1500</v>
-      </c>
       <c r="I24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4500</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>-9400</v>
+        <v>-4700</v>
       </c>
       <c r="F26" s="3">
-        <v>-7500</v>
+        <v>-9700</v>
       </c>
       <c r="G26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
-        <v>7800</v>
-      </c>
       <c r="I26" s="3">
-        <v>-6400</v>
+        <v>8100</v>
       </c>
       <c r="J26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K26" s="3">
         <v>5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4500</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
-        <v>-9300</v>
+        <v>-4600</v>
       </c>
       <c r="F27" s="3">
-        <v>-3900</v>
+        <v>-9600</v>
       </c>
       <c r="G27" s="3">
-        <v>900</v>
+        <v>-4000</v>
       </c>
       <c r="H27" s="3">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="I27" s="3">
-        <v>-6300</v>
+        <v>8300</v>
       </c>
       <c r="J27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K27" s="3">
         <v>5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-800</v>
-      </c>
       <c r="G32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1300</v>
-      </c>
       <c r="J32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-2200</v>
       </c>
       <c r="L32" s="3">
         <v>-2200</v>
       </c>
       <c r="M32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4500</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
-        <v>-9300</v>
+        <v>-4600</v>
       </c>
       <c r="F33" s="3">
-        <v>-3900</v>
+        <v>-9600</v>
       </c>
       <c r="G33" s="3">
-        <v>900</v>
+        <v>-4000</v>
       </c>
       <c r="H33" s="3">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="I33" s="3">
-        <v>-6300</v>
+        <v>8300</v>
       </c>
       <c r="J33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K33" s="3">
         <v>5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4500</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
-        <v>-9300</v>
+        <v>-4600</v>
       </c>
       <c r="F35" s="3">
-        <v>-3900</v>
+        <v>-9600</v>
       </c>
       <c r="G35" s="3">
-        <v>900</v>
+        <v>-4000</v>
       </c>
       <c r="H35" s="3">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="I35" s="3">
-        <v>-6300</v>
+        <v>8300</v>
       </c>
       <c r="J35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K35" s="3">
         <v>5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2574,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>204900</v>
+        <v>102500</v>
       </c>
       <c r="E41" s="3">
-        <v>217800</v>
+        <v>211400</v>
       </c>
       <c r="F41" s="3">
-        <v>185400</v>
+        <v>224700</v>
       </c>
       <c r="G41" s="3">
-        <v>219400</v>
+        <v>191300</v>
       </c>
       <c r="H41" s="3">
-        <v>159900</v>
+        <v>226400</v>
       </c>
       <c r="I41" s="3">
-        <v>135500</v>
+        <v>165000</v>
       </c>
       <c r="J41" s="3">
+        <v>139800</v>
+      </c>
+      <c r="K41" s="3">
         <v>156900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>81400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>232000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>144600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>136200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>94000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>169200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>108000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2550,56 +2637,59 @@
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15400</v>
+        <v>130500</v>
       </c>
       <c r="E42" s="3">
-        <v>15400</v>
+        <v>15900</v>
       </c>
       <c r="F42" s="3">
-        <v>56900</v>
+        <v>15900</v>
       </c>
       <c r="G42" s="3">
-        <v>32600</v>
+        <v>58700</v>
       </c>
       <c r="H42" s="3">
-        <v>151000</v>
+        <v>33600</v>
       </c>
       <c r="I42" s="3">
-        <v>222900</v>
+        <v>155800</v>
       </c>
       <c r="J42" s="3">
+        <v>230000</v>
+      </c>
+      <c r="K42" s="3">
         <v>212600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>329000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>190600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>288200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>299200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>331800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>238000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>85300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2612,56 +2702,59 @@
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11800</v>
+        <v>12900</v>
       </c>
       <c r="E43" s="3">
         <v>12200</v>
       </c>
       <c r="F43" s="3">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="G43" s="3">
-        <v>15100</v>
+        <v>12600</v>
       </c>
       <c r="H43" s="3">
-        <v>13700</v>
+        <v>15600</v>
       </c>
       <c r="I43" s="3">
-        <v>12000</v>
+        <v>14100</v>
       </c>
       <c r="J43" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K43" s="3">
         <v>10700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>7000</v>
       </c>
       <c r="O43" s="3">
         <v>7000</v>
       </c>
       <c r="P43" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2674,25 +2767,28 @@
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13200</v>
+        <v>15100</v>
       </c>
       <c r="E44" s="3">
-        <v>12400</v>
+        <v>13600</v>
       </c>
       <c r="F44" s="3">
         <v>12800</v>
       </c>
       <c r="G44" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>16</v>
+        <v>13200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>13100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>16</v>
@@ -2709,8 +2805,8 @@
       <c r="M44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2736,56 +2832,59 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20000</v>
+        <v>23800</v>
       </c>
       <c r="E45" s="3">
-        <v>14200</v>
+        <v>20600</v>
       </c>
       <c r="F45" s="3">
-        <v>14900</v>
+        <v>14600</v>
       </c>
       <c r="G45" s="3">
-        <v>16800</v>
+        <v>15400</v>
       </c>
       <c r="H45" s="3">
-        <v>17100</v>
+        <v>17300</v>
       </c>
       <c r="I45" s="3">
-        <v>12200</v>
+        <v>17700</v>
       </c>
       <c r="J45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K45" s="3">
         <v>9100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9600</v>
-      </c>
-      <c r="M45" s="3">
-        <v>13000</v>
       </c>
       <c r="N45" s="3">
         <v>13000</v>
       </c>
       <c r="O45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="P45" s="3">
         <v>13500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2798,56 +2897,59 @@
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>265200</v>
+        <v>284800</v>
       </c>
       <c r="E46" s="3">
-        <v>271900</v>
+        <v>273700</v>
       </c>
       <c r="F46" s="3">
-        <v>282200</v>
+        <v>280600</v>
       </c>
       <c r="G46" s="3">
-        <v>296600</v>
+        <v>291200</v>
       </c>
       <c r="H46" s="3">
-        <v>341700</v>
+        <v>306000</v>
       </c>
       <c r="I46" s="3">
-        <v>382600</v>
+        <v>352500</v>
       </c>
       <c r="J46" s="3">
+        <v>394800</v>
+      </c>
+      <c r="K46" s="3">
         <v>389200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>431900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>441900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>453900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>455300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>446200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>423400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>206300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2860,56 +2962,59 @@
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34900</v>
+        <v>33600</v>
       </c>
       <c r="E47" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="F47" s="3">
-        <v>35100</v>
+        <v>36100</v>
       </c>
       <c r="G47" s="3">
-        <v>35300</v>
+        <v>36300</v>
       </c>
       <c r="H47" s="3">
-        <v>31100</v>
+        <v>36400</v>
       </c>
       <c r="I47" s="3">
-        <v>24200</v>
+        <v>32100</v>
       </c>
       <c r="J47" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K47" s="3">
         <v>23100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2922,56 +3027,59 @@
       <c r="V47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28300</v>
+        <v>26800</v>
       </c>
       <c r="E48" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="F48" s="3">
-        <v>30600</v>
+        <v>30400</v>
       </c>
       <c r="G48" s="3">
-        <v>31700</v>
+        <v>31600</v>
       </c>
       <c r="H48" s="3">
-        <v>18200</v>
+        <v>32700</v>
       </c>
       <c r="I48" s="3">
-        <v>19600</v>
+        <v>18800</v>
       </c>
       <c r="J48" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K48" s="3">
         <v>20900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>26600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2984,44 +3092,47 @@
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100600</v>
+        <v>102900</v>
       </c>
       <c r="E49" s="3">
-        <v>101400</v>
+        <v>103800</v>
       </c>
       <c r="F49" s="3">
-        <v>102300</v>
+        <v>104600</v>
       </c>
       <c r="G49" s="3">
-        <v>105200</v>
+        <v>105500</v>
       </c>
       <c r="H49" s="3">
-        <v>14800</v>
+        <v>108600</v>
       </c>
       <c r="I49" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="J49" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K49" s="3">
         <v>15100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3037,8 +3148,8 @@
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,56 +3287,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21400</v>
+        <v>28200</v>
       </c>
       <c r="E52" s="3">
-        <v>14600</v>
+        <v>22100</v>
       </c>
       <c r="F52" s="3">
-        <v>13300</v>
+        <v>15100</v>
       </c>
       <c r="G52" s="3">
-        <v>31800</v>
+        <v>13700</v>
       </c>
       <c r="H52" s="3">
-        <v>27500</v>
+        <v>32800</v>
       </c>
       <c r="I52" s="3">
-        <v>15400</v>
+        <v>28300</v>
       </c>
       <c r="J52" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K52" s="3">
         <v>9900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3417,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>450400</v>
+        <v>476400</v>
       </c>
       <c r="E54" s="3">
-        <v>452400</v>
+        <v>464700</v>
       </c>
       <c r="F54" s="3">
-        <v>463600</v>
+        <v>466800</v>
       </c>
       <c r="G54" s="3">
-        <v>500600</v>
+        <v>478300</v>
       </c>
       <c r="H54" s="3">
-        <v>433200</v>
+        <v>516500</v>
       </c>
       <c r="I54" s="3">
-        <v>456700</v>
+        <v>447000</v>
       </c>
       <c r="J54" s="3">
+        <v>471200</v>
+      </c>
+      <c r="K54" s="3">
         <v>458200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>477500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>486800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>503400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>497300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>487300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>462900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>242700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3416,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -3431,28 +3562,28 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>16</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>16</v>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,56 +3662,59 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>92000</v>
+        <v>98600</v>
       </c>
       <c r="E59" s="3">
-        <v>97000</v>
+        <v>95000</v>
       </c>
       <c r="F59" s="3">
-        <v>99100</v>
+        <v>100000</v>
       </c>
       <c r="G59" s="3">
-        <v>132900</v>
+        <v>102200</v>
       </c>
       <c r="H59" s="3">
-        <v>82700</v>
+        <v>137200</v>
       </c>
       <c r="I59" s="3">
-        <v>80200</v>
+        <v>85300</v>
       </c>
       <c r="J59" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K59" s="3">
         <v>79100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>74000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>73200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>71400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>68700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>61900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>57400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3590,56 +3727,59 @@
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92100</v>
+        <v>98600</v>
       </c>
       <c r="E60" s="3">
-        <v>97000</v>
+        <v>95000</v>
       </c>
       <c r="F60" s="3">
-        <v>99200</v>
+        <v>100000</v>
       </c>
       <c r="G60" s="3">
-        <v>133000</v>
+        <v>102300</v>
       </c>
       <c r="H60" s="3">
-        <v>82900</v>
+        <v>137300</v>
       </c>
       <c r="I60" s="3">
-        <v>80500</v>
+        <v>85600</v>
       </c>
       <c r="J60" s="3">
+        <v>83100</v>
+      </c>
+      <c r="K60" s="3">
         <v>79500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>74400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>73600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>64500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>71800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>69200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>62600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>57400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,56 +3857,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10900</v>
+        <v>9500</v>
       </c>
       <c r="E62" s="3">
-        <v>12400</v>
+        <v>11200</v>
       </c>
       <c r="F62" s="3">
-        <v>14000</v>
+        <v>12800</v>
       </c>
       <c r="G62" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="H62" s="3">
-        <v>12300</v>
+        <v>14700</v>
       </c>
       <c r="I62" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="J62" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K62" s="3">
         <v>14100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4117,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>112700</v>
+        <v>118200</v>
       </c>
       <c r="E66" s="3">
-        <v>119200</v>
+        <v>116300</v>
       </c>
       <c r="F66" s="3">
-        <v>123100</v>
+        <v>123000</v>
       </c>
       <c r="G66" s="3">
-        <v>160800</v>
+        <v>127000</v>
       </c>
       <c r="H66" s="3">
-        <v>98100</v>
+        <v>165900</v>
       </c>
       <c r="I66" s="3">
+        <v>101200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>99900</v>
+      </c>
+      <c r="K66" s="3">
         <v>96800</v>
       </c>
-      <c r="J66" s="3">
-        <v>96800</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>84500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>89200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>83600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>79300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4217,11 +4385,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>218000</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4467,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-48900</v>
+        <v>-50100</v>
       </c>
       <c r="E72" s="3">
-        <v>-44400</v>
+        <v>-50400</v>
       </c>
       <c r="F72" s="3">
-        <v>-35100</v>
+        <v>-45800</v>
       </c>
       <c r="G72" s="3">
-        <v>-31200</v>
+        <v>-36200</v>
       </c>
       <c r="H72" s="3">
         <v>-32200</v>
       </c>
       <c r="I72" s="3">
-        <v>-40200</v>
+        <v>-33200</v>
       </c>
       <c r="J72" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-33900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-41600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-41700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-45000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-49100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-53500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-57700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4727,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>337700</v>
+        <v>358200</v>
       </c>
       <c r="E76" s="3">
-        <v>333200</v>
+        <v>348400</v>
       </c>
       <c r="F76" s="3">
-        <v>340500</v>
+        <v>343800</v>
       </c>
       <c r="G76" s="3">
-        <v>339900</v>
+        <v>351300</v>
       </c>
       <c r="H76" s="3">
-        <v>335100</v>
+        <v>350700</v>
       </c>
       <c r="I76" s="3">
-        <v>359900</v>
+        <v>345800</v>
       </c>
       <c r="J76" s="3">
+        <v>371300</v>
+      </c>
+      <c r="K76" s="3">
         <v>361400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>386700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>395500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>418900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>406900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>398100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>379300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-54600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4500</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
-        <v>-9300</v>
+        <v>-4600</v>
       </c>
       <c r="F81" s="3">
-        <v>-3900</v>
+        <v>-9600</v>
       </c>
       <c r="G81" s="3">
-        <v>900</v>
+        <v>-4000</v>
       </c>
       <c r="H81" s="3">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="I81" s="3">
-        <v>-6300</v>
+        <v>8300</v>
       </c>
       <c r="J81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K81" s="3">
         <v>5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5407,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5255,8 +5472,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6042,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5861,8 +6107,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6172,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>SY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>46400</v>
+        <v>46200</v>
       </c>
       <c r="E8" s="3">
-        <v>44400</v>
+        <v>46000</v>
       </c>
       <c r="F8" s="3">
-        <v>43100</v>
+        <v>43900</v>
       </c>
       <c r="G8" s="3">
-        <v>64600</v>
+        <v>42700</v>
       </c>
       <c r="H8" s="3">
-        <v>62000</v>
+        <v>63900</v>
       </c>
       <c r="I8" s="3">
-        <v>64900</v>
+        <v>61300</v>
       </c>
       <c r="J8" s="3">
+        <v>64200</v>
+      </c>
+      <c r="K8" s="3">
         <v>51600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>59100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>53000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>48400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>55200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>46600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>43500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>16300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="E9" s="3">
-        <v>15000</v>
+        <v>13400</v>
       </c>
       <c r="F9" s="3">
-        <v>15300</v>
+        <v>14900</v>
       </c>
       <c r="G9" s="3">
-        <v>18300</v>
+        <v>15200</v>
       </c>
       <c r="H9" s="3">
-        <v>12900</v>
+        <v>18100</v>
       </c>
       <c r="I9" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J9" s="3">
         <v>8400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>32900</v>
+        <v>33700</v>
       </c>
       <c r="E10" s="3">
-        <v>29400</v>
+        <v>32600</v>
       </c>
       <c r="F10" s="3">
-        <v>27800</v>
+        <v>29100</v>
       </c>
       <c r="G10" s="3">
-        <v>46300</v>
+        <v>27500</v>
       </c>
       <c r="H10" s="3">
-        <v>49100</v>
+        <v>45800</v>
       </c>
       <c r="I10" s="3">
-        <v>56400</v>
+        <v>48600</v>
       </c>
       <c r="J10" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K10" s="3">
         <v>44100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>50200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>40900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>46100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>22000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>20200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>14200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7500</v>
+        <v>5800</v>
       </c>
       <c r="E12" s="3">
-        <v>9100</v>
+        <v>7400</v>
       </c>
       <c r="F12" s="3">
-        <v>11300</v>
+        <v>9000</v>
       </c>
       <c r="G12" s="3">
-        <v>9700</v>
+        <v>11200</v>
       </c>
       <c r="H12" s="3">
-        <v>11100</v>
+        <v>9600</v>
       </c>
       <c r="I12" s="3">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="J12" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K12" s="3">
         <v>10000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,50 +1124,53 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="3">
-        <v>9500</v>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H14" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
+        <v>9400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>16</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1164,8 +1183,8 @@
       <c r="T14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>48600</v>
+        <v>42800</v>
       </c>
       <c r="E17" s="3">
-        <v>50400</v>
+        <v>48100</v>
       </c>
       <c r="F17" s="3">
-        <v>54300</v>
+        <v>49900</v>
       </c>
       <c r="G17" s="3">
-        <v>71700</v>
+        <v>53800</v>
       </c>
       <c r="H17" s="3">
-        <v>61800</v>
+        <v>70900</v>
       </c>
       <c r="I17" s="3">
-        <v>56600</v>
+        <v>61100</v>
       </c>
       <c r="J17" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K17" s="3">
         <v>60300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>49800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>43500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>41900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>25600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>26700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6000</v>
       </c>
-      <c r="F18" s="3">
-        <v>-11200</v>
-      </c>
       <c r="G18" s="3">
-        <v>-7100</v>
+        <v>-11100</v>
       </c>
       <c r="H18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>8300</v>
-      </c>
       <c r="J18" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1415,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1400</v>
       </c>
       <c r="J20" s="3">
         <v>1400</v>
       </c>
       <c r="K20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L20" s="3">
         <v>2900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>2200</v>
       </c>
       <c r="M20" s="3">
         <v>2200</v>
       </c>
       <c r="N20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1545,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-4700</v>
-      </c>
       <c r="F23" s="3">
-        <v>-9900</v>
+        <v>-4600</v>
       </c>
       <c r="G23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H23" s="3">
         <v>-6200</v>
       </c>
-      <c r="H23" s="3">
-        <v>1500</v>
-      </c>
       <c r="I23" s="3">
-        <v>9700</v>
+        <v>1400</v>
       </c>
       <c r="J23" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M24" s="3">
         <v>-2400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>600</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="N24" s="3">
+        <v>400</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>500</v>
+      </c>
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>4500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-4700</v>
-      </c>
       <c r="F26" s="3">
-        <v>-9700</v>
+        <v>-4600</v>
       </c>
       <c r="G26" s="3">
-        <v>-7700</v>
+        <v>-9600</v>
       </c>
       <c r="H26" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
-        <v>8100</v>
-      </c>
       <c r="J26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-9600</v>
-      </c>
       <c r="G27" s="3">
-        <v>-4000</v>
+        <v>-9500</v>
       </c>
       <c r="H27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
-        <v>8300</v>
-      </c>
       <c r="J27" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1400</v>
       </c>
       <c r="J32" s="3">
         <v>-1400</v>
       </c>
       <c r="K32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-2900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-2200</v>
       </c>
       <c r="M32" s="3">
         <v>-2200</v>
       </c>
       <c r="N32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-9600</v>
-      </c>
       <c r="G33" s="3">
-        <v>-4000</v>
+        <v>-9500</v>
       </c>
       <c r="H33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
-        <v>8300</v>
-      </c>
       <c r="J33" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-9600</v>
-      </c>
       <c r="G35" s="3">
-        <v>-4000</v>
+        <v>-9500</v>
       </c>
       <c r="H35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
-        <v>8300</v>
-      </c>
       <c r="J35" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,59 +2660,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>102500</v>
+        <v>98700</v>
       </c>
       <c r="E41" s="3">
-        <v>211400</v>
+        <v>101400</v>
       </c>
       <c r="F41" s="3">
-        <v>224700</v>
+        <v>209200</v>
       </c>
       <c r="G41" s="3">
-        <v>191300</v>
+        <v>222400</v>
       </c>
       <c r="H41" s="3">
-        <v>226400</v>
+        <v>189300</v>
       </c>
       <c r="I41" s="3">
-        <v>165000</v>
+        <v>224100</v>
       </c>
       <c r="J41" s="3">
+        <v>163300</v>
+      </c>
+      <c r="K41" s="3">
         <v>139800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>156900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>81400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>232000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>144600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>136200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>94000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>169200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>108000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2640,59 +2726,62 @@
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>130500</v>
+        <v>124500</v>
       </c>
       <c r="E42" s="3">
-        <v>15900</v>
+        <v>129200</v>
       </c>
       <c r="F42" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="G42" s="3">
-        <v>58700</v>
+        <v>15800</v>
       </c>
       <c r="H42" s="3">
-        <v>33600</v>
+        <v>58100</v>
       </c>
       <c r="I42" s="3">
-        <v>155800</v>
+        <v>33300</v>
       </c>
       <c r="J42" s="3">
+        <v>154200</v>
+      </c>
+      <c r="K42" s="3">
         <v>230000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>212600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>329000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>190600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>288200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>299200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>331800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>238000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>85300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2705,59 +2794,62 @@
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12900</v>
+        <v>12000</v>
       </c>
       <c r="E43" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="F43" s="3">
-        <v>12600</v>
+        <v>12100</v>
       </c>
       <c r="G43" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="H43" s="3">
-        <v>15600</v>
+        <v>12500</v>
       </c>
       <c r="I43" s="3">
-        <v>14100</v>
+        <v>15500</v>
       </c>
       <c r="J43" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K43" s="3">
         <v>12400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>7000</v>
       </c>
       <c r="P43" s="3">
         <v>7000</v>
       </c>
       <c r="Q43" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R43" s="3">
         <v>4300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2770,28 +2862,31 @@
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15100</v>
+        <v>17100</v>
       </c>
       <c r="E44" s="3">
-        <v>13600</v>
+        <v>15000</v>
       </c>
       <c r="F44" s="3">
-        <v>12800</v>
+        <v>13400</v>
       </c>
       <c r="G44" s="3">
-        <v>13200</v>
+        <v>12700</v>
       </c>
       <c r="H44" s="3">
         <v>13100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>16</v>
+      <c r="I44" s="3">
+        <v>13000</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>16</v>
@@ -2808,8 +2903,8 @@
       <c r="N44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2835,59 +2930,62 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23800</v>
+        <v>20200</v>
       </c>
       <c r="E45" s="3">
-        <v>20600</v>
+        <v>23600</v>
       </c>
       <c r="F45" s="3">
-        <v>14600</v>
+        <v>20400</v>
       </c>
       <c r="G45" s="3">
-        <v>15400</v>
+        <v>14500</v>
       </c>
       <c r="H45" s="3">
-        <v>17300</v>
+        <v>15200</v>
       </c>
       <c r="I45" s="3">
-        <v>17700</v>
+        <v>17100</v>
       </c>
       <c r="J45" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K45" s="3">
         <v>12600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>13000</v>
       </c>
       <c r="O45" s="3">
         <v>13000</v>
       </c>
       <c r="P45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="Q45" s="3">
         <v>13500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8700</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2900,59 +2998,62 @@
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>284800</v>
+        <v>272500</v>
       </c>
       <c r="E46" s="3">
-        <v>273700</v>
+        <v>281900</v>
       </c>
       <c r="F46" s="3">
-        <v>280600</v>
+        <v>270900</v>
       </c>
       <c r="G46" s="3">
-        <v>291200</v>
+        <v>277700</v>
       </c>
       <c r="H46" s="3">
-        <v>306000</v>
+        <v>288200</v>
       </c>
       <c r="I46" s="3">
-        <v>352500</v>
+        <v>302900</v>
       </c>
       <c r="J46" s="3">
+        <v>348900</v>
+      </c>
+      <c r="K46" s="3">
         <v>394800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>389200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>431900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>441900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>453900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>455300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>446200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>423400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>206300</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2965,59 +3066,62 @@
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>33600</v>
+        <v>32400</v>
       </c>
       <c r="E47" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>35700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>35700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>35900</v>
+      </c>
+      <c r="I47" s="3">
         <v>36000</v>
       </c>
-      <c r="F47" s="3">
-        <v>36100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>36300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>36400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>32100</v>
-      </c>
       <c r="J47" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K47" s="3">
         <v>25000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3030,59 +3134,62 @@
       <c r="W47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26800</v>
+        <v>25500</v>
       </c>
       <c r="E48" s="3">
-        <v>29200</v>
+        <v>26600</v>
       </c>
       <c r="F48" s="3">
-        <v>30400</v>
+        <v>28900</v>
       </c>
       <c r="G48" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="H48" s="3">
-        <v>32700</v>
+        <v>31300</v>
       </c>
       <c r="I48" s="3">
-        <v>18800</v>
+        <v>32400</v>
       </c>
       <c r="J48" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K48" s="3">
         <v>20200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>26600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3095,47 +3202,50 @@
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>102900</v>
+        <v>100900</v>
       </c>
       <c r="E49" s="3">
-        <v>103800</v>
+        <v>101800</v>
       </c>
       <c r="F49" s="3">
-        <v>104600</v>
+        <v>102700</v>
       </c>
       <c r="G49" s="3">
-        <v>105500</v>
+        <v>103600</v>
       </c>
       <c r="H49" s="3">
-        <v>108600</v>
+        <v>104400</v>
       </c>
       <c r="I49" s="3">
-        <v>15200</v>
+        <v>107500</v>
       </c>
       <c r="J49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K49" s="3">
         <v>15300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3151,8 +3261,8 @@
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,59 +3406,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28200</v>
+        <v>23300</v>
       </c>
       <c r="E52" s="3">
-        <v>22100</v>
+        <v>27900</v>
       </c>
       <c r="F52" s="3">
-        <v>15100</v>
+        <v>21800</v>
       </c>
       <c r="G52" s="3">
-        <v>13700</v>
+        <v>15000</v>
       </c>
       <c r="H52" s="3">
-        <v>32800</v>
+        <v>13600</v>
       </c>
       <c r="I52" s="3">
-        <v>28300</v>
+        <v>32400</v>
       </c>
       <c r="J52" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K52" s="3">
         <v>15900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,59 +3542,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>476400</v>
+        <v>454600</v>
       </c>
       <c r="E54" s="3">
-        <v>464700</v>
+        <v>471500</v>
       </c>
       <c r="F54" s="3">
-        <v>466800</v>
+        <v>460000</v>
       </c>
       <c r="G54" s="3">
-        <v>478300</v>
+        <v>462000</v>
       </c>
       <c r="H54" s="3">
-        <v>516500</v>
+        <v>473400</v>
       </c>
       <c r="I54" s="3">
-        <v>447000</v>
+        <v>511200</v>
       </c>
       <c r="J54" s="3">
+        <v>442400</v>
+      </c>
+      <c r="K54" s="3">
         <v>471200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>458200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>477500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>486800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>503400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>497300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>487300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>462900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>242700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,13 +3664,14 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3550,13 +3680,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -3565,28 +3695,28 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>16</v>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>16</v>
@@ -3600,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,59 +3798,62 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>98600</v>
+        <v>75600</v>
       </c>
       <c r="E59" s="3">
-        <v>95000</v>
+        <v>97600</v>
       </c>
       <c r="F59" s="3">
-        <v>100000</v>
+        <v>94000</v>
       </c>
       <c r="G59" s="3">
-        <v>102200</v>
+        <v>99000</v>
       </c>
       <c r="H59" s="3">
-        <v>137200</v>
+        <v>101200</v>
       </c>
       <c r="I59" s="3">
-        <v>85300</v>
+        <v>135800</v>
       </c>
       <c r="J59" s="3">
+        <v>84400</v>
+      </c>
+      <c r="K59" s="3">
         <v>82800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>79100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>74000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>73200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>71400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>68700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>61900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>57400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3730,59 +3866,62 @@
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>98600</v>
+        <v>76500</v>
       </c>
       <c r="E60" s="3">
-        <v>95000</v>
+        <v>97600</v>
       </c>
       <c r="F60" s="3">
-        <v>100000</v>
+        <v>94000</v>
       </c>
       <c r="G60" s="3">
-        <v>102300</v>
+        <v>99000</v>
       </c>
       <c r="H60" s="3">
-        <v>137300</v>
+        <v>101300</v>
       </c>
       <c r="I60" s="3">
-        <v>85600</v>
+        <v>135900</v>
       </c>
       <c r="J60" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K60" s="3">
         <v>83100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>74400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>73600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>64500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>71800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>69200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>62600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>57400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3795,8 +3934,11 @@
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,59 +4002,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9500</v>
+        <v>7400</v>
       </c>
       <c r="E62" s="3">
-        <v>11200</v>
+        <v>9400</v>
       </c>
       <c r="F62" s="3">
-        <v>12800</v>
+        <v>11100</v>
       </c>
       <c r="G62" s="3">
-        <v>14500</v>
+        <v>12700</v>
       </c>
       <c r="H62" s="3">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="I62" s="3">
-        <v>12700</v>
+        <v>14600</v>
       </c>
       <c r="J62" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K62" s="3">
         <v>13700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21900</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,59 +4274,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>118200</v>
+        <v>99500</v>
       </c>
       <c r="E66" s="3">
-        <v>116300</v>
+        <v>117000</v>
       </c>
       <c r="F66" s="3">
-        <v>123000</v>
+        <v>115100</v>
       </c>
       <c r="G66" s="3">
-        <v>127000</v>
+        <v>121700</v>
       </c>
       <c r="H66" s="3">
-        <v>165900</v>
+        <v>125700</v>
       </c>
       <c r="I66" s="3">
-        <v>101200</v>
+        <v>164200</v>
       </c>
       <c r="J66" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K66" s="3">
         <v>99900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>96800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>91300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>84500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>83600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>79300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4185,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4388,11 +4555,11 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>218000</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,59 +4640,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-50100</v>
+        <v>-45100</v>
       </c>
       <c r="E72" s="3">
-        <v>-50400</v>
+        <v>-49600</v>
       </c>
       <c r="F72" s="3">
-        <v>-45800</v>
+        <v>-49900</v>
       </c>
       <c r="G72" s="3">
-        <v>-36200</v>
+        <v>-45300</v>
       </c>
       <c r="H72" s="3">
-        <v>-32200</v>
+        <v>-35800</v>
       </c>
       <c r="I72" s="3">
-        <v>-33200</v>
+        <v>-31900</v>
       </c>
       <c r="J72" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-41500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-41600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-41700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-45000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-53500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-57700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4535,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,59 +4912,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>358200</v>
+        <v>355100</v>
       </c>
       <c r="E76" s="3">
-        <v>348400</v>
+        <v>354500</v>
       </c>
       <c r="F76" s="3">
-        <v>343800</v>
+        <v>344900</v>
       </c>
       <c r="G76" s="3">
-        <v>351300</v>
+        <v>340300</v>
       </c>
       <c r="H76" s="3">
-        <v>350700</v>
+        <v>347700</v>
       </c>
       <c r="I76" s="3">
-        <v>345800</v>
+        <v>347100</v>
       </c>
       <c r="J76" s="3">
+        <v>342300</v>
+      </c>
+      <c r="K76" s="3">
         <v>371300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>361400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>386700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>395500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>418900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>406900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>398100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>379300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-54600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4795,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-9600</v>
-      </c>
       <c r="G81" s="3">
-        <v>-4000</v>
+        <v>-9500</v>
       </c>
       <c r="H81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
-        <v>8300</v>
-      </c>
       <c r="J81" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5475,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6110,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6238,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>SY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,334 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>46200</v>
+        <v>56800</v>
       </c>
       <c r="E8" s="3">
-        <v>46000</v>
+        <v>42700</v>
       </c>
       <c r="F8" s="3">
-        <v>43900</v>
+        <v>44800</v>
       </c>
       <c r="G8" s="3">
-        <v>42700</v>
+        <v>44500</v>
       </c>
       <c r="H8" s="3">
-        <v>63900</v>
+        <v>42600</v>
       </c>
       <c r="I8" s="3">
+        <v>41400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K8" s="3">
         <v>61300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>64200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>51600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>59100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>53000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>48400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>28800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>55200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>46600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>43500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>31400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>26600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>23600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>21800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>16300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12500</v>
+        <v>20700</v>
       </c>
       <c r="E9" s="3">
-        <v>13400</v>
+        <v>15700</v>
       </c>
       <c r="F9" s="3">
-        <v>14900</v>
+        <v>12200</v>
       </c>
       <c r="G9" s="3">
-        <v>15200</v>
+        <v>13000</v>
       </c>
       <c r="H9" s="3">
-        <v>18100</v>
+        <v>14400</v>
       </c>
       <c r="I9" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K9" s="3">
         <v>12700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>8900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>8100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>6800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>9000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>8300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>7600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>5500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33700</v>
+        <v>36100</v>
       </c>
       <c r="E10" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F10" s="3">
         <v>32600</v>
       </c>
-      <c r="F10" s="3">
-        <v>29100</v>
-      </c>
       <c r="G10" s="3">
-        <v>27500</v>
+        <v>31600</v>
       </c>
       <c r="H10" s="3">
-        <v>45800</v>
+        <v>28200</v>
       </c>
       <c r="I10" s="3">
+        <v>26700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K10" s="3">
         <v>48600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>55900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>44100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>50200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>44900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>40900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>22000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>46100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>38300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>35900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>25800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>22000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>20200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>18800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>14200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1017,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5800</v>
+        <v>7200</v>
       </c>
       <c r="E12" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="F12" s="3">
-        <v>9000</v>
+        <v>5700</v>
       </c>
       <c r="G12" s="3">
-        <v>11200</v>
+        <v>7200</v>
       </c>
       <c r="H12" s="3">
-        <v>9600</v>
+        <v>8700</v>
       </c>
       <c r="I12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K12" s="3">
         <v>11000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>10300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>10000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>9900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>9300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>6800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>8400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>6100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7900</v>
-      </c>
-      <c r="S12" s="3">
-        <v>4800</v>
-      </c>
-      <c r="T12" s="3">
-        <v>3800</v>
       </c>
       <c r="U12" s="3">
         <v>4800</v>
       </c>
       <c r="V12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="X12" s="3">
         <v>3000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,56 +1161,62 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3">
-        <v>9400</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K14" s="3">
         <v>2500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1186,17 +1226,23 @@
       <c r="U14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>42800</v>
+        <v>59600</v>
       </c>
       <c r="E17" s="3">
-        <v>48100</v>
+        <v>47300</v>
       </c>
       <c r="F17" s="3">
-        <v>49900</v>
+        <v>41400</v>
       </c>
       <c r="G17" s="3">
-        <v>53800</v>
+        <v>46700</v>
       </c>
       <c r="H17" s="3">
-        <v>70900</v>
+        <v>48400</v>
       </c>
       <c r="I17" s="3">
+        <v>52100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>68800</v>
+      </c>
+      <c r="K17" s="3">
         <v>61100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>56000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>60300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>55000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>57400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>49800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>36100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>43900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>43500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>41900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>25600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>21700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>26700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>20700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>12100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3500</v>
+        <v>-2800</v>
       </c>
       <c r="E18" s="3">
-        <v>-2200</v>
+        <v>-4600</v>
       </c>
       <c r="F18" s="3">
-        <v>-6000</v>
+        <v>3300</v>
       </c>
       <c r="G18" s="3">
-        <v>-11100</v>
+        <v>-2100</v>
       </c>
       <c r="H18" s="3">
-        <v>-7000</v>
+        <v>-5800</v>
       </c>
       <c r="I18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>8200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-8600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-7300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>11200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>5800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>4900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-3100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>4300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,76 +1514,84 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>900</v>
       </c>
       <c r="I20" s="3">
         <v>1200</v>
       </c>
       <c r="J20" s="3">
+        <v>800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>4500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1584,8 +1658,14 @@
       <c r="X21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1732,162 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4200</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-2100</v>
       </c>
       <c r="F23" s="3">
-        <v>-4600</v>
+        <v>4000</v>
       </c>
       <c r="G23" s="3">
-        <v>-9800</v>
+        <v>-2000</v>
       </c>
       <c r="H23" s="3">
-        <v>-6200</v>
+        <v>-4500</v>
       </c>
       <c r="I23" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>9600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>7100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>15200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>6100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>8100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>6000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>4700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-2300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="N26" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="R26" s="3">
+        <v>10800</v>
+      </c>
+      <c r="S26" s="3">
+        <v>4900</v>
+      </c>
+      <c r="T26" s="3">
         <v>4500</v>
       </c>
-      <c r="E26" s="3">
-        <v>300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>8000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="P26" s="3">
-        <v>10800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>4900</v>
-      </c>
-      <c r="R26" s="3">
-        <v>4500</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>7000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>5900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>4400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4400</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H27" s="3">
-        <v>-3900</v>
+        <v>-4400</v>
       </c>
       <c r="I27" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>10800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>4900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-7500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2398,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-900</v>
       </c>
       <c r="I32" s="3">
         <v>-1200</v>
       </c>
       <c r="J32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-4500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4400</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H33" s="3">
-        <v>-3900</v>
+        <v>-4400</v>
       </c>
       <c r="I33" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>8200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-6500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>10800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>4900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-7500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4400</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H35" s="3">
-        <v>-3900</v>
+        <v>-4400</v>
       </c>
       <c r="I35" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>8200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-6500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>10800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>4900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-7500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2833,67 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>98700</v>
+        <v>104500</v>
       </c>
       <c r="E41" s="3">
-        <v>101400</v>
+        <v>112400</v>
       </c>
       <c r="F41" s="3">
-        <v>209200</v>
+        <v>95700</v>
       </c>
       <c r="G41" s="3">
-        <v>222400</v>
+        <v>98300</v>
       </c>
       <c r="H41" s="3">
-        <v>189300</v>
+        <v>202800</v>
       </c>
       <c r="I41" s="3">
+        <v>215500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>183500</v>
+      </c>
+      <c r="K41" s="3">
         <v>224100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>163300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>139800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>156900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>81400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>232000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>144600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>136200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>94000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>169200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>108000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2729,65 +2903,71 @@
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>124500</v>
+        <v>105100</v>
       </c>
       <c r="E42" s="3">
-        <v>129200</v>
+        <v>89300</v>
       </c>
       <c r="F42" s="3">
-        <v>15700</v>
+        <v>120700</v>
       </c>
       <c r="G42" s="3">
-        <v>15800</v>
+        <v>125200</v>
       </c>
       <c r="H42" s="3">
-        <v>58100</v>
+        <v>15200</v>
       </c>
       <c r="I42" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K42" s="3">
         <v>33300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>154200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>230000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>212600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>329000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>190600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>288200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>299200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>331800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>238000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>85300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,65 +2977,71 @@
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12000</v>
+        <v>13100</v>
       </c>
       <c r="E43" s="3">
-        <v>12800</v>
+        <v>11000</v>
       </c>
       <c r="F43" s="3">
-        <v>12100</v>
+        <v>11600</v>
       </c>
       <c r="G43" s="3">
         <v>12400</v>
       </c>
       <c r="H43" s="3">
-        <v>12500</v>
+        <v>11700</v>
       </c>
       <c r="I43" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K43" s="3">
         <v>15500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>14000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>12400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>10700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>9800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>8200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>7000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>7000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>4400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2865,35 +3051,41 @@
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="E44" s="3">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="F44" s="3">
-        <v>13400</v>
+        <v>16600</v>
       </c>
       <c r="G44" s="3">
-        <v>12700</v>
+        <v>14500</v>
       </c>
       <c r="H44" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="I44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K44" s="3">
         <v>13000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2906,11 +3098,11 @@
       <c r="O44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2933,65 +3125,71 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20200</v>
+        <v>23100</v>
       </c>
       <c r="E45" s="3">
-        <v>23600</v>
+        <v>19800</v>
       </c>
       <c r="F45" s="3">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="G45" s="3">
-        <v>14500</v>
+        <v>22800</v>
       </c>
       <c r="H45" s="3">
-        <v>15200</v>
+        <v>19800</v>
       </c>
       <c r="I45" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K45" s="3">
         <v>17100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>17500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>12600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>9100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>11300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>9600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>13000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>13000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>13500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>11900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>8700</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3001,65 +3199,71 @@
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>272500</v>
+        <v>262800</v>
       </c>
       <c r="E46" s="3">
-        <v>281900</v>
+        <v>249000</v>
       </c>
       <c r="F46" s="3">
-        <v>270900</v>
+        <v>264100</v>
       </c>
       <c r="G46" s="3">
-        <v>277700</v>
+        <v>273300</v>
       </c>
       <c r="H46" s="3">
-        <v>288200</v>
+        <v>262500</v>
       </c>
       <c r="I46" s="3">
+        <v>269100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>279300</v>
+      </c>
+      <c r="K46" s="3">
         <v>302900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>348900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>394800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>389200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>431900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>441900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>453900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>455300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>446200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>423400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>206300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3069,65 +3273,71 @@
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>32400</v>
+        <v>34700</v>
       </c>
       <c r="E47" s="3">
-        <v>33300</v>
+        <v>33600</v>
       </c>
       <c r="F47" s="3">
-        <v>35700</v>
+        <v>31400</v>
       </c>
       <c r="G47" s="3">
-        <v>35700</v>
+        <v>32300</v>
       </c>
       <c r="H47" s="3">
-        <v>35900</v>
+        <v>34600</v>
       </c>
       <c r="I47" s="3">
+        <v>34600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>34800</v>
+      </c>
+      <c r="K47" s="3">
         <v>36000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>31800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>25000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>23100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>6100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>6300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>5600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>4900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3137,65 +3347,71 @@
       <c r="X47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25500</v>
+        <v>22500</v>
       </c>
       <c r="E48" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>24700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>25700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>28000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>29200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K48" s="3">
+        <v>32400</v>
+      </c>
+      <c r="L48" s="3">
+        <v>18600</v>
+      </c>
+      <c r="M48" s="3">
+        <v>20200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>20900</v>
+      </c>
+      <c r="O48" s="3">
+        <v>23600</v>
+      </c>
+      <c r="P48" s="3">
+        <v>24600</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>27400</v>
+      </c>
+      <c r="R48" s="3">
+        <v>27200</v>
+      </c>
+      <c r="S48" s="3">
+        <v>28800</v>
+      </c>
+      <c r="T48" s="3">
+        <v>29700</v>
+      </c>
+      <c r="U48" s="3">
         <v>26600</v>
       </c>
-      <c r="F48" s="3">
-        <v>28900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>30100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>31300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>32400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>18600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>20200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>20900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>23600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>24600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>27400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>27200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>28800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>29700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>26600</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3205,53 +3421,59 @@
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100900</v>
+        <v>96100</v>
       </c>
       <c r="E49" s="3">
-        <v>101800</v>
+        <v>97000</v>
       </c>
       <c r="F49" s="3">
-        <v>102700</v>
+        <v>97800</v>
       </c>
       <c r="G49" s="3">
-        <v>103600</v>
+        <v>98700</v>
       </c>
       <c r="H49" s="3">
-        <v>104400</v>
+        <v>99600</v>
       </c>
       <c r="I49" s="3">
+        <v>100400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>101200</v>
+      </c>
+      <c r="K49" s="3">
         <v>107500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>15100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>15300</v>
       </c>
       <c r="L49" s="3">
         <v>15100</v>
       </c>
       <c r="M49" s="3">
+        <v>15300</v>
+      </c>
+      <c r="N49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="O49" s="3">
         <v>6100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>6200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>6900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3264,17 +3486,23 @@
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,65 +3643,71 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23300</v>
+        <v>19800</v>
       </c>
       <c r="E52" s="3">
-        <v>27900</v>
+        <v>23500</v>
       </c>
       <c r="F52" s="3">
-        <v>21800</v>
+        <v>22600</v>
       </c>
       <c r="G52" s="3">
-        <v>15000</v>
+        <v>27100</v>
       </c>
       <c r="H52" s="3">
-        <v>13600</v>
+        <v>21200</v>
       </c>
       <c r="I52" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K52" s="3">
         <v>32400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>28100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>15900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>9900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>9800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>7700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>8200</v>
       </c>
       <c r="P52" s="3">
         <v>7700</v>
       </c>
       <c r="Q52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="R52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="S52" s="3">
         <v>6600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>7500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3791,71 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>454600</v>
+        <v>435900</v>
       </c>
       <c r="E54" s="3">
-        <v>471500</v>
+        <v>426300</v>
       </c>
       <c r="F54" s="3">
-        <v>460000</v>
+        <v>440600</v>
       </c>
       <c r="G54" s="3">
-        <v>462000</v>
+        <v>457000</v>
       </c>
       <c r="H54" s="3">
-        <v>473400</v>
+        <v>445800</v>
       </c>
       <c r="I54" s="3">
+        <v>447800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>458900</v>
+      </c>
+      <c r="K54" s="3">
         <v>511200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>442400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>471200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>458200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>477500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>486800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>503400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>497300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>487300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>462900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>242700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3613,8 +3865,14 @@
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,40 +3925,42 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -3707,22 +3969,22 @@
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>16</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>16</v>
@@ -3733,8 +3995,14 @@
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,65 +4069,71 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>75600</v>
+        <v>81100</v>
       </c>
       <c r="E59" s="3">
-        <v>97600</v>
+        <v>71300</v>
       </c>
       <c r="F59" s="3">
-        <v>94000</v>
+        <v>73300</v>
       </c>
       <c r="G59" s="3">
-        <v>99000</v>
+        <v>94600</v>
       </c>
       <c r="H59" s="3">
-        <v>101200</v>
+        <v>91100</v>
       </c>
       <c r="I59" s="3">
+        <v>96000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>98100</v>
+      </c>
+      <c r="K59" s="3">
         <v>135800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>84400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>82800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>79100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>74000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>73200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>64100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>71400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>68700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>61900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>57400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3869,65 +4143,71 @@
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>76500</v>
+        <v>81100</v>
       </c>
       <c r="E60" s="3">
-        <v>97600</v>
+        <v>71400</v>
       </c>
       <c r="F60" s="3">
-        <v>94000</v>
+        <v>74100</v>
       </c>
       <c r="G60" s="3">
-        <v>99000</v>
+        <v>94600</v>
       </c>
       <c r="H60" s="3">
-        <v>101300</v>
+        <v>91100</v>
       </c>
       <c r="I60" s="3">
+        <v>96000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>98200</v>
+      </c>
+      <c r="K60" s="3">
         <v>135900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>84700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>83100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>79500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>74400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>73600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>64500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>71800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>69200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>62600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>57400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3937,8 +4217,14 @@
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,65 +4291,71 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7400</v>
+        <v>4900</v>
       </c>
       <c r="E62" s="3">
-        <v>9400</v>
+        <v>5500</v>
       </c>
       <c r="F62" s="3">
-        <v>11100</v>
+        <v>7200</v>
       </c>
       <c r="G62" s="3">
-        <v>12700</v>
+        <v>9100</v>
       </c>
       <c r="H62" s="3">
-        <v>14300</v>
+        <v>10800</v>
       </c>
       <c r="I62" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K62" s="3">
         <v>14600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>12500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>13700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>14100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>16300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>17800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>20000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>18600</v>
       </c>
       <c r="Q62" s="3">
         <v>20000</v>
       </c>
       <c r="R62" s="3">
+        <v>18600</v>
+      </c>
+      <c r="S62" s="3">
+        <v>20000</v>
+      </c>
+      <c r="T62" s="3">
         <v>21000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>21900</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4587,71 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99500</v>
+        <v>101800</v>
       </c>
       <c r="E66" s="3">
-        <v>117000</v>
+        <v>93100</v>
       </c>
       <c r="F66" s="3">
-        <v>115100</v>
+        <v>96400</v>
       </c>
       <c r="G66" s="3">
-        <v>121700</v>
+        <v>113400</v>
       </c>
       <c r="H66" s="3">
-        <v>125700</v>
+        <v>111600</v>
       </c>
       <c r="I66" s="3">
+        <v>118000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>121800</v>
+      </c>
+      <c r="K66" s="3">
         <v>164200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>100200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>99900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>96800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>90700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>91300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>84500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>90400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>89200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>83600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>79300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4345,8 +4661,14 @@
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4558,14 +4894,14 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>218000</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,65 +4985,71 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-45100</v>
+        <v>-45800</v>
       </c>
       <c r="E72" s="3">
-        <v>-49600</v>
+        <v>-45400</v>
       </c>
       <c r="F72" s="3">
-        <v>-49900</v>
+        <v>-43800</v>
       </c>
       <c r="G72" s="3">
-        <v>-45300</v>
+        <v>-48100</v>
       </c>
       <c r="H72" s="3">
-        <v>-35800</v>
+        <v>-48400</v>
       </c>
       <c r="I72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-31900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-32800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-41500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-33900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-41600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-41700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-45000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-49100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-53500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-57700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4711,8 +5059,14 @@
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5281,71 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>355100</v>
+        <v>334100</v>
       </c>
       <c r="E76" s="3">
-        <v>354500</v>
+        <v>333200</v>
       </c>
       <c r="F76" s="3">
-        <v>344900</v>
+        <v>344200</v>
       </c>
       <c r="G76" s="3">
-        <v>340300</v>
+        <v>343600</v>
       </c>
       <c r="H76" s="3">
-        <v>347700</v>
+        <v>334300</v>
       </c>
       <c r="I76" s="3">
+        <v>329800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>337000</v>
+      </c>
+      <c r="K76" s="3">
         <v>347100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>342300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>371300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>361400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>386700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>395500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>418900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>406900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>398100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>379300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-54600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4983,8 +5355,14 @@
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4400</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H81" s="3">
-        <v>-3900</v>
+        <v>-4400</v>
       </c>
       <c r="I81" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>8200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-6500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>10800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>4900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-7500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6054,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +6128,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6378,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6776,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6850,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6924,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6996,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SY_QTR_FIN.xlsx
@@ -775,25 +775,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>56800</v>
+        <v>56900</v>
       </c>
       <c r="E8" s="3">
+        <v>42800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44900</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44600</v>
+      </c>
+      <c r="H8" s="3">
         <v>42700</v>
       </c>
-      <c r="F8" s="3">
-        <v>44800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>44500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>42600</v>
-      </c>
       <c r="I8" s="3">
-        <v>41400</v>
+        <v>41500</v>
       </c>
       <c r="J8" s="3">
-        <v>61900</v>
+        <v>62100</v>
       </c>
       <c r="K8" s="3">
         <v>61300</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="E9" s="3">
         <v>15700</v>
@@ -929,19 +929,19 @@
         <v>27100</v>
       </c>
       <c r="F10" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="G10" s="3">
-        <v>31600</v>
+        <v>31700</v>
       </c>
       <c r="H10" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="I10" s="3">
         <v>26700</v>
       </c>
       <c r="J10" s="3">
-        <v>44400</v>
+        <v>44500</v>
       </c>
       <c r="K10" s="3">
         <v>48600</v>
@@ -1346,25 +1346,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>59600</v>
+        <v>59800</v>
       </c>
       <c r="E17" s="3">
-        <v>47300</v>
+        <v>47400</v>
       </c>
       <c r="F17" s="3">
-        <v>41400</v>
+        <v>41500</v>
       </c>
       <c r="G17" s="3">
-        <v>46700</v>
+        <v>46800</v>
       </c>
       <c r="H17" s="3">
-        <v>48400</v>
+        <v>48500</v>
       </c>
       <c r="I17" s="3">
-        <v>52100</v>
+        <v>52200</v>
       </c>
       <c r="J17" s="3">
-        <v>68800</v>
+        <v>68900</v>
       </c>
       <c r="K17" s="3">
         <v>61100</v>
@@ -1420,13 +1420,13 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="E18" s="3">
         <v>-4600</v>
       </c>
       <c r="F18" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G18" s="3">
         <v>-2100</v>
@@ -1750,7 +1750,7 @@
         <v>-2100</v>
       </c>
       <c r="F23" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G23" s="3">
         <v>-2000</v>
@@ -1759,7 +1759,7 @@
         <v>-4500</v>
       </c>
       <c r="I23" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="J23" s="3">
         <v>-6000</v>
@@ -2052,7 +2052,7 @@
         <v>300</v>
       </c>
       <c r="H27" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="I27" s="3">
         <v>-9200</v>
@@ -2496,7 +2496,7 @@
         <v>300</v>
       </c>
       <c r="H33" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="I33" s="3">
         <v>-9200</v>
@@ -2644,7 +2644,7 @@
         <v>300</v>
       </c>
       <c r="H35" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="I35" s="3">
         <v>-9200</v>
@@ -2841,25 +2841,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>104500</v>
+        <v>104800</v>
       </c>
       <c r="E41" s="3">
-        <v>112400</v>
+        <v>112700</v>
       </c>
       <c r="F41" s="3">
-        <v>95700</v>
+        <v>95900</v>
       </c>
       <c r="G41" s="3">
-        <v>98300</v>
+        <v>98500</v>
       </c>
       <c r="H41" s="3">
-        <v>202800</v>
+        <v>203200</v>
       </c>
       <c r="I41" s="3">
-        <v>215500</v>
+        <v>216000</v>
       </c>
       <c r="J41" s="3">
-        <v>183500</v>
+        <v>183900</v>
       </c>
       <c r="K41" s="3">
         <v>224100</v>
@@ -2915,25 +2915,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>105100</v>
+        <v>105300</v>
       </c>
       <c r="E42" s="3">
-        <v>89300</v>
+        <v>89500</v>
       </c>
       <c r="F42" s="3">
-        <v>120700</v>
+        <v>121000</v>
       </c>
       <c r="G42" s="3">
-        <v>125200</v>
+        <v>125500</v>
       </c>
       <c r="H42" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="I42" s="3">
         <v>15300</v>
       </c>
       <c r="J42" s="3">
-        <v>56300</v>
+        <v>56500</v>
       </c>
       <c r="K42" s="3">
         <v>33300</v>
@@ -2989,7 +2989,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="E43" s="3">
         <v>11000</v>
@@ -3063,7 +3063,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="E44" s="3">
         <v>16500</v>
@@ -3075,13 +3075,13 @@
         <v>14500</v>
       </c>
       <c r="H44" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="I44" s="3">
         <v>12300</v>
       </c>
       <c r="J44" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="K44" s="3">
         <v>13000</v>
@@ -3137,16 +3137,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23100</v>
+        <v>23200</v>
       </c>
       <c r="E45" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="F45" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="G45" s="3">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="H45" s="3">
         <v>19800</v>
@@ -3155,7 +3155,7 @@
         <v>14000</v>
       </c>
       <c r="J45" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="K45" s="3">
         <v>17100</v>
@@ -3211,25 +3211,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>262800</v>
+        <v>263400</v>
       </c>
       <c r="E46" s="3">
-        <v>249000</v>
+        <v>249500</v>
       </c>
       <c r="F46" s="3">
-        <v>264100</v>
+        <v>264700</v>
       </c>
       <c r="G46" s="3">
-        <v>273300</v>
+        <v>273900</v>
       </c>
       <c r="H46" s="3">
-        <v>262500</v>
+        <v>263100</v>
       </c>
       <c r="I46" s="3">
-        <v>269100</v>
+        <v>269700</v>
       </c>
       <c r="J46" s="3">
-        <v>279300</v>
+        <v>279900</v>
       </c>
       <c r="K46" s="3">
         <v>302900</v>
@@ -3285,25 +3285,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34700</v>
+        <v>34800</v>
       </c>
       <c r="E47" s="3">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="F47" s="3">
-        <v>31400</v>
+        <v>31500</v>
       </c>
       <c r="G47" s="3">
         <v>32300</v>
       </c>
       <c r="H47" s="3">
-        <v>34600</v>
+        <v>34700</v>
       </c>
       <c r="I47" s="3">
-        <v>34600</v>
+        <v>34700</v>
       </c>
       <c r="J47" s="3">
-        <v>34800</v>
+        <v>34900</v>
       </c>
       <c r="K47" s="3">
         <v>36000</v>
@@ -3359,7 +3359,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22500</v>
+        <v>22600</v>
       </c>
       <c r="E48" s="3">
         <v>23300</v>
@@ -3368,7 +3368,7 @@
         <v>24700</v>
       </c>
       <c r="G48" s="3">
-        <v>25700</v>
+        <v>25800</v>
       </c>
       <c r="H48" s="3">
         <v>28000</v>
@@ -3377,7 +3377,7 @@
         <v>29200</v>
       </c>
       <c r="J48" s="3">
-        <v>30300</v>
+        <v>30400</v>
       </c>
       <c r="K48" s="3">
         <v>32400</v>
@@ -3433,25 +3433,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>96100</v>
+        <v>96300</v>
       </c>
       <c r="E49" s="3">
-        <v>97000</v>
+        <v>97200</v>
       </c>
       <c r="F49" s="3">
-        <v>97800</v>
+        <v>98000</v>
       </c>
       <c r="G49" s="3">
-        <v>98700</v>
+        <v>98900</v>
       </c>
       <c r="H49" s="3">
-        <v>99600</v>
+        <v>99800</v>
       </c>
       <c r="I49" s="3">
-        <v>100400</v>
+        <v>100600</v>
       </c>
       <c r="J49" s="3">
-        <v>101200</v>
+        <v>101400</v>
       </c>
       <c r="K49" s="3">
         <v>107500</v>
@@ -3655,10 +3655,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="E52" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="F52" s="3">
         <v>22600</v>
@@ -3803,25 +3803,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>435900</v>
+        <v>436900</v>
       </c>
       <c r="E54" s="3">
-        <v>426300</v>
+        <v>427300</v>
       </c>
       <c r="F54" s="3">
-        <v>440600</v>
+        <v>441600</v>
       </c>
       <c r="G54" s="3">
-        <v>457000</v>
+        <v>458000</v>
       </c>
       <c r="H54" s="3">
-        <v>445800</v>
+        <v>446800</v>
       </c>
       <c r="I54" s="3">
-        <v>447800</v>
+        <v>448800</v>
       </c>
       <c r="J54" s="3">
-        <v>458900</v>
+        <v>459900</v>
       </c>
       <c r="K54" s="3">
         <v>511200</v>
@@ -4081,25 +4081,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>81100</v>
+        <v>81300</v>
       </c>
       <c r="E59" s="3">
-        <v>71300</v>
+        <v>71500</v>
       </c>
       <c r="F59" s="3">
-        <v>73300</v>
+        <v>73500</v>
       </c>
       <c r="G59" s="3">
-        <v>94600</v>
+        <v>94800</v>
       </c>
       <c r="H59" s="3">
-        <v>91100</v>
+        <v>91300</v>
       </c>
       <c r="I59" s="3">
-        <v>96000</v>
+        <v>96200</v>
       </c>
       <c r="J59" s="3">
-        <v>98100</v>
+        <v>98300</v>
       </c>
       <c r="K59" s="3">
         <v>135800</v>
@@ -4155,25 +4155,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>81100</v>
+        <v>81300</v>
       </c>
       <c r="E60" s="3">
-        <v>71400</v>
+        <v>71500</v>
       </c>
       <c r="F60" s="3">
-        <v>74100</v>
+        <v>74300</v>
       </c>
       <c r="G60" s="3">
-        <v>94600</v>
+        <v>94800</v>
       </c>
       <c r="H60" s="3">
-        <v>91100</v>
+        <v>91300</v>
       </c>
       <c r="I60" s="3">
-        <v>96000</v>
+        <v>96200</v>
       </c>
       <c r="J60" s="3">
-        <v>98200</v>
+        <v>98400</v>
       </c>
       <c r="K60" s="3">
         <v>135900</v>
@@ -4306,7 +4306,7 @@
         <v>4900</v>
       </c>
       <c r="E62" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F62" s="3">
         <v>7200</v>
@@ -4599,25 +4599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>101800</v>
+        <v>102000</v>
       </c>
       <c r="E66" s="3">
-        <v>93100</v>
+        <v>93300</v>
       </c>
       <c r="F66" s="3">
-        <v>96400</v>
+        <v>96600</v>
       </c>
       <c r="G66" s="3">
-        <v>113400</v>
+        <v>113700</v>
       </c>
       <c r="H66" s="3">
-        <v>111600</v>
+        <v>111800</v>
       </c>
       <c r="I66" s="3">
-        <v>118000</v>
+        <v>118200</v>
       </c>
       <c r="J66" s="3">
-        <v>121800</v>
+        <v>122100</v>
       </c>
       <c r="K66" s="3">
         <v>164200</v>
@@ -4997,25 +4997,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-45800</v>
+        <v>-45900</v>
       </c>
       <c r="E72" s="3">
-        <v>-45400</v>
+        <v>-45500</v>
       </c>
       <c r="F72" s="3">
-        <v>-43800</v>
+        <v>-43900</v>
       </c>
       <c r="G72" s="3">
-        <v>-48100</v>
+        <v>-48200</v>
       </c>
       <c r="H72" s="3">
-        <v>-48400</v>
+        <v>-48500</v>
       </c>
       <c r="I72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="J72" s="3">
-        <v>-34700</v>
+        <v>-34800</v>
       </c>
       <c r="K72" s="3">
         <v>-31900</v>
@@ -5293,25 +5293,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>334100</v>
+        <v>334900</v>
       </c>
       <c r="E76" s="3">
-        <v>333200</v>
+        <v>333900</v>
       </c>
       <c r="F76" s="3">
-        <v>344200</v>
+        <v>344900</v>
       </c>
       <c r="G76" s="3">
-        <v>343600</v>
+        <v>344400</v>
       </c>
       <c r="H76" s="3">
-        <v>334300</v>
+        <v>335000</v>
       </c>
       <c r="I76" s="3">
-        <v>329800</v>
+        <v>330500</v>
       </c>
       <c r="J76" s="3">
-        <v>337000</v>
+        <v>337800</v>
       </c>
       <c r="K76" s="3">
         <v>347100</v>
@@ -5532,7 +5532,7 @@
         <v>300</v>
       </c>
       <c r="H81" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="I81" s="3">
         <v>-9200</v>
